--- a/2021/district_councils.xlsx
+++ b/2021/district_councils.xlsx
@@ -121,15 +121,15 @@
     <t>South Hams District Council</t>
   </si>
   <si>
+    <t>West Suffolk Council</t>
+  </si>
+  <si>
+    <t>Tonbridge and Malling Borough Council</t>
+  </si>
+  <si>
     <t>Reigate and Banstead Borough Council</t>
   </si>
   <si>
-    <t>West Suffolk Council</t>
-  </si>
-  <si>
-    <t>Tonbridge and Malling Borough Council</t>
-  </si>
-  <si>
     <t>Cambridge City Council</t>
   </si>
   <si>
@@ -184,27 +184,27 @@
     <t>Allerdale Borough Council</t>
   </si>
   <si>
+    <t>Epsom and Ewell Borough Council</t>
+  </si>
+  <si>
+    <t>Three Rivers District Council</t>
+  </si>
+  <si>
+    <t>Ashford Borough Council</t>
+  </si>
+  <si>
+    <t>Blaby District Council</t>
+  </si>
+  <si>
+    <t>Gravesham Borough Council</t>
+  </si>
+  <si>
+    <t>Dacorum Borough Council</t>
+  </si>
+  <si>
     <t>Basingstoke and Deane Borough Council</t>
   </si>
   <si>
-    <t>Epsom and Ewell Borough Council</t>
-  </si>
-  <si>
-    <t>Three Rivers District Council</t>
-  </si>
-  <si>
-    <t>Ashford Borough Council</t>
-  </si>
-  <si>
-    <t>Blaby District Council</t>
-  </si>
-  <si>
-    <t>Gravesham Borough Council</t>
-  </si>
-  <si>
-    <t>Dacorum Borough Council</t>
-  </si>
-  <si>
     <t>Sevenoaks District Council</t>
   </si>
   <si>
@@ -388,24 +388,24 @@
     <t>Craven District Council</t>
   </si>
   <si>
+    <t>Bolsover District Council</t>
+  </si>
+  <si>
+    <t>East Hertfordshire District Council</t>
+  </si>
+  <si>
+    <t>Broxbourne Borough Council</t>
+  </si>
+  <si>
+    <t>North Hertfordshire District Council</t>
+  </si>
+  <si>
+    <t>Pendle Borough Council</t>
+  </si>
+  <si>
     <t>Oadby and Wigston Borough Council</t>
   </si>
   <si>
-    <t>Bolsover District Council</t>
-  </si>
-  <si>
-    <t>East Hertfordshire District Council</t>
-  </si>
-  <si>
-    <t>Broxbourne Borough Council</t>
-  </si>
-  <si>
-    <t>North Hertfordshire District Council</t>
-  </si>
-  <si>
-    <t>Pendle Borough Council</t>
-  </si>
-  <si>
     <t>Horsham District Council</t>
   </si>
   <si>
@@ -664,15 +664,15 @@
     <t>SHA</t>
   </si>
   <si>
+    <t>WSK</t>
+  </si>
+  <si>
+    <t>TON</t>
+  </si>
+  <si>
     <t>REI</t>
   </si>
   <si>
-    <t>WSK</t>
-  </si>
-  <si>
-    <t>TON</t>
-  </si>
-  <si>
     <t>CAB</t>
   </si>
   <si>
@@ -727,27 +727,27 @@
     <t>ALL</t>
   </si>
   <si>
+    <t>EPS</t>
+  </si>
+  <si>
+    <t>THE</t>
+  </si>
+  <si>
+    <t>ASF</t>
+  </si>
+  <si>
+    <t>BLA</t>
+  </si>
+  <si>
+    <t>GRA</t>
+  </si>
+  <si>
+    <t>DAC</t>
+  </si>
+  <si>
     <t>BAN</t>
   </si>
   <si>
-    <t>EPS</t>
-  </si>
-  <si>
-    <t>THE</t>
-  </si>
-  <si>
-    <t>ASF</t>
-  </si>
-  <si>
-    <t>BLA</t>
-  </si>
-  <si>
-    <t>GRA</t>
-  </si>
-  <si>
-    <t>DAC</t>
-  </si>
-  <si>
     <t>SEV</t>
   </si>
   <si>
@@ -931,22 +931,22 @@
     <t>CRA</t>
   </si>
   <si>
+    <t>BOS</t>
+  </si>
+  <si>
+    <t>EHE</t>
+  </si>
+  <si>
+    <t>BRX</t>
+  </si>
+  <si>
+    <t>NHE</t>
+  </si>
+  <si>
+    <t>PEN</t>
+  </si>
+  <si>
     <t>OAD</t>
-  </si>
-  <si>
-    <t>BOS</t>
-  </si>
-  <si>
-    <t>EHE</t>
-  </si>
-  <si>
-    <t>BRX</t>
-  </si>
-  <si>
-    <t>NHE</t>
-  </si>
-  <si>
-    <t>PEN</t>
   </si>
   <si>
     <t>HOR</t>
@@ -2494,22 +2494,22 @@
         <v>216</v>
       </c>
       <c r="E16">
-        <v>0.4761904761904762</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="F16">
-        <v>0.9444444444444444</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H16">
+        <v>0.7</v>
+      </c>
+      <c r="I16">
         <v>0.8</v>
       </c>
-      <c r="I16">
-        <v>0.6</v>
-      </c>
       <c r="J16">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -2518,22 +2518,22 @@
         <v>0.6</v>
       </c>
       <c r="M16">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="N16">
-        <v>0.6566666666666667</v>
+        <v>0.6485714285714285</v>
       </c>
       <c r="O16">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P16" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="Q16" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="R16" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="S16" t="s">
         <v>403</v>
@@ -2553,43 +2553,43 @@
         <v>217</v>
       </c>
       <c r="E17">
-        <v>0.8095238095238095</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="G17">
-        <v>0.7142857142857143</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H17">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="I17">
         <v>0.8</v>
       </c>
       <c r="J17">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="L17">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="M17">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="N17">
-        <v>0.6485714285714285</v>
+        <v>0.6447619047619049</v>
       </c>
       <c r="O17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P17" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="Q17" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="R17" t="s">
         <v>397</v>
@@ -2612,10 +2612,10 @@
         <v>218</v>
       </c>
       <c r="E18">
-        <v>0.6190476190476191</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="F18">
-        <v>0.7222222222222222</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="G18">
         <v>0.8571428571428571</v>
@@ -2624,34 +2624,34 @@
         <v>0.8</v>
       </c>
       <c r="I18">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="J18">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K18">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="M18">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="N18">
-        <v>0.6447619047619049</v>
+        <v>0.6441666666666667</v>
       </c>
       <c r="O18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P18" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="Q18" t="s">
         <v>392</v>
       </c>
       <c r="R18" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="S18" t="s">
         <v>403</v>
@@ -3733,19 +3733,19 @@
         <v>237</v>
       </c>
       <c r="E37">
-        <v>0.6190476190476191</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="F37">
-        <v>0.4444444444444444</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="G37">
         <v>0.8571428571428571</v>
       </c>
       <c r="H37">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I37">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="J37">
         <v>0.5</v>
@@ -3754,28 +3754,28 @@
         <v>0</v>
       </c>
       <c r="L37">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="M37">
         <v>0.75</v>
       </c>
       <c r="N37">
-        <v>0.560595238095238</v>
+        <v>0.5541666666666666</v>
       </c>
       <c r="O37">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P37" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="Q37" t="s">
         <v>392</v>
       </c>
       <c r="R37" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="S37" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="38" spans="1:19">
@@ -3792,34 +3792,34 @@
         <v>238</v>
       </c>
       <c r="E38">
-        <v>0.4761904761904762</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="F38">
         <v>0.7777777777777778</v>
       </c>
       <c r="G38">
-        <v>0.8571428571428571</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="H38">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="I38">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="J38">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="L38">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="M38">
         <v>0.75</v>
       </c>
       <c r="N38">
-        <v>0.5541666666666666</v>
+        <v>0.5538095238095238</v>
       </c>
       <c r="O38">
         <v>5</v>
@@ -3828,13 +3828,13 @@
         <v>389</v>
       </c>
       <c r="Q38" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="R38" t="s">
         <v>400</v>
       </c>
       <c r="S38" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="39" spans="1:19">
@@ -3851,49 +3851,49 @@
         <v>239</v>
       </c>
       <c r="E39">
-        <v>0.2857142857142857</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="F39">
-        <v>0.7777777777777778</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="G39">
-        <v>0.4285714285714285</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H39">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I39">
+        <v>0.2</v>
+      </c>
+      <c r="J39">
         <v>1</v>
-      </c>
-      <c r="J39">
-        <v>0.75</v>
       </c>
       <c r="K39">
         <v>0.2</v>
       </c>
       <c r="L39">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="M39">
         <v>0.75</v>
       </c>
       <c r="N39">
-        <v>0.5538095238095238</v>
+        <v>0.5520238095238095</v>
       </c>
       <c r="O39">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P39" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="Q39" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="R39" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="S39" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="40" spans="1:19">
@@ -3910,43 +3910,43 @@
         <v>240</v>
       </c>
       <c r="E40">
-        <v>0.4285714285714285</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="F40">
-        <v>0.6111111111111112</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="G40">
-        <v>0.8571428571428571</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H40">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="I40">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="J40">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K40">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="L40">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="M40">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="N40">
-        <v>0.5520238095238095</v>
+        <v>0.5501190476190476</v>
       </c>
       <c r="O40">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P40" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="Q40" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="R40" t="s">
         <v>397</v>
@@ -3969,49 +3969,49 @@
         <v>241</v>
       </c>
       <c r="E41">
-        <v>0.5238095238095238</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="F41">
-        <v>0.5555555555555556</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="G41">
-        <v>0.5714285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H41">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="I41">
+        <v>0.4</v>
+      </c>
+      <c r="J41">
         <v>1</v>
       </c>
-      <c r="J41">
+      <c r="K41">
+        <v>0.2</v>
+      </c>
+      <c r="L41">
+        <v>0.4</v>
+      </c>
+      <c r="M41">
         <v>0.5</v>
       </c>
-      <c r="K41">
-        <v>0</v>
-      </c>
-      <c r="L41">
-        <v>0.6</v>
-      </c>
-      <c r="M41">
-        <v>0.25</v>
-      </c>
       <c r="N41">
-        <v>0.5501190476190476</v>
+        <v>0.5495238095238095</v>
       </c>
       <c r="O41">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P41" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="Q41" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="R41" t="s">
         <v>397</v>
       </c>
       <c r="S41" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="42" spans="1:19">
@@ -4028,10 +4028,10 @@
         <v>242</v>
       </c>
       <c r="E42">
-        <v>0.5714285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="F42">
-        <v>0.6111111111111112</v>
+        <v>0.5</v>
       </c>
       <c r="G42">
         <v>0.7142857142857143</v>
@@ -4040,37 +4040,37 @@
         <v>0.6</v>
       </c>
       <c r="I42">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="J42">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="K42">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="L42">
         <v>0.4</v>
       </c>
       <c r="M42">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="N42">
-        <v>0.5495238095238095</v>
+        <v>0.5492857142857143</v>
       </c>
       <c r="O42">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P42" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="Q42" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="R42" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="S42" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="43" spans="1:19">
@@ -4087,13 +4087,13 @@
         <v>243</v>
       </c>
       <c r="E43">
-        <v>0.7142857142857143</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="F43">
-        <v>0.5</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="G43">
-        <v>0.7142857142857143</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H43">
         <v>0.6</v>
@@ -4102,7 +4102,7 @@
         <v>0.8</v>
       </c>
       <c r="J43">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="K43">
         <v>0</v>
@@ -4111,22 +4111,22 @@
         <v>0.4</v>
       </c>
       <c r="M43">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="N43">
-        <v>0.5492857142857143</v>
+        <v>0.5480952380952381</v>
       </c>
       <c r="O43">
         <v>4</v>
       </c>
       <c r="P43" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="Q43" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="R43" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="S43" t="s">
         <v>403</v>
@@ -7745,13 +7745,13 @@
         <v>305</v>
       </c>
       <c r="E105">
-        <v>0.2380952380952381</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F105">
-        <v>0.2222222222222222</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="G105">
-        <v>0.7142857142857143</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="H105">
         <v>0.4</v>
@@ -7760,34 +7760,34 @@
         <v>0.2</v>
       </c>
       <c r="J105">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K105">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="L105">
         <v>0.4</v>
       </c>
       <c r="M105">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="N105">
-        <v>0.3211904761904762</v>
+        <v>0.3209523809523809</v>
       </c>
       <c r="O105">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P105" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="Q105" t="s">
         <v>393</v>
       </c>
       <c r="R105" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="S105" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="106" spans="1:19">
@@ -7804,25 +7804,25 @@
         <v>306</v>
       </c>
       <c r="E106">
-        <v>0.3333333333333333</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="F106">
-        <v>0.1111111111111111</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="G106">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H106">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="I106">
         <v>0.2</v>
       </c>
       <c r="J106">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="K106">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="L106">
         <v>0.4</v>
@@ -7831,22 +7831,22 @@
         <v>0.25</v>
       </c>
       <c r="N106">
-        <v>0.3209523809523809</v>
+        <v>0.3177380952380952</v>
       </c>
       <c r="O106">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P106" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="Q106" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="R106" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="S106" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="107" spans="1:19">
@@ -7869,10 +7869,10 @@
         <v>0.2777777777777778</v>
       </c>
       <c r="G107">
-        <v>0.5714285714285714</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H107">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="I107">
         <v>0.2</v>
@@ -7881,28 +7881,28 @@
         <v>0</v>
       </c>
       <c r="K107">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="L107">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="M107">
         <v>0.25</v>
       </c>
       <c r="N107">
-        <v>0.3177380952380952</v>
+        <v>0.3105952380952381</v>
       </c>
       <c r="O107">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P107" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q107" t="s">
         <v>394</v>
       </c>
       <c r="R107" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="S107" t="s">
         <v>403</v>
@@ -7922,40 +7922,40 @@
         <v>308</v>
       </c>
       <c r="E108">
-        <v>0.2857142857142857</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="F108">
-        <v>0.2777777777777778</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="G108">
-        <v>0.8571428571428571</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="H108">
         <v>0.3</v>
       </c>
       <c r="I108">
+        <v>0.4</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="K108">
+        <v>0</v>
+      </c>
+      <c r="L108">
         <v>0.2</v>
       </c>
-      <c r="J108">
-        <v>0</v>
-      </c>
-      <c r="K108">
-        <v>0.2</v>
-      </c>
-      <c r="L108">
-        <v>0</v>
-      </c>
       <c r="M108">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="N108">
-        <v>0.3105952380952381</v>
+        <v>0.3091666666666667</v>
       </c>
       <c r="O108">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P108" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q108" t="s">
         <v>394</v>
@@ -7964,7 +7964,7 @@
         <v>400</v>
       </c>
       <c r="S108" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="109" spans="1:19">
@@ -7981,19 +7981,19 @@
         <v>309</v>
       </c>
       <c r="E109">
-        <v>0.5238095238095238</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="F109">
-        <v>0.4444444444444444</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="G109">
-        <v>0.1428571428571428</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H109">
         <v>0.3</v>
       </c>
       <c r="I109">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="J109">
         <v>0</v>
@@ -8005,25 +8005,25 @@
         <v>0.2</v>
       </c>
       <c r="M109">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="N109">
-        <v>0.3091666666666667</v>
+        <v>0.3052380952380953</v>
       </c>
       <c r="O109">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P109" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="Q109" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="R109" t="s">
         <v>400</v>
       </c>
       <c r="S109" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="110" spans="1:19">
@@ -8040,49 +8040,49 @@
         <v>310</v>
       </c>
       <c r="E110">
-        <v>0.4761904761904762</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="F110">
-        <v>0.2777777777777778</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="G110">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H110">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="I110">
         <v>0.2</v>
       </c>
       <c r="J110">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K110">
         <v>0</v>
       </c>
       <c r="L110">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="M110">
         <v>0</v>
       </c>
       <c r="N110">
-        <v>0.3052380952380953</v>
+        <v>0.2997619047619048</v>
       </c>
       <c r="O110">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P110" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="Q110" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="R110" t="s">
         <v>400</v>
       </c>
       <c r="S110" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="111" spans="1:19">

--- a/2021/district_councils.xlsx
+++ b/2021/district_councils.xlsx
@@ -115,36 +115,36 @@
     <t>North Kesteven District Council</t>
   </si>
   <si>
+    <t>South Hams District Council</t>
+  </si>
+  <si>
+    <t>West Suffolk Council</t>
+  </si>
+  <si>
+    <t>Tonbridge and Malling Borough Council</t>
+  </si>
+  <si>
+    <t>Reigate and Banstead Borough Council</t>
+  </si>
+  <si>
+    <t>Cambridge City Council</t>
+  </si>
+  <si>
+    <t>Mole Valley District Council</t>
+  </si>
+  <si>
+    <t>Swale Borough Council</t>
+  </si>
+  <si>
+    <t>Surrey Heath Borough Council</t>
+  </si>
+  <si>
+    <t>Torridge District Council</t>
+  </si>
+  <si>
     <t>Fareham Borough Council</t>
   </si>
   <si>
-    <t>South Hams District Council</t>
-  </si>
-  <si>
-    <t>West Suffolk Council</t>
-  </si>
-  <si>
-    <t>Tonbridge and Malling Borough Council</t>
-  </si>
-  <si>
-    <t>Reigate and Banstead Borough Council</t>
-  </si>
-  <si>
-    <t>Cambridge City Council</t>
-  </si>
-  <si>
-    <t>Mole Valley District Council</t>
-  </si>
-  <si>
-    <t>Swale Borough Council</t>
-  </si>
-  <si>
-    <t>Surrey Heath Borough Council</t>
-  </si>
-  <si>
-    <t>Torridge District Council</t>
-  </si>
-  <si>
     <t>Exeter City Council</t>
   </si>
   <si>
@@ -163,12 +163,12 @@
     <t>Thanet District Council</t>
   </si>
   <si>
+    <t>Mid Suffolk District Council</t>
+  </si>
+  <si>
     <t>Babergh District Council</t>
   </si>
   <si>
-    <t>Mid Suffolk District Council</t>
-  </si>
-  <si>
     <t>Epping Forest District Council</t>
   </si>
   <si>
@@ -199,429 +199,429 @@
     <t>Gravesham Borough Council</t>
   </si>
   <si>
+    <t>Basingstoke and Deane Borough Council</t>
+  </si>
+  <si>
+    <t>Sevenoaks District Council</t>
+  </si>
+  <si>
+    <t>West Lancashire Borough Council</t>
+  </si>
+  <si>
+    <t>Carlisle City Council</t>
+  </si>
+  <si>
+    <t>St Albans City and District Council</t>
+  </si>
+  <si>
+    <t>West Lindsey District Council</t>
+  </si>
+  <si>
+    <t>Warwick District Council</t>
+  </si>
+  <si>
+    <t>Colchester Borough Council</t>
+  </si>
+  <si>
+    <t>Worthing Borough Council</t>
+  </si>
+  <si>
+    <t>Adur District Council</t>
+  </si>
+  <si>
+    <t>Ipswich Borough Council</t>
+  </si>
+  <si>
+    <t>Dover District Council</t>
+  </si>
+  <si>
+    <t>Tunbridge Wells Borough Council</t>
+  </si>
+  <si>
+    <t>Eastbourne Borough Council</t>
+  </si>
+  <si>
+    <t>Derbyshire Dales District Council</t>
+  </si>
+  <si>
+    <t>West Oxfordshire District Council</t>
+  </si>
+  <si>
+    <t>Winchester City Council</t>
+  </si>
+  <si>
+    <t>Oxford City Council</t>
+  </si>
+  <si>
+    <t>Wychavon District Council</t>
+  </si>
+  <si>
+    <t>Worcester City Council</t>
+  </si>
+  <si>
+    <t>Basildon Borough Council</t>
+  </si>
+  <si>
+    <t>Rushmoor Borough Council</t>
+  </si>
+  <si>
+    <t>Gedling Borough Council</t>
+  </si>
+  <si>
+    <t>Wyre Borough Council</t>
+  </si>
+  <si>
+    <t>Chichester District Council</t>
+  </si>
+  <si>
+    <t>Tandridge District Council</t>
+  </si>
+  <si>
+    <t>Eastleigh Borough Council</t>
+  </si>
+  <si>
+    <t>Rushcliffe Borough Council</t>
+  </si>
+  <si>
+    <t>Scarborough Borough Council</t>
+  </si>
+  <si>
+    <t>Uttlesford District Council</t>
+  </si>
+  <si>
+    <t>Cherwell District Council</t>
+  </si>
+  <si>
+    <t>Forest of Dean District Council</t>
+  </si>
+  <si>
     <t>Dacorum Borough Council</t>
   </si>
   <si>
-    <t>Basingstoke and Deane Borough Council</t>
-  </si>
-  <si>
-    <t>Sevenoaks District Council</t>
-  </si>
-  <si>
-    <t>West Lancashire Borough Council</t>
-  </si>
-  <si>
-    <t>Carlisle City Council</t>
-  </si>
-  <si>
-    <t>St Albans City and District Council</t>
-  </si>
-  <si>
-    <t>West Lindsey District Council</t>
-  </si>
-  <si>
-    <t>Warwick District Council</t>
+    <t>Havant Borough Council</t>
+  </si>
+  <si>
+    <t>Teignbridge District Council</t>
+  </si>
+  <si>
+    <t>East Cambridgeshire District Council</t>
+  </si>
+  <si>
+    <t>Harborough District Council</t>
+  </si>
+  <si>
+    <t>North West Leicestershire District Council</t>
+  </si>
+  <si>
+    <t>Hertsmere Borough Council</t>
+  </si>
+  <si>
+    <t>Newark and Sherwood District Council</t>
+  </si>
+  <si>
+    <t>Gosport Borough Council</t>
+  </si>
+  <si>
+    <t>Hastings Borough Council</t>
+  </si>
+  <si>
+    <t>South Norfolk District Council</t>
+  </si>
+  <si>
+    <t>Mansfield District Council</t>
+  </si>
+  <si>
+    <t>Cotswold District Council</t>
+  </si>
+  <si>
+    <t>Guildford Borough Council</t>
+  </si>
+  <si>
+    <t>South Lakeland District Council</t>
+  </si>
+  <si>
+    <t>High Peak Borough Council</t>
+  </si>
+  <si>
+    <t>Braintree District Council</t>
+  </si>
+  <si>
+    <t>South Cambridgeshire District Council</t>
+  </si>
+  <si>
+    <t>Stevenage Borough Council</t>
+  </si>
+  <si>
+    <t>Malvern Hills District Council</t>
+  </si>
+  <si>
+    <t>Richmondshire District Council</t>
+  </si>
+  <si>
+    <t>Stafford Borough Council</t>
+  </si>
+  <si>
+    <t>Watford Borough Council</t>
+  </si>
+  <si>
+    <t>South Staffordshire Council</t>
+  </si>
+  <si>
+    <t>North East Derbyshire District Council</t>
+  </si>
+  <si>
+    <t>Stratford-on-Avon District Council</t>
+  </si>
+  <si>
+    <t>Norwich City Council</t>
+  </si>
+  <si>
+    <t>Craven District Council</t>
+  </si>
+  <si>
+    <t>Bolsover District Council</t>
+  </si>
+  <si>
+    <t>East Hertfordshire District Council</t>
+  </si>
+  <si>
+    <t>Broxbourne Borough Council</t>
+  </si>
+  <si>
+    <t>North Hertfordshire District Council</t>
+  </si>
+  <si>
+    <t>Oadby and Wigston Borough Council</t>
+  </si>
+  <si>
+    <t>Pendle Borough Council</t>
+  </si>
+  <si>
+    <t>Horsham District Council</t>
+  </si>
+  <si>
+    <t>Wealden District Council</t>
+  </si>
+  <si>
+    <t>Newcastle-under-Lyme Borough Council</t>
+  </si>
+  <si>
+    <t>Welwyn Hatfield Borough Council</t>
+  </si>
+  <si>
+    <t>Broadland District Council</t>
+  </si>
+  <si>
+    <t>Broxtowe Borough Council</t>
+  </si>
+  <si>
+    <t>Borough Council of Kings Lynn and West Norfolk</t>
+  </si>
+  <si>
+    <t>Chesterfield Borough Council</t>
+  </si>
+  <si>
+    <t>East Staffordshire Borough Council</t>
+  </si>
+  <si>
+    <t>Copeland Borough Council</t>
+  </si>
+  <si>
+    <t>East Lindsey District Council</t>
+  </si>
+  <si>
+    <t>Hart District Council</t>
+  </si>
+  <si>
+    <t>Cheltenham Borough Council</t>
+  </si>
+  <si>
+    <t>East Hampshire District Council</t>
+  </si>
+  <si>
+    <t>Ryedale District Council</t>
+  </si>
+  <si>
+    <t>Chelmsford City Council</t>
+  </si>
+  <si>
+    <t>Hambleton District Council</t>
+  </si>
+  <si>
+    <t>Test Valley Borough Council</t>
+  </si>
+  <si>
+    <t>Mid Sussex District Council</t>
+  </si>
+  <si>
+    <t>Rother District Council</t>
+  </si>
+  <si>
+    <t>Charnwood Borough Council</t>
+  </si>
+  <si>
+    <t>Amber Valley Borough Council</t>
+  </si>
+  <si>
+    <t>Harrogate Borough Council</t>
+  </si>
+  <si>
+    <t>Barrow-in-Furness Borough Council</t>
+  </si>
+  <si>
+    <t>City of Lincoln Council</t>
+  </si>
+  <si>
+    <t>Tendring District Council</t>
+  </si>
+  <si>
+    <t>Wyre Forest District Council</t>
+  </si>
+  <si>
+    <t>Hinckley and Bosworth Borough Council</t>
+  </si>
+  <si>
+    <t>Rossendale Borough Council</t>
+  </si>
+  <si>
+    <t>North Norfolk District Council</t>
+  </si>
+  <si>
+    <t>South Kesteven District Council</t>
+  </si>
+  <si>
+    <t>Boston Borough Council</t>
+  </si>
+  <si>
+    <t>Lancaster City Council</t>
+  </si>
+  <si>
+    <t>Tewkesbury Borough Council</t>
+  </si>
+  <si>
+    <t>Bromsgrove District Council</t>
+  </si>
+  <si>
+    <t>Harlow District Council</t>
+  </si>
+  <si>
+    <t>Rochford District Council</t>
+  </si>
+  <si>
+    <t>Vale of White Horse District Council</t>
+  </si>
+  <si>
+    <t>Tamworth Borough Council</t>
+  </si>
+  <si>
+    <t>Crawley Borough Council</t>
+  </si>
+  <si>
+    <t>Dartford Borough Council</t>
+  </si>
+  <si>
+    <t>Eden District Council</t>
+  </si>
+  <si>
+    <t>Erewash Borough Council</t>
+  </si>
+  <si>
+    <t>East Suffolk Council</t>
+  </si>
+  <si>
+    <t>Fenland District Council</t>
+  </si>
+  <si>
+    <t>Fylde Borough Council</t>
+  </si>
+  <si>
+    <t>Gloucester City Council</t>
+  </si>
+  <si>
+    <t>Great Yarmouth Borough Council</t>
+  </si>
+  <si>
+    <t>Spelthorne Borough Council</t>
+  </si>
+  <si>
+    <t>Arun District Council</t>
+  </si>
+  <si>
+    <t>Ashfield District Council</t>
+  </si>
+  <si>
+    <t>Bassetlaw District Council</t>
+  </si>
+  <si>
+    <t>Chorley Borough Council</t>
+  </si>
+  <si>
+    <t>Breckland District Council</t>
+  </si>
+  <si>
+    <t>Brentwood Borough Council</t>
+  </si>
+  <si>
+    <t>Burnley Borough Council</t>
+  </si>
+  <si>
+    <t>Cannock Chase District Council</t>
+  </si>
+  <si>
+    <t>Castle Point Borough Council</t>
+  </si>
+  <si>
+    <t>Ribble Valley Borough Council</t>
+  </si>
+  <si>
+    <t>Nuneaton and Bedworth Borough Council</t>
+  </si>
+  <si>
+    <t>North Warwickshire Borough Council</t>
+  </si>
+  <si>
+    <t>Preston City Council</t>
+  </si>
+  <si>
+    <t>Redditch Borough Council</t>
+  </si>
+  <si>
+    <t>Rugby Borough Council</t>
+  </si>
+  <si>
+    <t>Runnymede Borough Council</t>
+  </si>
+  <si>
+    <t>Selby District Council</t>
+  </si>
+  <si>
+    <t>South Holland District Council</t>
+  </si>
+  <si>
+    <t>South Oxfordshire District Council</t>
+  </si>
+  <si>
+    <t>New Forest District Council</t>
+  </si>
+  <si>
+    <t>Huntingdonshire District Council</t>
+  </si>
+  <si>
+    <t>Hyndburn Borough Council</t>
+  </si>
+  <si>
+    <t>Lichfield District Council</t>
+  </si>
+  <si>
+    <t>Maldon District Council</t>
+  </si>
+  <si>
+    <t>Melton Borough Council</t>
   </si>
   <si>
     <t>North Devon District Council</t>
   </si>
   <si>
-    <t>Colchester Borough Council</t>
-  </si>
-  <si>
-    <t>Worthing Borough Council</t>
-  </si>
-  <si>
-    <t>Adur District Council</t>
-  </si>
-  <si>
-    <t>Ipswich Borough Council</t>
-  </si>
-  <si>
-    <t>Dover District Council</t>
-  </si>
-  <si>
-    <t>Tunbridge Wells Borough Council</t>
-  </si>
-  <si>
-    <t>Eastbourne Borough Council</t>
-  </si>
-  <si>
-    <t>Derbyshire Dales District Council</t>
-  </si>
-  <si>
-    <t>West Oxfordshire District Council</t>
-  </si>
-  <si>
-    <t>Winchester City Council</t>
-  </si>
-  <si>
-    <t>Oxford City Council</t>
-  </si>
-  <si>
-    <t>Wychavon District Council</t>
-  </si>
-  <si>
-    <t>Worcester City Council</t>
-  </si>
-  <si>
-    <t>Rushcliffe Borough Council</t>
-  </si>
-  <si>
-    <t>Basildon Borough Council</t>
-  </si>
-  <si>
-    <t>Gedling Borough Council</t>
-  </si>
-  <si>
-    <t>Wyre Borough Council</t>
-  </si>
-  <si>
-    <t>Rushmoor Borough Council</t>
-  </si>
-  <si>
-    <t>Chichester District Council</t>
-  </si>
-  <si>
-    <t>Tandridge District Council</t>
-  </si>
-  <si>
-    <t>Eastleigh Borough Council</t>
-  </si>
-  <si>
-    <t>Scarborough Borough Council</t>
-  </si>
-  <si>
-    <t>Uttlesford District Council</t>
-  </si>
-  <si>
-    <t>Cherwell District Council</t>
-  </si>
-  <si>
-    <t>Forest of Dean District Council</t>
-  </si>
-  <si>
-    <t>Havant Borough Council</t>
-  </si>
-  <si>
-    <t>Teignbridge District Council</t>
-  </si>
-  <si>
-    <t>Runnymede Borough Council</t>
-  </si>
-  <si>
-    <t>East Cambridgeshire District Council</t>
-  </si>
-  <si>
-    <t>Harborough District Council</t>
-  </si>
-  <si>
-    <t>North West Leicestershire District Council</t>
-  </si>
-  <si>
-    <t>Hertsmere Borough Council</t>
-  </si>
-  <si>
-    <t>Newark and Sherwood District Council</t>
-  </si>
-  <si>
-    <t>Gosport Borough Council</t>
-  </si>
-  <si>
-    <t>Hastings Borough Council</t>
-  </si>
-  <si>
-    <t>South Norfolk District Council</t>
-  </si>
-  <si>
-    <t>Mansfield District Council</t>
-  </si>
-  <si>
-    <t>Guildford Borough Council</t>
-  </si>
-  <si>
-    <t>South Lakeland District Council</t>
-  </si>
-  <si>
-    <t>High Peak Borough Council</t>
-  </si>
-  <si>
-    <t>Braintree District Council</t>
-  </si>
-  <si>
-    <t>South Cambridgeshire District Council</t>
-  </si>
-  <si>
-    <t>Cotswold District Council</t>
-  </si>
-  <si>
-    <t>Stevenage Borough Council</t>
-  </si>
-  <si>
-    <t>Malvern Hills District Council</t>
-  </si>
-  <si>
-    <t>Richmondshire District Council</t>
-  </si>
-  <si>
-    <t>Stafford Borough Council</t>
-  </si>
-  <si>
-    <t>Watford Borough Council</t>
-  </si>
-  <si>
-    <t>South Staffordshire Council</t>
-  </si>
-  <si>
-    <t>North East Derbyshire District Council</t>
-  </si>
-  <si>
-    <t>Stratford-on-Avon District Council</t>
-  </si>
-  <si>
-    <t>Norwich City Council</t>
-  </si>
-  <si>
-    <t>Chelmsford City Council</t>
-  </si>
-  <si>
-    <t>Craven District Council</t>
-  </si>
-  <si>
-    <t>Bolsover District Council</t>
-  </si>
-  <si>
-    <t>East Hertfordshire District Council</t>
-  </si>
-  <si>
-    <t>Broxbourne Borough Council</t>
-  </si>
-  <si>
-    <t>North Hertfordshire District Council</t>
-  </si>
-  <si>
-    <t>Pendle Borough Council</t>
-  </si>
-  <si>
-    <t>Oadby and Wigston Borough Council</t>
-  </si>
-  <si>
-    <t>Horsham District Council</t>
-  </si>
-  <si>
-    <t>Wealden District Council</t>
-  </si>
-  <si>
-    <t>Newcastle-under-Lyme Borough Council</t>
-  </si>
-  <si>
-    <t>Welwyn Hatfield Borough Council</t>
-  </si>
-  <si>
-    <t>Broadland District Council</t>
-  </si>
-  <si>
-    <t>Broxtowe Borough Council</t>
-  </si>
-  <si>
-    <t>Borough Council of Kings Lynn and West Norfolk</t>
-  </si>
-  <si>
-    <t>Chesterfield Borough Council</t>
-  </si>
-  <si>
-    <t>East Staffordshire Borough Council</t>
-  </si>
-  <si>
-    <t>Copeland Borough Council</t>
-  </si>
-  <si>
-    <t>East Lindsey District Council</t>
-  </si>
-  <si>
-    <t>Hart District Council</t>
-  </si>
-  <si>
-    <t>Cheltenham Borough Council</t>
-  </si>
-  <si>
-    <t>East Hampshire District Council</t>
-  </si>
-  <si>
-    <t>Ryedale District Council</t>
-  </si>
-  <si>
-    <t>Crawley Borough Council</t>
-  </si>
-  <si>
-    <t>Hambleton District Council</t>
-  </si>
-  <si>
-    <t>Test Valley Borough Council</t>
-  </si>
-  <si>
-    <t>Mid Sussex District Council</t>
-  </si>
-  <si>
-    <t>Rother District Council</t>
-  </si>
-  <si>
-    <t>Charnwood Borough Council</t>
-  </si>
-  <si>
-    <t>Amber Valley Borough Council</t>
-  </si>
-  <si>
-    <t>Harrogate Borough Council</t>
-  </si>
-  <si>
-    <t>Boston Borough Council</t>
-  </si>
-  <si>
-    <t>Barrow-in-Furness Borough Council</t>
-  </si>
-  <si>
-    <t>City of Lincoln Council</t>
-  </si>
-  <si>
-    <t>Tendring District Council</t>
-  </si>
-  <si>
-    <t>Wyre Forest District Council</t>
-  </si>
-  <si>
-    <t>Hinckley and Bosworth Borough Council</t>
-  </si>
-  <si>
-    <t>Rossendale Borough Council</t>
-  </si>
-  <si>
-    <t>Melton Borough Council</t>
-  </si>
-  <si>
-    <t>South Kesteven District Council</t>
-  </si>
-  <si>
-    <t>Lancaster City Council</t>
-  </si>
-  <si>
-    <t>Tewkesbury Borough Council</t>
-  </si>
-  <si>
-    <t>Bromsgrove District Council</t>
-  </si>
-  <si>
-    <t>Harlow District Council</t>
-  </si>
-  <si>
-    <t>Rochford District Council</t>
-  </si>
-  <si>
-    <t>Vale of White Horse District Council</t>
-  </si>
-  <si>
-    <t>Tamworth Borough Council</t>
-  </si>
-  <si>
-    <t>Dartford Borough Council</t>
-  </si>
-  <si>
-    <t>Eden District Council</t>
-  </si>
-  <si>
-    <t>Erewash Borough Council</t>
-  </si>
-  <si>
-    <t>East Suffolk Council</t>
-  </si>
-  <si>
-    <t>Fenland District Council</t>
-  </si>
-  <si>
-    <t>Fylde Borough Council</t>
-  </si>
-  <si>
-    <t>Gloucester City Council</t>
-  </si>
-  <si>
-    <t>Great Yarmouth Borough Council</t>
-  </si>
-  <si>
-    <t>Chorley Borough Council</t>
-  </si>
-  <si>
-    <t>Arun District Council</t>
-  </si>
-  <si>
-    <t>Ashfield District Council</t>
-  </si>
-  <si>
-    <t>Bassetlaw District Council</t>
-  </si>
-  <si>
-    <t>Breckland District Council</t>
-  </si>
-  <si>
-    <t>Brentwood Borough Council</t>
-  </si>
-  <si>
-    <t>Burnley Borough Council</t>
-  </si>
-  <si>
-    <t>Cannock Chase District Council</t>
-  </si>
-  <si>
-    <t>Castle Point Borough Council</t>
-  </si>
-  <si>
-    <t>Spelthorne Borough Council</t>
-  </si>
-  <si>
-    <t>North Norfolk District Council</t>
-  </si>
-  <si>
-    <t>Nuneaton and Bedworth Borough Council</t>
-  </si>
-  <si>
-    <t>North Warwickshire Borough Council</t>
-  </si>
-  <si>
-    <t>Preston City Council</t>
-  </si>
-  <si>
-    <t>Redditch Borough Council</t>
-  </si>
-  <si>
-    <t>Ribble Valley Borough Council</t>
-  </si>
-  <si>
-    <t>Rugby Borough Council</t>
-  </si>
-  <si>
-    <t>Selby District Council</t>
-  </si>
-  <si>
-    <t>South Holland District Council</t>
-  </si>
-  <si>
-    <t>South Oxfordshire District Council</t>
-  </si>
-  <si>
-    <t>Huntingdonshire District Council</t>
-  </si>
-  <si>
-    <t>Hyndburn Borough Council</t>
-  </si>
-  <si>
-    <t>Lichfield District Council</t>
-  </si>
-  <si>
-    <t>Maldon District Council</t>
-  </si>
-  <si>
-    <t>New Forest District Council</t>
-  </si>
-  <si>
     <t>SWT</t>
   </si>
   <si>
@@ -658,36 +658,36 @@
     <t>NKE</t>
   </si>
   <si>
+    <t>SHA</t>
+  </si>
+  <si>
+    <t>WSK</t>
+  </si>
+  <si>
+    <t>TON</t>
+  </si>
+  <si>
+    <t>REI</t>
+  </si>
+  <si>
+    <t>CAB</t>
+  </si>
+  <si>
+    <t>MOL</t>
+  </si>
+  <si>
+    <t>SWL</t>
+  </si>
+  <si>
+    <t>SUR</t>
+  </si>
+  <si>
+    <t>TOR</t>
+  </si>
+  <si>
     <t>FAR</t>
   </si>
   <si>
-    <t>SHA</t>
-  </si>
-  <si>
-    <t>WSK</t>
-  </si>
-  <si>
-    <t>TON</t>
-  </si>
-  <si>
-    <t>REI</t>
-  </si>
-  <si>
-    <t>CAB</t>
-  </si>
-  <si>
-    <t>MOL</t>
-  </si>
-  <si>
-    <t>SWL</t>
-  </si>
-  <si>
-    <t>SUR</t>
-  </si>
-  <si>
-    <t>TOR</t>
-  </si>
-  <si>
     <t>EXE</t>
   </si>
   <si>
@@ -706,12 +706,12 @@
     <t>THA</t>
   </si>
   <si>
+    <t>MSU</t>
+  </si>
+  <si>
     <t>BAB</t>
   </si>
   <si>
-    <t>MSU</t>
-  </si>
-  <si>
     <t>EPP</t>
   </si>
   <si>
@@ -742,427 +742,427 @@
     <t>GRA</t>
   </si>
   <si>
+    <t>BAN</t>
+  </si>
+  <si>
+    <t>SEV</t>
+  </si>
+  <si>
+    <t>WLA</t>
+  </si>
+  <si>
+    <t>CAR</t>
+  </si>
+  <si>
+    <t>SAL</t>
+  </si>
+  <si>
+    <t>WLI</t>
+  </si>
+  <si>
+    <t>WAW</t>
+  </si>
+  <si>
+    <t>COL</t>
+  </si>
+  <si>
+    <t>WOT</t>
+  </si>
+  <si>
+    <t>ADU</t>
+  </si>
+  <si>
+    <t>IPS</t>
+  </si>
+  <si>
+    <t>DOV</t>
+  </si>
+  <si>
+    <t>TUN</t>
+  </si>
+  <si>
+    <t>EAS</t>
+  </si>
+  <si>
+    <t>DEB</t>
+  </si>
+  <si>
+    <t>WOX</t>
+  </si>
+  <si>
+    <t>WIN</t>
+  </si>
+  <si>
+    <t>OXO</t>
+  </si>
+  <si>
+    <t>WYC</t>
+  </si>
+  <si>
+    <t>WOC</t>
+  </si>
+  <si>
+    <t>BAI</t>
+  </si>
+  <si>
+    <t>RUH</t>
+  </si>
+  <si>
+    <t>GED</t>
+  </si>
+  <si>
+    <t>WYR</t>
+  </si>
+  <si>
+    <t>CHI</t>
+  </si>
+  <si>
+    <t>TAN</t>
+  </si>
+  <si>
+    <t>EAT</t>
+  </si>
+  <si>
+    <t>RUS</t>
+  </si>
+  <si>
+    <t>SCE</t>
+  </si>
+  <si>
+    <t>UTT</t>
+  </si>
+  <si>
+    <t>CHR</t>
+  </si>
+  <si>
+    <t>FOE</t>
+  </si>
+  <si>
     <t>DAC</t>
   </si>
   <si>
-    <t>BAN</t>
-  </si>
-  <si>
-    <t>SEV</t>
-  </si>
-  <si>
-    <t>WLA</t>
-  </si>
-  <si>
-    <t>CAR</t>
-  </si>
-  <si>
-    <t>SAL</t>
-  </si>
-  <si>
-    <t>WLI</t>
-  </si>
-  <si>
-    <t>WAW</t>
+    <t>HAA</t>
+  </si>
+  <si>
+    <t>TEI</t>
+  </si>
+  <si>
+    <t>ECA</t>
+  </si>
+  <si>
+    <t>HAO</t>
+  </si>
+  <si>
+    <t>NWL</t>
+  </si>
+  <si>
+    <t>HER</t>
+  </si>
+  <si>
+    <t>NEA</t>
+  </si>
+  <si>
+    <t>GOS</t>
+  </si>
+  <si>
+    <t>HAS</t>
+  </si>
+  <si>
+    <t>SNO</t>
+  </si>
+  <si>
+    <t>MAS</t>
+  </si>
+  <si>
+    <t>COT</t>
+  </si>
+  <si>
+    <t>GRT</t>
+  </si>
+  <si>
+    <t>SLA</t>
+  </si>
+  <si>
+    <t>HIG</t>
+  </si>
+  <si>
+    <t>BRA</t>
+  </si>
+  <si>
+    <t>SCA</t>
+  </si>
+  <si>
+    <t>STV</t>
+  </si>
+  <si>
+    <t>MAV</t>
+  </si>
+  <si>
+    <t>RIH</t>
+  </si>
+  <si>
+    <t>STA</t>
+  </si>
+  <si>
+    <t>WAT</t>
+  </si>
+  <si>
+    <t>SST</t>
+  </si>
+  <si>
+    <t>NED</t>
+  </si>
+  <si>
+    <t>STR</t>
+  </si>
+  <si>
+    <t>NOW</t>
+  </si>
+  <si>
+    <t>CRA</t>
+  </si>
+  <si>
+    <t>BOS</t>
+  </si>
+  <si>
+    <t>EHE</t>
+  </si>
+  <si>
+    <t>BRX</t>
+  </si>
+  <si>
+    <t>NHE</t>
+  </si>
+  <si>
+    <t>OAD</t>
+  </si>
+  <si>
+    <t>PEN</t>
+  </si>
+  <si>
+    <t>HOR</t>
+  </si>
+  <si>
+    <t>WEA</t>
+  </si>
+  <si>
+    <t>NEC</t>
+  </si>
+  <si>
+    <t>WEW</t>
+  </si>
+  <si>
+    <t>BRO</t>
+  </si>
+  <si>
+    <t>BRT</t>
+  </si>
+  <si>
+    <t>KIN</t>
+  </si>
+  <si>
+    <t>CHS</t>
+  </si>
+  <si>
+    <t>EST</t>
+  </si>
+  <si>
+    <t>COP</t>
+  </si>
+  <si>
+    <t>ELI</t>
+  </si>
+  <si>
+    <t>HAT</t>
+  </si>
+  <si>
+    <t>CHT</t>
+  </si>
+  <si>
+    <t>EHA</t>
+  </si>
+  <si>
+    <t>RYE</t>
+  </si>
+  <si>
+    <t>CHL</t>
+  </si>
+  <si>
+    <t>HAE</t>
+  </si>
+  <si>
+    <t>TES</t>
+  </si>
+  <si>
+    <t>MSS</t>
+  </si>
+  <si>
+    <t>ROH</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>AMB</t>
+  </si>
+  <si>
+    <t>HAG</t>
+  </si>
+  <si>
+    <t>BAR</t>
+  </si>
+  <si>
+    <t>LIC</t>
+  </si>
+  <si>
+    <t>TEN</t>
+  </si>
+  <si>
+    <t>WYE</t>
+  </si>
+  <si>
+    <t>HIN</t>
+  </si>
+  <si>
+    <t>ROS</t>
+  </si>
+  <si>
+    <t>NNO</t>
+  </si>
+  <si>
+    <t>SKE</t>
+  </si>
+  <si>
+    <t>BOT</t>
+  </si>
+  <si>
+    <t>LAC</t>
+  </si>
+  <si>
+    <t>TEW</t>
+  </si>
+  <si>
+    <t>BRM</t>
+  </si>
+  <si>
+    <t>HAR</t>
+  </si>
+  <si>
+    <t>ROC</t>
+  </si>
+  <si>
+    <t>VAL</t>
+  </si>
+  <si>
+    <t>TAW</t>
+  </si>
+  <si>
+    <t>CRW</t>
+  </si>
+  <si>
+    <t>DAR</t>
+  </si>
+  <si>
+    <t>EDN</t>
+  </si>
+  <si>
+    <t>ERE</t>
+  </si>
+  <si>
+    <t>ESK</t>
+  </si>
+  <si>
+    <t>FEN</t>
+  </si>
+  <si>
+    <t>FYL</t>
+  </si>
+  <si>
+    <t>GLO</t>
+  </si>
+  <si>
+    <t>GRY</t>
+  </si>
+  <si>
+    <t>SPE</t>
+  </si>
+  <si>
+    <t>ARU</t>
+  </si>
+  <si>
+    <t>ASH</t>
+  </si>
+  <si>
+    <t>BAE</t>
+  </si>
+  <si>
+    <t>CHO</t>
+  </si>
+  <si>
+    <t>BRE</t>
+  </si>
+  <si>
+    <t>BRW</t>
+  </si>
+  <si>
+    <t>BUN</t>
+  </si>
+  <si>
+    <t>CAN</t>
+  </si>
+  <si>
+    <t>CAS</t>
+  </si>
+  <si>
+    <t>RIB</t>
+  </si>
+  <si>
+    <t>NUN</t>
+  </si>
+  <si>
+    <t>NWA</t>
+  </si>
+  <si>
+    <t>PRE</t>
+  </si>
+  <si>
+    <t>RED</t>
+  </si>
+  <si>
+    <t>RUG</t>
+  </si>
+  <si>
+    <t>RUN</t>
+  </si>
+  <si>
+    <t>SEL</t>
+  </si>
+  <si>
+    <t>SHO</t>
+  </si>
+  <si>
+    <t>SOX</t>
+  </si>
+  <si>
+    <t>NEW</t>
+  </si>
+  <si>
+    <t>HUN</t>
+  </si>
+  <si>
+    <t>HYN</t>
+  </si>
+  <si>
+    <t>LIF</t>
+  </si>
+  <si>
+    <t>MAL</t>
+  </si>
+  <si>
+    <t>MEL</t>
   </si>
   <si>
     <t>NDE</t>
-  </si>
-  <si>
-    <t>COL</t>
-  </si>
-  <si>
-    <t>WOT</t>
-  </si>
-  <si>
-    <t>ADU</t>
-  </si>
-  <si>
-    <t>IPS</t>
-  </si>
-  <si>
-    <t>DOV</t>
-  </si>
-  <si>
-    <t>TUN</t>
-  </si>
-  <si>
-    <t>EAS</t>
-  </si>
-  <si>
-    <t>DEB</t>
-  </si>
-  <si>
-    <t>WOX</t>
-  </si>
-  <si>
-    <t>WIN</t>
-  </si>
-  <si>
-    <t>OXO</t>
-  </si>
-  <si>
-    <t>WYC</t>
-  </si>
-  <si>
-    <t>WOC</t>
-  </si>
-  <si>
-    <t>RUS</t>
-  </si>
-  <si>
-    <t>BAI</t>
-  </si>
-  <si>
-    <t>GED</t>
-  </si>
-  <si>
-    <t>WYR</t>
-  </si>
-  <si>
-    <t>RUH</t>
-  </si>
-  <si>
-    <t>CHI</t>
-  </si>
-  <si>
-    <t>TAN</t>
-  </si>
-  <si>
-    <t>EAT</t>
-  </si>
-  <si>
-    <t>SCE</t>
-  </si>
-  <si>
-    <t>UTT</t>
-  </si>
-  <si>
-    <t>CHR</t>
-  </si>
-  <si>
-    <t>FOE</t>
-  </si>
-  <si>
-    <t>HAA</t>
-  </si>
-  <si>
-    <t>TEI</t>
-  </si>
-  <si>
-    <t>RUN</t>
-  </si>
-  <si>
-    <t>ECA</t>
-  </si>
-  <si>
-    <t>HAO</t>
-  </si>
-  <si>
-    <t>NWL</t>
-  </si>
-  <si>
-    <t>HER</t>
-  </si>
-  <si>
-    <t>NEA</t>
-  </si>
-  <si>
-    <t>GOS</t>
-  </si>
-  <si>
-    <t>HAS</t>
-  </si>
-  <si>
-    <t>SNO</t>
-  </si>
-  <si>
-    <t>MAS</t>
-  </si>
-  <si>
-    <t>GRT</t>
-  </si>
-  <si>
-    <t>SLA</t>
-  </si>
-  <si>
-    <t>HIG</t>
-  </si>
-  <si>
-    <t>BRA</t>
-  </si>
-  <si>
-    <t>SCA</t>
-  </si>
-  <si>
-    <t>COT</t>
-  </si>
-  <si>
-    <t>STV</t>
-  </si>
-  <si>
-    <t>MAV</t>
-  </si>
-  <si>
-    <t>RIH</t>
-  </si>
-  <si>
-    <t>STA</t>
-  </si>
-  <si>
-    <t>WAT</t>
-  </si>
-  <si>
-    <t>SST</t>
-  </si>
-  <si>
-    <t>NED</t>
-  </si>
-  <si>
-    <t>STR</t>
-  </si>
-  <si>
-    <t>NOW</t>
-  </si>
-  <si>
-    <t>CHL</t>
-  </si>
-  <si>
-    <t>CRA</t>
-  </si>
-  <si>
-    <t>BOS</t>
-  </si>
-  <si>
-    <t>EHE</t>
-  </si>
-  <si>
-    <t>BRX</t>
-  </si>
-  <si>
-    <t>NHE</t>
-  </si>
-  <si>
-    <t>PEN</t>
-  </si>
-  <si>
-    <t>OAD</t>
-  </si>
-  <si>
-    <t>HOR</t>
-  </si>
-  <si>
-    <t>WEA</t>
-  </si>
-  <si>
-    <t>NEC</t>
-  </si>
-  <si>
-    <t>WEW</t>
-  </si>
-  <si>
-    <t>BRO</t>
-  </si>
-  <si>
-    <t>BRT</t>
-  </si>
-  <si>
-    <t>KIN</t>
-  </si>
-  <si>
-    <t>CHS</t>
-  </si>
-  <si>
-    <t>EST</t>
-  </si>
-  <si>
-    <t>COP</t>
-  </si>
-  <si>
-    <t>ELI</t>
-  </si>
-  <si>
-    <t>HAT</t>
-  </si>
-  <si>
-    <t>CHT</t>
-  </si>
-  <si>
-    <t>EHA</t>
-  </si>
-  <si>
-    <t>RYE</t>
-  </si>
-  <si>
-    <t>CRW</t>
-  </si>
-  <si>
-    <t>HAE</t>
-  </si>
-  <si>
-    <t>TES</t>
-  </si>
-  <si>
-    <t>MSS</t>
-  </si>
-  <si>
-    <t>ROH</t>
-  </si>
-  <si>
-    <t>CHA</t>
-  </si>
-  <si>
-    <t>AMB</t>
-  </si>
-  <si>
-    <t>HAG</t>
-  </si>
-  <si>
-    <t>BOT</t>
-  </si>
-  <si>
-    <t>BAR</t>
-  </si>
-  <si>
-    <t>LIC</t>
-  </si>
-  <si>
-    <t>TEN</t>
-  </si>
-  <si>
-    <t>WYE</t>
-  </si>
-  <si>
-    <t>HIN</t>
-  </si>
-  <si>
-    <t>ROS</t>
-  </si>
-  <si>
-    <t>MEL</t>
-  </si>
-  <si>
-    <t>SKE</t>
-  </si>
-  <si>
-    <t>LAC</t>
-  </si>
-  <si>
-    <t>TEW</t>
-  </si>
-  <si>
-    <t>BRM</t>
-  </si>
-  <si>
-    <t>HAR</t>
-  </si>
-  <si>
-    <t>ROC</t>
-  </si>
-  <si>
-    <t>VAL</t>
-  </si>
-  <si>
-    <t>TAW</t>
-  </si>
-  <si>
-    <t>DAR</t>
-  </si>
-  <si>
-    <t>EDN</t>
-  </si>
-  <si>
-    <t>ERE</t>
-  </si>
-  <si>
-    <t>ESK</t>
-  </si>
-  <si>
-    <t>FEN</t>
-  </si>
-  <si>
-    <t>FYL</t>
-  </si>
-  <si>
-    <t>GLO</t>
-  </si>
-  <si>
-    <t>GRY</t>
-  </si>
-  <si>
-    <t>CHO</t>
-  </si>
-  <si>
-    <t>ARU</t>
-  </si>
-  <si>
-    <t>ASH</t>
-  </si>
-  <si>
-    <t>BAE</t>
-  </si>
-  <si>
-    <t>BRE</t>
-  </si>
-  <si>
-    <t>BRW</t>
-  </si>
-  <si>
-    <t>BUN</t>
-  </si>
-  <si>
-    <t>CAN</t>
-  </si>
-  <si>
-    <t>CAS</t>
-  </si>
-  <si>
-    <t>SPE</t>
-  </si>
-  <si>
-    <t>NNO</t>
-  </si>
-  <si>
-    <t>NUN</t>
-  </si>
-  <si>
-    <t>NWA</t>
-  </si>
-  <si>
-    <t>PRE</t>
-  </si>
-  <si>
-    <t>RED</t>
-  </si>
-  <si>
-    <t>RIB</t>
-  </si>
-  <si>
-    <t>RUG</t>
-  </si>
-  <si>
-    <t>SEL</t>
-  </si>
-  <si>
-    <t>SHO</t>
-  </si>
-  <si>
-    <t>SOX</t>
-  </si>
-  <si>
-    <t>HUN</t>
-  </si>
-  <si>
-    <t>HYN</t>
-  </si>
-  <si>
-    <t>LIF</t>
-  </si>
-  <si>
-    <t>MAL</t>
-  </si>
-  <si>
-    <t>NEW</t>
   </si>
   <si>
     <t>140k - 160k</t>
@@ -1686,7 +1686,7 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="L2">
         <v>1</v>
@@ -1695,7 +1695,7 @@
         <v>1</v>
       </c>
       <c r="N2">
-        <v>0.9564285714285714</v>
+        <v>0.9164285714285715</v>
       </c>
       <c r="O2">
         <v>2</v>
@@ -2379,43 +2379,43 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="F14">
-        <v>0.8888888888888888</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="G14">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H14">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K14">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="M14">
         <v>0.75</v>
       </c>
       <c r="N14">
-        <v>0.6672619047619048</v>
+        <v>0.6586904761904763</v>
       </c>
       <c r="O14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P14" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q14" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="R14" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="S14" t="s">
         <v>403</v>
@@ -2435,22 +2435,22 @@
         <v>215</v>
       </c>
       <c r="E15">
+        <v>0.8095238095238095</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
         <v>0.7142857142857143</v>
       </c>
-      <c r="F15">
-        <v>0.5555555555555556</v>
-      </c>
-      <c r="G15">
-        <v>0.5714285714285714</v>
-      </c>
       <c r="H15">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="J15">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -2462,19 +2462,19 @@
         <v>0.75</v>
       </c>
       <c r="N15">
-        <v>0.6586904761904763</v>
+        <v>0.6485714285714285</v>
       </c>
       <c r="O15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P15" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="Q15" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="R15" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="S15" t="s">
         <v>403</v>
@@ -2494,43 +2494,43 @@
         <v>216</v>
       </c>
       <c r="E16">
-        <v>0.8095238095238095</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="G16">
-        <v>0.7142857142857143</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H16">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="I16">
         <v>0.8</v>
       </c>
       <c r="J16">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="L16">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="M16">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="N16">
-        <v>0.6485714285714285</v>
+        <v>0.6447619047619049</v>
       </c>
       <c r="O16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P16" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="Q16" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="R16" t="s">
         <v>397</v>
@@ -2553,10 +2553,10 @@
         <v>217</v>
       </c>
       <c r="E17">
-        <v>0.6190476190476191</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="F17">
-        <v>0.7222222222222222</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="G17">
         <v>0.8571428571428571</v>
@@ -2565,34 +2565,34 @@
         <v>0.8</v>
       </c>
       <c r="I17">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="J17">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K17">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="M17">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="N17">
-        <v>0.6447619047619049</v>
+        <v>0.6441666666666667</v>
       </c>
       <c r="O17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P17" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="Q17" t="s">
         <v>392</v>
       </c>
       <c r="R17" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="S17" t="s">
         <v>403</v>
@@ -2615,7 +2615,7 @@
         <v>0.4761904761904762</v>
       </c>
       <c r="F18">
-        <v>0.9444444444444444</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="G18">
         <v>0.8571428571428571</v>
@@ -2624,37 +2624,37 @@
         <v>0.8</v>
       </c>
       <c r="I18">
+        <v>0.8</v>
+      </c>
+      <c r="J18">
+        <v>0.75</v>
+      </c>
+      <c r="K18">
         <v>0.6</v>
       </c>
-      <c r="J18">
-        <v>0.5</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
       <c r="L18">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0.75</v>
       </c>
       <c r="N18">
-        <v>0.6441666666666667</v>
+        <v>0.6433333333333332</v>
       </c>
       <c r="O18">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P18" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="Q18" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="R18" t="s">
         <v>400</v>
       </c>
       <c r="S18" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -2671,49 +2671,49 @@
         <v>219</v>
       </c>
       <c r="E19">
-        <v>0.4761904761904762</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F19">
-        <v>0.7222222222222222</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="G19">
         <v>0.8571428571428571</v>
       </c>
       <c r="H19">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="I19">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="J19">
         <v>0.75</v>
       </c>
       <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
         <v>0.6</v>
       </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
       <c r="M19">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="N19">
-        <v>0.6433333333333332</v>
+        <v>0.6427380952380951</v>
       </c>
       <c r="O19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P19" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="Q19" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="R19" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="S19" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -2730,40 +2730,40 @@
         <v>220</v>
       </c>
       <c r="E20">
-        <v>0.6666666666666666</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="F20">
-        <v>0.9444444444444444</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="G20">
         <v>0.8571428571428571</v>
       </c>
       <c r="H20">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="I20">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>0.4</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
         <v>0.75</v>
       </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0.6</v>
-      </c>
-      <c r="M20">
-        <v>0.5</v>
-      </c>
       <c r="N20">
-        <v>0.6427380952380951</v>
+        <v>0.6422619047619048</v>
       </c>
       <c r="O20">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P20" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="Q20" t="s">
         <v>392</v>
@@ -2772,7 +2772,7 @@
         <v>397</v>
       </c>
       <c r="S20" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -2789,10 +2789,10 @@
         <v>221</v>
       </c>
       <c r="E21">
-        <v>0.6190476190476191</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="F21">
-        <v>0.7222222222222222</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="G21">
         <v>0.8571428571428571</v>
@@ -2801,37 +2801,37 @@
         <v>0.7</v>
       </c>
       <c r="I21">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="J21">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K21">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="M21">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="N21">
-        <v>0.6422619047619048</v>
+        <v>0.6309523809523808</v>
       </c>
       <c r="O21">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P21" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="Q21" t="s">
         <v>392</v>
       </c>
       <c r="R21" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="S21" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="22" spans="1:19">
@@ -2848,19 +2848,19 @@
         <v>222</v>
       </c>
       <c r="E22">
-        <v>0.5714285714285714</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="F22">
-        <v>0.9444444444444444</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="G22">
         <v>0.8571428571428571</v>
       </c>
       <c r="H22">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="I22">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="J22">
         <v>0.5</v>
@@ -2869,28 +2869,28 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="M22">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="N22">
-        <v>0.6309523809523808</v>
+        <v>0.6222619047619048</v>
       </c>
       <c r="O22">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P22" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="Q22" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="R22" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="S22" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="23" spans="1:19">
@@ -2907,25 +2907,25 @@
         <v>223</v>
       </c>
       <c r="E23">
-        <v>0.6190476190476191</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="F23">
-        <v>0.5555555555555556</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="G23">
-        <v>0.8571428571428571</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="H23">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I23">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J23">
         <v>0.5</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="L23">
         <v>0.4</v>
@@ -2934,22 +2934,22 @@
         <v>0.75</v>
       </c>
       <c r="N23">
-        <v>0.6222619047619048</v>
+        <v>0.6172619047619048</v>
       </c>
       <c r="O23">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P23" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q23" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="R23" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="S23" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="24" spans="1:19">
@@ -3350,16 +3350,16 @@
         <v>0.5829761904761904</v>
       </c>
       <c r="O30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P30" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="Q30" t="s">
         <v>394</v>
       </c>
       <c r="R30" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="S30" t="s">
         <v>402</v>
@@ -3409,16 +3409,16 @@
         <v>0.5829761904761904</v>
       </c>
       <c r="O31">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P31" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="Q31" t="s">
         <v>394</v>
       </c>
       <c r="R31" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="S31" t="s">
         <v>402</v>
@@ -4028,13 +4028,13 @@
         <v>242</v>
       </c>
       <c r="E42">
-        <v>0.7142857142857143</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="F42">
-        <v>0.5</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="G42">
-        <v>0.7142857142857143</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H42">
         <v>0.6</v>
@@ -4043,7 +4043,7 @@
         <v>0.8</v>
       </c>
       <c r="J42">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="K42">
         <v>0</v>
@@ -4052,22 +4052,22 @@
         <v>0.4</v>
       </c>
       <c r="M42">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="N42">
-        <v>0.5492857142857143</v>
+        <v>0.5480952380952381</v>
       </c>
       <c r="O42">
         <v>4</v>
       </c>
       <c r="P42" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="Q42" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="R42" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="S42" t="s">
         <v>403</v>
@@ -4087,40 +4087,40 @@
         <v>243</v>
       </c>
       <c r="E43">
-        <v>0.6190476190476191</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="F43">
-        <v>0.4444444444444444</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="G43">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H43">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="I43">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="J43">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K43">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="L43">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="M43">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="N43">
-        <v>0.5480952380952381</v>
+        <v>0.5477380952380951</v>
       </c>
       <c r="O43">
         <v>4</v>
       </c>
       <c r="P43" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="Q43" t="s">
         <v>392</v>
@@ -4146,49 +4146,49 @@
         <v>244</v>
       </c>
       <c r="E44">
-        <v>0.4761904761904762</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="F44">
-        <v>0.7777777777777778</v>
+        <v>0.5</v>
       </c>
       <c r="G44">
-        <v>0.7142857142857143</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H44">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="I44">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="J44">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
         <v>0.2</v>
       </c>
-      <c r="L44">
-        <v>0</v>
-      </c>
       <c r="M44">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="N44">
-        <v>0.5477380952380951</v>
+        <v>0.5439285714285714</v>
       </c>
       <c r="O44">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P44" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="Q44" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="R44" t="s">
         <v>397</v>
       </c>
       <c r="S44" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="45" spans="1:19">
@@ -4205,34 +4205,34 @@
         <v>245</v>
       </c>
       <c r="E45">
-        <v>0.6190476190476191</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F45">
-        <v>0.5</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="G45">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H45">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="I45">
         <v>1</v>
       </c>
       <c r="J45">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K45">
         <v>0</v>
       </c>
       <c r="L45">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="M45">
         <v>0.25</v>
       </c>
       <c r="N45">
-        <v>0.5439285714285714</v>
+        <v>0.5438095238095237</v>
       </c>
       <c r="O45">
         <v>2</v>
@@ -4247,7 +4247,7 @@
         <v>397</v>
       </c>
       <c r="S45" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="46" spans="1:19">
@@ -4264,22 +4264,22 @@
         <v>246</v>
       </c>
       <c r="E46">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="F46">
         <v>0.6666666666666666</v>
       </c>
-      <c r="F46">
-        <v>0.2777777777777778</v>
-      </c>
       <c r="G46">
-        <v>0.7142857142857143</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="H46">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="I46">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="J46">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="K46">
         <v>0</v>
@@ -4288,25 +4288,25 @@
         <v>0.4</v>
       </c>
       <c r="M46">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="N46">
-        <v>0.5438095238095237</v>
+        <v>0.5325</v>
       </c>
       <c r="O46">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P46" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="Q46" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="R46" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="S46" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="47" spans="1:19">
@@ -4323,7 +4323,7 @@
         <v>247</v>
       </c>
       <c r="E47">
-        <v>0.5714285714285714</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F47">
         <v>0.6666666666666666</v>
@@ -4332,13 +4332,13 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="H47">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="I47">
         <v>0.6</v>
       </c>
       <c r="J47">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K47">
         <v>0</v>
@@ -4347,25 +4347,25 @@
         <v>0.4</v>
       </c>
       <c r="M47">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="N47">
-        <v>0.5325</v>
+        <v>0.5317857142857143</v>
       </c>
       <c r="O47">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P47" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q47" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="R47" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="S47" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="48" spans="1:19">
@@ -4382,10 +4382,10 @@
         <v>248</v>
       </c>
       <c r="E48">
-        <v>0.6666666666666666</v>
+        <v>0.9047619047619048</v>
       </c>
       <c r="F48">
-        <v>0.6666666666666666</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="G48">
         <v>0.4285714285714285</v>
@@ -4394,34 +4394,34 @@
         <v>0.7</v>
       </c>
       <c r="I48">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="J48">
+        <v>0.5</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
         <v>0.75</v>
       </c>
-      <c r="K48">
-        <v>0</v>
-      </c>
-      <c r="L48">
-        <v>0.4</v>
-      </c>
-      <c r="M48">
-        <v>0.5</v>
-      </c>
       <c r="N48">
-        <v>0.5317857142857143</v>
+        <v>0.5308333333333334</v>
       </c>
       <c r="O48">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P48" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="Q48" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="R48" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="S48" t="s">
         <v>402</v>
@@ -4441,46 +4441,46 @@
         <v>249</v>
       </c>
       <c r="E49">
-        <v>0.9047619047619048</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="F49">
-        <v>0.5555555555555556</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="G49">
-        <v>0.4285714285714285</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H49">
         <v>0.7</v>
       </c>
       <c r="I49">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="J49">
+        <v>1</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0.4</v>
+      </c>
+      <c r="M49">
         <v>0.5</v>
       </c>
-      <c r="K49">
-        <v>0</v>
-      </c>
-      <c r="L49">
-        <v>0</v>
-      </c>
-      <c r="M49">
-        <v>0.75</v>
-      </c>
       <c r="N49">
-        <v>0.5308333333333334</v>
+        <v>0.5216666666666666</v>
       </c>
       <c r="O49">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P49" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="Q49" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="R49" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="S49" t="s">
         <v>402</v>
@@ -4503,46 +4503,46 @@
         <v>0.6190476190476191</v>
       </c>
       <c r="F50">
-        <v>0.5</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="G50">
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="I50">
         <v>0.6</v>
       </c>
       <c r="J50">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K50">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="L50">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="M50">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="N50">
-        <v>0.5253571428571429</v>
+        <v>0.519047619047619</v>
       </c>
       <c r="O50">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P50" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="Q50" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="R50" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="S50" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="51" spans="1:19">
@@ -4559,49 +4559,49 @@
         <v>251</v>
       </c>
       <c r="E51">
-        <v>0.4761904761904762</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="F51">
-        <v>0.2777777777777778</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="G51">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H51">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="I51">
         <v>0.6</v>
       </c>
       <c r="J51">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K51">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="L51">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="M51">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="N51">
-        <v>0.5216666666666666</v>
+        <v>0.519047619047619</v>
       </c>
       <c r="O51">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P51" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q51" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="R51" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="S51" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="52" spans="1:19">
@@ -4621,46 +4621,46 @@
         <v>0.6190476190476191</v>
       </c>
       <c r="F52">
-        <v>0.5555555555555556</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G52">
-        <v>0.2857142857142857</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H52">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="I52">
         <v>0.6</v>
       </c>
       <c r="J52">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
         <v>0.4</v>
       </c>
-      <c r="L52">
-        <v>0.6</v>
-      </c>
       <c r="M52">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="N52">
-        <v>0.519047619047619</v>
+        <v>0.5135714285714286</v>
       </c>
       <c r="O52">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P52" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="Q52" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="R52" t="s">
         <v>400</v>
       </c>
       <c r="S52" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="53" spans="1:19">
@@ -4680,43 +4680,43 @@
         <v>0.6190476190476191</v>
       </c>
       <c r="F53">
-        <v>0.5555555555555556</v>
+        <v>0.5</v>
       </c>
       <c r="G53">
-        <v>0.2857142857142857</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H53">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="I53">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="J53">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K53">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="L53">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="M53">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="N53">
-        <v>0.519047619047619</v>
+        <v>0.51</v>
       </c>
       <c r="O53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P53" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q53" t="s">
         <v>392</v>
       </c>
       <c r="R53" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="S53" t="s">
         <v>403</v>
@@ -4736,49 +4736,49 @@
         <v>254</v>
       </c>
       <c r="E54">
-        <v>0.6190476190476191</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="F54">
-        <v>0.3333333333333333</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="G54">
         <v>0.5714285714285714</v>
       </c>
       <c r="H54">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="I54">
         <v>0.6</v>
       </c>
       <c r="J54">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K54">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="L54">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="M54">
         <v>0.5</v>
       </c>
       <c r="N54">
-        <v>0.5135714285714286</v>
+        <v>0.5054761904761905</v>
       </c>
       <c r="O54">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P54" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="Q54" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="R54" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="S54" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="55" spans="1:19">
@@ -4795,49 +4795,49 @@
         <v>255</v>
       </c>
       <c r="E55">
-        <v>0.6190476190476191</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="F55">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="G55">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="H55">
         <v>0.5</v>
       </c>
-      <c r="G55">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="H55">
-        <v>0.8</v>
-      </c>
       <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55">
+        <v>0.5</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
         <v>0.2</v>
-      </c>
-      <c r="J55">
-        <v>1</v>
-      </c>
-      <c r="K55">
-        <v>0.2</v>
-      </c>
-      <c r="L55">
-        <v>0</v>
       </c>
       <c r="M55">
         <v>0.5</v>
       </c>
       <c r="N55">
-        <v>0.51</v>
+        <v>0.5045238095238096</v>
       </c>
       <c r="O55">
         <v>1</v>
       </c>
       <c r="P55" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="Q55" t="s">
         <v>392</v>
       </c>
       <c r="R55" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="S55" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="56" spans="1:19">
@@ -4854,22 +4854,22 @@
         <v>256</v>
       </c>
       <c r="E56">
-        <v>0.4761904761904762</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="F56">
-        <v>0.5555555555555556</v>
+        <v>0.5</v>
       </c>
       <c r="G56">
         <v>0.5714285714285714</v>
       </c>
       <c r="H56">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="I56">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="J56">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="K56">
         <v>0.2</v>
@@ -4878,22 +4878,22 @@
         <v>0.2</v>
       </c>
       <c r="M56">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="N56">
-        <v>0.5054761904761905</v>
+        <v>0.5035714285714287</v>
       </c>
       <c r="O56">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P56" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="Q56" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="R56" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="S56" t="s">
         <v>403</v>
@@ -4913,19 +4913,19 @@
         <v>257</v>
       </c>
       <c r="E57">
-        <v>0.4285714285714285</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="F57">
         <v>0.4444444444444444</v>
       </c>
       <c r="G57">
-        <v>0.8571428571428571</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="H57">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I57">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="J57">
         <v>0.5</v>
@@ -4940,22 +4940,22 @@
         <v>0.5</v>
       </c>
       <c r="N57">
-        <v>0.5045238095238096</v>
+        <v>0.5023809523809524</v>
       </c>
       <c r="O57">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P57" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="Q57" t="s">
         <v>392</v>
       </c>
       <c r="R57" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="S57" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="58" spans="1:19">
@@ -4972,49 +4972,49 @@
         <v>258</v>
       </c>
       <c r="E58">
-        <v>0.6190476190476191</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="F58">
-        <v>0.5</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="G58">
-        <v>0.5714285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H58">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="I58">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="J58">
         <v>0.25</v>
       </c>
       <c r="K58">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="L58">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="M58">
         <v>0.75</v>
       </c>
       <c r="N58">
-        <v>0.5035714285714287</v>
+        <v>0.4926190476190476</v>
       </c>
       <c r="O58">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P58" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="Q58" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="R58" t="s">
         <v>398</v>
       </c>
       <c r="S58" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="59" spans="1:19">
@@ -5031,49 +5031,49 @@
         <v>259</v>
       </c>
       <c r="E59">
-        <v>0.4761904761904762</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="F59">
-        <v>0.4444444444444444</v>
+        <v>0.5</v>
       </c>
       <c r="G59">
-        <v>0.4285714285714285</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I59">
         <v>0.8</v>
       </c>
       <c r="J59">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="K59">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="L59">
         <v>0.2</v>
       </c>
       <c r="M59">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="N59">
-        <v>0.5023809523809524</v>
+        <v>0.4896428571428572</v>
       </c>
       <c r="O59">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P59" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="Q59" t="s">
         <v>392</v>
       </c>
       <c r="R59" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="S59" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="60" spans="1:19">
@@ -5093,46 +5093,46 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="F60">
-        <v>0.2222222222222222</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="G60">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H60">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="I60">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="J60">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="K60">
         <v>0</v>
       </c>
       <c r="L60">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="M60">
         <v>0.75</v>
       </c>
       <c r="N60">
-        <v>0.4926190476190476</v>
+        <v>0.4870238095238095</v>
       </c>
       <c r="O60">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P60" t="s">
         <v>385</v>
       </c>
       <c r="Q60" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="R60" t="s">
         <v>398</v>
       </c>
       <c r="S60" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="61" spans="1:19">
@@ -5149,49 +5149,49 @@
         <v>261</v>
       </c>
       <c r="E61">
-        <v>0.5238095238095238</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="F61">
-        <v>0.5</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="G61">
-        <v>0.8571428571428571</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="H61">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="I61">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="J61">
         <v>0.25</v>
       </c>
       <c r="K61">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="L61">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="M61">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="N61">
-        <v>0.4896428571428572</v>
+        <v>0.4773809523809524</v>
       </c>
       <c r="O61">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P61" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q61" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="R61" t="s">
         <v>400</v>
       </c>
       <c r="S61" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="62" spans="1:19">
@@ -5208,46 +5208,46 @@
         <v>262</v>
       </c>
       <c r="E62">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="F62">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="G62">
         <v>0.7142857142857143</v>
       </c>
-      <c r="F62">
-        <v>0.2777777777777778</v>
-      </c>
-      <c r="G62">
-        <v>0.5714285714285714</v>
-      </c>
       <c r="H62">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="I62">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="J62">
+        <v>0.5</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0.2</v>
+      </c>
+      <c r="M62">
+        <v>0.5</v>
+      </c>
+      <c r="N62">
+        <v>0.4747619047619048</v>
+      </c>
+      <c r="O62">
         <v>1</v>
       </c>
-      <c r="K62">
-        <v>0</v>
-      </c>
-      <c r="L62">
-        <v>0.4</v>
-      </c>
-      <c r="M62">
-        <v>0.75</v>
-      </c>
-      <c r="N62">
-        <v>0.4870238095238095</v>
-      </c>
-      <c r="O62">
-        <v>3</v>
-      </c>
       <c r="P62" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q62" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="R62" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="S62" t="s">
         <v>403</v>
@@ -5267,22 +5267,22 @@
         <v>263</v>
       </c>
       <c r="E63">
-        <v>0.4761904761904762</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="F63">
-        <v>0.6111111111111112</v>
+        <v>0.5</v>
       </c>
       <c r="G63">
-        <v>0.4285714285714285</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H63">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="I63">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="J63">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="K63">
         <v>0</v>
@@ -5291,19 +5291,19 @@
         <v>0.6</v>
       </c>
       <c r="M63">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="N63">
-        <v>0.4773809523809524</v>
+        <v>0.4732142857142857</v>
       </c>
       <c r="O63">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P63" t="s">
         <v>384</v>
       </c>
       <c r="Q63" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="R63" t="s">
         <v>400</v>
@@ -5326,13 +5326,13 @@
         <v>264</v>
       </c>
       <c r="E64">
-        <v>0.4285714285714285</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="F64">
         <v>0.7777777777777778</v>
       </c>
       <c r="G64">
-        <v>0.5714285714285714</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="H64">
         <v>0.5</v>
@@ -5341,34 +5341,34 @@
         <v>0.6</v>
       </c>
       <c r="J64">
+        <v>0.25</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0.4</v>
+      </c>
+      <c r="M64">
         <v>0.5</v>
       </c>
-      <c r="K64">
-        <v>0</v>
-      </c>
-      <c r="L64">
-        <v>0</v>
-      </c>
-      <c r="M64">
-        <v>1</v>
-      </c>
       <c r="N64">
-        <v>0.4766666666666667</v>
+        <v>0.4720238095238095</v>
       </c>
       <c r="O64">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P64" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="Q64" t="s">
         <v>393</v>
       </c>
       <c r="R64" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="S64" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="65" spans="1:19">
@@ -5385,46 +5385,46 @@
         <v>265</v>
       </c>
       <c r="E65">
-        <v>0.4285714285714285</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F65">
-        <v>0.5555555555555556</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="G65">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H65">
+        <v>0.5</v>
+      </c>
+      <c r="I65">
+        <v>0.8</v>
+      </c>
+      <c r="J65">
+        <v>0.75</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
         <v>0.6</v>
-      </c>
-      <c r="I65">
-        <v>0.6</v>
-      </c>
-      <c r="J65">
-        <v>0.5</v>
-      </c>
-      <c r="K65">
-        <v>0</v>
-      </c>
-      <c r="L65">
-        <v>0.2</v>
       </c>
       <c r="M65">
         <v>0.5</v>
       </c>
       <c r="N65">
-        <v>0.4747619047619048</v>
+        <v>0.471547619047619</v>
       </c>
       <c r="O65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P65" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="Q65" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="R65" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="S65" t="s">
         <v>403</v>
@@ -5444,10 +5444,10 @@
         <v>266</v>
       </c>
       <c r="E66">
-        <v>0.5238095238095238</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="F66">
-        <v>0.7777777777777778</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="G66">
         <v>0.4285714285714285</v>
@@ -5456,37 +5456,37 @@
         <v>0.5</v>
       </c>
       <c r="I66">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="J66">
         <v>0.25</v>
       </c>
       <c r="K66">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="L66">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="M66">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="N66">
-        <v>0.4720238095238095</v>
+        <v>0.4604761904761905</v>
       </c>
       <c r="O66">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P66" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="Q66" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="R66" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="S66" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="67" spans="1:19">
@@ -5503,22 +5503,22 @@
         <v>267</v>
       </c>
       <c r="E67">
-        <v>0.3333333333333333</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="F67">
-        <v>0.3888888888888889</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="G67">
-        <v>0.5714285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H67">
+        <v>0.3</v>
+      </c>
+      <c r="I67">
+        <v>0.4</v>
+      </c>
+      <c r="J67">
         <v>0.5</v>
-      </c>
-      <c r="I67">
-        <v>0.8</v>
-      </c>
-      <c r="J67">
-        <v>0.75</v>
       </c>
       <c r="K67">
         <v>0</v>
@@ -5527,25 +5527,25 @@
         <v>0.6</v>
       </c>
       <c r="M67">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="N67">
-        <v>0.471547619047619</v>
+        <v>0.4598809523809524</v>
       </c>
       <c r="O67">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P67" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q67" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="R67" t="s">
         <v>397</v>
       </c>
       <c r="S67" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="68" spans="1:19">
@@ -5562,40 +5562,40 @@
         <v>268</v>
       </c>
       <c r="E68">
-        <v>0.3809523809523809</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="F68">
-        <v>0.4444444444444444</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="G68">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H68">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="I68">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="J68">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K68">
         <v>0</v>
       </c>
       <c r="L68">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="M68">
         <v>0.75</v>
       </c>
       <c r="N68">
-        <v>0.4648809523809524</v>
+        <v>0.4595238095238096</v>
       </c>
       <c r="O68">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P68" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="Q68" t="s">
         <v>392</v>
@@ -5604,7 +5604,7 @@
         <v>400</v>
       </c>
       <c r="S68" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="69" spans="1:19">
@@ -5621,49 +5621,49 @@
         <v>269</v>
       </c>
       <c r="E69">
-        <v>0.6190476190476191</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="F69">
-        <v>0.5555555555555556</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="G69">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H69">
+        <v>0.4</v>
+      </c>
+      <c r="I69">
+        <v>0.6</v>
+      </c>
+      <c r="J69">
         <v>0.5</v>
       </c>
-      <c r="I69">
-        <v>0.2</v>
-      </c>
-      <c r="J69">
-        <v>0.25</v>
-      </c>
       <c r="K69">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="L69">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="M69">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="N69">
-        <v>0.4604761904761905</v>
+        <v>0.4545238095238095</v>
       </c>
       <c r="O69">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P69" t="s">
         <v>385</v>
       </c>
       <c r="Q69" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="R69" t="s">
         <v>398</v>
       </c>
       <c r="S69" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="70" spans="1:19">
@@ -5680,22 +5680,22 @@
         <v>270</v>
       </c>
       <c r="E70">
-        <v>0.1904761904761905</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="F70">
-        <v>0.9444444444444444</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="G70">
-        <v>0.7142857142857143</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H70">
         <v>0.3</v>
       </c>
       <c r="I70">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="J70">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="K70">
         <v>0</v>
@@ -5704,19 +5704,19 @@
         <v>0.6</v>
       </c>
       <c r="M70">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="N70">
-        <v>0.4598809523809524</v>
+        <v>0.4522619047619048</v>
       </c>
       <c r="O70">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P70" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Q70" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="R70" t="s">
         <v>397</v>
@@ -5739,49 +5739,49 @@
         <v>271</v>
       </c>
       <c r="E71">
-        <v>0.2380952380952381</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="F71">
-        <v>0.2777777777777778</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="G71">
-        <v>0.7142857142857143</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="H71">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="I71">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="J71">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="K71">
         <v>0</v>
       </c>
       <c r="L71">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="M71">
         <v>0.75</v>
       </c>
       <c r="N71">
-        <v>0.4595238095238096</v>
+        <v>0.4522619047619048</v>
       </c>
       <c r="O71">
         <v>5</v>
       </c>
       <c r="P71" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="Q71" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="R71" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="S71" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
     </row>
     <row r="72" spans="1:19">
@@ -5798,49 +5798,49 @@
         <v>272</v>
       </c>
       <c r="E72">
-        <v>0.2857142857142857</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="F72">
-        <v>0.3888888888888889</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="G72">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H72">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="I72">
         <v>0.8</v>
       </c>
       <c r="J72">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="K72">
         <v>0</v>
       </c>
       <c r="L72">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="M72">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="N72">
-        <v>0.4522619047619048</v>
+        <v>0.4445238095238095</v>
       </c>
       <c r="O72">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P72" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="Q72" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="R72" t="s">
         <v>397</v>
       </c>
       <c r="S72" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="73" spans="1:19">
@@ -5857,10 +5857,10 @@
         <v>273</v>
       </c>
       <c r="E73">
-        <v>0.3809523809523809</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="F73">
-        <v>0.5555555555555556</v>
+        <v>0.5</v>
       </c>
       <c r="G73">
         <v>0.4285714285714285</v>
@@ -5869,7 +5869,7 @@
         <v>0.7</v>
       </c>
       <c r="I73">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="J73">
         <v>0.5</v>
@@ -5884,22 +5884,22 @@
         <v>0.75</v>
       </c>
       <c r="N73">
-        <v>0.4522619047619048</v>
+        <v>0.4382142857142857</v>
       </c>
       <c r="O73">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P73" t="s">
         <v>389</v>
       </c>
       <c r="Q73" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="R73" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="S73" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="74" spans="1:19">
@@ -5916,46 +5916,46 @@
         <v>274</v>
       </c>
       <c r="E74">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="F74">
-        <v>0.4444444444444444</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="G74">
         <v>0.7142857142857143</v>
       </c>
       <c r="H74">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="I74">
         <v>0.8</v>
       </c>
       <c r="J74">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="K74">
         <v>0</v>
       </c>
       <c r="L74">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="M74">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="N74">
-        <v>0.4445238095238095</v>
+        <v>0.4366666666666666</v>
       </c>
       <c r="O74">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P74" t="s">
         <v>383</v>
       </c>
       <c r="Q74" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="R74" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="S74" t="s">
         <v>403</v>
@@ -5975,22 +5975,22 @@
         <v>275</v>
       </c>
       <c r="E75">
-        <v>0.4761904761904762</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F75">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="G75">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="H75">
         <v>0.5</v>
       </c>
-      <c r="G75">
-        <v>0.4285714285714285</v>
-      </c>
-      <c r="H75">
-        <v>0.7</v>
-      </c>
       <c r="I75">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="J75">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K75">
         <v>0</v>
@@ -6002,22 +6002,22 @@
         <v>0.75</v>
       </c>
       <c r="N75">
-        <v>0.4382142857142857</v>
+        <v>0.4304761904761905</v>
       </c>
       <c r="O75">
         <v>2</v>
       </c>
       <c r="P75" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="Q75" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="R75" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="S75" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="76" spans="1:19">
@@ -6034,49 +6034,49 @@
         <v>276</v>
       </c>
       <c r="E76">
-        <v>0.3333333333333333</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="F76">
-        <v>0.5555555555555556</v>
+        <v>0.5</v>
       </c>
       <c r="G76">
-        <v>0.7142857142857143</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="H76">
+        <v>0.6</v>
+      </c>
+      <c r="I76">
+        <v>0.4</v>
+      </c>
+      <c r="J76">
         <v>0.5</v>
       </c>
-      <c r="I76">
-        <v>0.2</v>
-      </c>
-      <c r="J76">
-        <v>0.75</v>
-      </c>
       <c r="K76">
         <v>0</v>
       </c>
       <c r="L76">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="M76">
         <v>0.75</v>
       </c>
       <c r="N76">
-        <v>0.4304761904761905</v>
+        <v>0.4289285714285714</v>
       </c>
       <c r="O76">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P76" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="Q76" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="R76" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="S76" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="77" spans="1:19">
@@ -6093,19 +6093,19 @@
         <v>277</v>
       </c>
       <c r="E77">
-        <v>0.3809523809523809</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="F77">
-        <v>0.5</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="G77">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H77">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="I77">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="J77">
         <v>0.5</v>
@@ -6120,22 +6120,22 @@
         <v>0.75</v>
       </c>
       <c r="N77">
-        <v>0.4289285714285714</v>
+        <v>0.4263095238095238</v>
       </c>
       <c r="O77">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P77" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="Q77" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="R77" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="S77" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="78" spans="1:19">
@@ -6152,46 +6152,46 @@
         <v>278</v>
       </c>
       <c r="E78">
-        <v>0.2857142857142857</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="F78">
-        <v>0.9444444444444444</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="G78">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H78">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="I78">
         <v>0.2</v>
       </c>
       <c r="J78">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K78">
         <v>0</v>
       </c>
       <c r="L78">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="M78">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="N78">
-        <v>0.4263095238095238</v>
+        <v>0.4251190476190476</v>
       </c>
       <c r="O78">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P78" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="Q78" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="R78" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="S78" t="s">
         <v>403</v>
@@ -6211,46 +6211,46 @@
         <v>279</v>
       </c>
       <c r="E79">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="F79">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="G79">
         <v>0.4285714285714285</v>
       </c>
-      <c r="F79">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="G79">
-        <v>0.2857142857142857</v>
-      </c>
       <c r="H79">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="I79">
         <v>0.8</v>
       </c>
       <c r="J79">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="K79">
         <v>0</v>
       </c>
       <c r="L79">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="M79">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="N79">
-        <v>0.4263095238095238</v>
+        <v>0.4226190476190477</v>
       </c>
       <c r="O79">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P79" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="Q79" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="R79" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="S79" t="s">
         <v>403</v>
@@ -6270,22 +6270,22 @@
         <v>280</v>
       </c>
       <c r="E80">
-        <v>0.1904761904761905</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="F80">
-        <v>0.7222222222222222</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="G80">
-        <v>0.5714285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H80">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="I80">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="J80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K80">
         <v>0</v>
@@ -6294,22 +6294,22 @@
         <v>0.2</v>
       </c>
       <c r="M80">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="N80">
-        <v>0.4251190476190476</v>
+        <v>0.4202380952380953</v>
       </c>
       <c r="O80">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P80" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="Q80" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="R80" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="S80" t="s">
         <v>403</v>
@@ -6329,46 +6329,46 @@
         <v>281</v>
       </c>
       <c r="E81">
-        <v>0.3333333333333333</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="F81">
         <v>0.5555555555555556</v>
       </c>
       <c r="G81">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H81">
         <v>0.4</v>
       </c>
       <c r="I81">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="J81">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="K81">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="L81">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="M81">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="N81">
-        <v>0.4226190476190477</v>
+        <v>0.4197619047619048</v>
       </c>
       <c r="O81">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P81" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q81" t="s">
         <v>393</v>
       </c>
       <c r="R81" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="S81" t="s">
         <v>403</v>
@@ -6388,22 +6388,22 @@
         <v>282</v>
       </c>
       <c r="E82">
-        <v>0.1428571428571428</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="F82">
-        <v>0.7777777777777778</v>
+        <v>0.5</v>
       </c>
       <c r="G82">
         <v>0.7142857142857143</v>
       </c>
       <c r="H82">
+        <v>0.4</v>
+      </c>
+      <c r="I82">
         <v>0.6</v>
       </c>
-      <c r="I82">
-        <v>0.4</v>
-      </c>
       <c r="J82">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="K82">
         <v>0</v>
@@ -6415,16 +6415,16 @@
         <v>0.5</v>
       </c>
       <c r="N82">
-        <v>0.4202380952380953</v>
+        <v>0.4167857142857143</v>
       </c>
       <c r="O82">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P82" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q82" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="R82" t="s">
         <v>400</v>
@@ -6447,49 +6447,49 @@
         <v>283</v>
       </c>
       <c r="E83">
-        <v>0.5714285714285714</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="F83">
-        <v>0.5555555555555556</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="G83">
         <v>0.5714285714285714</v>
       </c>
       <c r="H83">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="I83">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="J83">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="K83">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="L83">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="M83">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="N83">
-        <v>0.4197619047619048</v>
+        <v>0.4145238095238095</v>
       </c>
       <c r="O83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P83" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="Q83" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="R83" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="S83" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="84" spans="1:19">
@@ -6506,46 +6506,46 @@
         <v>284</v>
       </c>
       <c r="E84">
-        <v>0.3809523809523809</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="F84">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G84">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="H84">
         <v>0.5</v>
-      </c>
-      <c r="G84">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="H84">
-        <v>0.4</v>
       </c>
       <c r="I84">
         <v>0.6</v>
       </c>
       <c r="J84">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="K84">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="L84">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="M84">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="N84">
-        <v>0.4167857142857143</v>
+        <v>0.4139285714285714</v>
       </c>
       <c r="O84">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P84" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="Q84" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="R84" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="S84" t="s">
         <v>403</v>
@@ -6565,49 +6565,49 @@
         <v>285</v>
       </c>
       <c r="E85">
-        <v>0.3809523809523809</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="F85">
-        <v>0.2777777777777778</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="G85">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H85">
+        <v>0.6</v>
+      </c>
+      <c r="I85">
+        <v>1</v>
+      </c>
+      <c r="J85">
         <v>0.5</v>
       </c>
-      <c r="I85">
-        <v>0.8</v>
-      </c>
-      <c r="J85">
-        <v>0.75</v>
-      </c>
       <c r="K85">
         <v>0</v>
       </c>
       <c r="L85">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="M85">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="N85">
-        <v>0.4145238095238095</v>
+        <v>0.4071428571428571</v>
       </c>
       <c r="O85">
         <v>1</v>
       </c>
       <c r="P85" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Q85" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="R85" t="s">
         <v>400</v>
       </c>
       <c r="S85" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="86" spans="1:19">
@@ -6624,49 +6624,49 @@
         <v>286</v>
       </c>
       <c r="E86">
-        <v>0.1904761904761905</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F86">
-        <v>0.6666666666666666</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="G86">
-        <v>0.2857142857142857</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="H86">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="I86">
         <v>0.6</v>
       </c>
       <c r="J86">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K86">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="L86">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="M86">
         <v>0.75</v>
       </c>
       <c r="N86">
-        <v>0.4139285714285714</v>
+        <v>0.4042857142857142</v>
       </c>
       <c r="O86">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P86" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="Q86" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="R86" t="s">
         <v>398</v>
       </c>
       <c r="S86" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="87" spans="1:19">
@@ -6683,19 +6683,19 @@
         <v>287</v>
       </c>
       <c r="E87">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="F87">
+        <v>0.9444444444444444</v>
+      </c>
+      <c r="G87">
         <v>0.4285714285714285</v>
       </c>
-      <c r="F87">
-        <v>0.1666666666666667</v>
-      </c>
-      <c r="G87">
-        <v>0.2857142857142857</v>
-      </c>
       <c r="H87">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="I87">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="J87">
         <v>0.5</v>
@@ -6707,22 +6707,22 @@
         <v>0.6</v>
       </c>
       <c r="M87">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="N87">
-        <v>0.4071428571428571</v>
+        <v>0.403452380952381</v>
       </c>
       <c r="O87">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P87" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="Q87" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="R87" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="S87" t="s">
         <v>402</v>
@@ -6742,49 +6742,49 @@
         <v>288</v>
       </c>
       <c r="E88">
+        <v>0.4761904761904762</v>
+      </c>
+      <c r="F88">
         <v>0.3333333333333333</v>
       </c>
-      <c r="F88">
-        <v>0.9444444444444444</v>
-      </c>
       <c r="G88">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H88">
+        <v>0.5</v>
+      </c>
+      <c r="I88">
+        <v>0.6</v>
+      </c>
+      <c r="J88">
+        <v>1</v>
+      </c>
+      <c r="K88">
         <v>0.2</v>
       </c>
-      <c r="I88">
+      <c r="L88">
         <v>0.2</v>
-      </c>
-      <c r="J88">
-        <v>0.5</v>
-      </c>
-      <c r="K88">
-        <v>0</v>
-      </c>
-      <c r="L88">
-        <v>0.6</v>
       </c>
       <c r="M88">
         <v>0.25</v>
       </c>
       <c r="N88">
-        <v>0.403452380952381</v>
+        <v>0.4017857142857143</v>
       </c>
       <c r="O88">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P88" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q88" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="R88" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="S88" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="89" spans="1:19">
@@ -6804,19 +6804,19 @@
         <v>0.4761904761904762</v>
       </c>
       <c r="F89">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="G89">
-        <v>0.2857142857142857</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H89">
         <v>0.5</v>
       </c>
       <c r="I89">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="J89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K89">
         <v>0.2</v>
@@ -6825,25 +6825,25 @@
         <v>0.2</v>
       </c>
       <c r="M89">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="N89">
-        <v>0.4017857142857143</v>
+        <v>0.3971428571428572</v>
       </c>
       <c r="O89">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P89" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="Q89" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="R89" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="S89" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
     </row>
     <row r="90" spans="1:19">
@@ -6860,49 +6860,49 @@
         <v>290</v>
       </c>
       <c r="E90">
-        <v>0.4761904761904762</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="F90">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="G90">
-        <v>0.5714285714285714</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="H90">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="I90">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="J90">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="K90">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="L90">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="M90">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="N90">
-        <v>0.3971428571428572</v>
+        <v>0.3866666666666667</v>
       </c>
       <c r="O90">
         <v>3</v>
       </c>
       <c r="P90" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="Q90" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="R90" t="s">
         <v>397</v>
       </c>
       <c r="S90" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="91" spans="1:19">
@@ -6919,37 +6919,37 @@
         <v>291</v>
       </c>
       <c r="E91">
-        <v>0.2380952380952381</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="F91">
-        <v>0.1111111111111111</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="G91">
-        <v>0.4285714285714285</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H91">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="I91">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="J91">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="K91">
         <v>0</v>
       </c>
       <c r="L91">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="M91">
         <v>0.25</v>
       </c>
       <c r="N91">
-        <v>0.3866666666666667</v>
+        <v>0.3840476190476191</v>
       </c>
       <c r="O91">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P91" t="s">
         <v>383</v>
@@ -6958,10 +6958,10 @@
         <v>394</v>
       </c>
       <c r="R91" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="S91" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="92" spans="1:19">
@@ -6978,13 +6978,13 @@
         <v>292</v>
       </c>
       <c r="E92">
-        <v>0.3809523809523809</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="F92">
         <v>0.3888888888888889</v>
       </c>
       <c r="G92">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H92">
         <v>0.5</v>
@@ -6993,34 +6993,34 @@
         <v>0.4</v>
       </c>
       <c r="J92">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="K92">
         <v>0</v>
       </c>
       <c r="L92">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="M92">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="N92">
-        <v>0.3840476190476191</v>
+        <v>0.3765476190476191</v>
       </c>
       <c r="O92">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P92" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="Q92" t="s">
         <v>394</v>
       </c>
       <c r="R92" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="S92" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
     </row>
     <row r="93" spans="1:19">
@@ -7037,49 +7037,49 @@
         <v>293</v>
       </c>
       <c r="E93">
-        <v>0.3333333333333333</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="F93">
-        <v>0.1666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="G93">
         <v>0.4285714285714285</v>
       </c>
       <c r="H93">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="I93">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="J93">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="K93">
         <v>0</v>
       </c>
       <c r="L93">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="M93">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="N93">
-        <v>0.3792857142857143</v>
+        <v>0.3753571428571429</v>
       </c>
       <c r="O93">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P93" t="s">
         <v>389</v>
       </c>
       <c r="Q93" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="R93" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="S93" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="94" spans="1:19">
@@ -7096,49 +7096,49 @@
         <v>294</v>
       </c>
       <c r="E94">
-        <v>0.2857142857142857</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="F94">
-        <v>0.3888888888888889</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="G94">
-        <v>0.2857142857142857</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H94">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="I94">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="J94">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="K94">
         <v>0</v>
       </c>
       <c r="L94">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="M94">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="N94">
-        <v>0.3765476190476191</v>
+        <v>0.3708333333333333</v>
       </c>
       <c r="O94">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P94" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="Q94" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="R94" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="S94" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="95" spans="1:19">
@@ -7155,49 +7155,49 @@
         <v>295</v>
       </c>
       <c r="E95">
-        <v>0.5238095238095238</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="F95">
-        <v>0.5</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="G95">
-        <v>0.4285714285714285</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H95">
+        <v>0.7</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>0</v>
+      </c>
+      <c r="L95">
         <v>0.4</v>
       </c>
-      <c r="I95">
-        <v>0.4</v>
-      </c>
-      <c r="J95">
-        <v>0.25</v>
-      </c>
-      <c r="K95">
-        <v>0</v>
-      </c>
-      <c r="L95">
-        <v>0.2</v>
-      </c>
       <c r="M95">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="N95">
-        <v>0.3753571428571429</v>
+        <v>0.3705952380952381</v>
       </c>
       <c r="O95">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P95" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="Q95" t="s">
         <v>391</v>
       </c>
       <c r="R95" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="S95" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="96" spans="1:19">
@@ -7214,49 +7214,49 @@
         <v>296</v>
       </c>
       <c r="E96">
-        <v>0.8095238095238095</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="F96">
-        <v>0.05555555555555555</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G96">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H96">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="I96">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="J96">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="K96">
         <v>0</v>
       </c>
       <c r="L96">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="M96">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="N96">
-        <v>0.3708333333333333</v>
+        <v>0.3617857142857143</v>
       </c>
       <c r="O96">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P96" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="Q96" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="R96" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="S96" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="97" spans="1:19">
@@ -7276,16 +7276,16 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="F97">
-        <v>0.1111111111111111</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="G97">
-        <v>0.7142857142857143</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="H97">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="I97">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="J97">
         <v>0</v>
@@ -7294,19 +7294,19 @@
         <v>0</v>
       </c>
       <c r="L97">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="M97">
         <v>0.75</v>
       </c>
       <c r="N97">
-        <v>0.3705952380952381</v>
+        <v>0.3515476190476191</v>
       </c>
       <c r="O97">
         <v>4</v>
       </c>
       <c r="P97" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="Q97" t="s">
         <v>391</v>
@@ -7332,19 +7332,19 @@
         <v>298</v>
       </c>
       <c r="E98">
-        <v>0.4761904761904762</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F98">
-        <v>0.3333333333333333</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="G98">
-        <v>0.2857142857142857</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="H98">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="I98">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="J98">
         <v>0.5</v>
@@ -7353,28 +7353,28 @@
         <v>0</v>
       </c>
       <c r="L98">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="M98">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="N98">
-        <v>0.3617857142857143</v>
+        <v>0.3476190476190477</v>
       </c>
       <c r="O98">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P98" t="s">
         <v>384</v>
       </c>
       <c r="Q98" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="R98" t="s">
         <v>400</v>
       </c>
       <c r="S98" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="99" spans="1:19">
@@ -7391,22 +7391,22 @@
         <v>299</v>
       </c>
       <c r="E99">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="F99">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G99">
         <v>0.4285714285714285</v>
       </c>
-      <c r="F99">
-        <v>0.7222222222222222</v>
-      </c>
-      <c r="G99">
-        <v>0.1428571428571428</v>
-      </c>
       <c r="H99">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I99">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="J99">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="K99">
         <v>0</v>
@@ -7415,22 +7415,22 @@
         <v>0.2</v>
       </c>
       <c r="M99">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="N99">
-        <v>0.3515476190476191</v>
+        <v>0.3475</v>
       </c>
       <c r="O99">
         <v>4</v>
       </c>
       <c r="P99" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="Q99" t="s">
         <v>391</v>
       </c>
       <c r="R99" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="S99" t="s">
         <v>403</v>
@@ -7450,49 +7450,49 @@
         <v>300</v>
       </c>
       <c r="E100">
-        <v>0.3333333333333333</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="F100">
-        <v>0.7222222222222222</v>
+        <v>0.5</v>
       </c>
       <c r="G100">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H100">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="I100">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="J100">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K100">
         <v>0</v>
       </c>
       <c r="L100">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="M100">
         <v>0</v>
       </c>
       <c r="N100">
-        <v>0.3476190476190477</v>
+        <v>0.3321428571428571</v>
       </c>
       <c r="O100">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P100" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="Q100" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="R100" t="s">
         <v>400</v>
       </c>
       <c r="S100" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="101" spans="1:19">
@@ -7509,49 +7509,49 @@
         <v>301</v>
       </c>
       <c r="E101">
-        <v>0.5714285714285714</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="F101">
         <v>0.3333333333333333</v>
       </c>
       <c r="G101">
-        <v>0.4285714285714285</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="H101">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I101">
         <v>0.6</v>
       </c>
       <c r="J101">
+        <v>0.75</v>
+      </c>
+      <c r="K101">
+        <v>0.4</v>
+      </c>
+      <c r="L101">
+        <v>0</v>
+      </c>
+      <c r="M101">
         <v>0.25</v>
       </c>
-      <c r="K101">
-        <v>0</v>
-      </c>
-      <c r="L101">
-        <v>0.2</v>
-      </c>
-      <c r="M101">
-        <v>0.5</v>
-      </c>
       <c r="N101">
-        <v>0.3475</v>
+        <v>0.3235714285714286</v>
       </c>
       <c r="O101">
         <v>4</v>
       </c>
       <c r="P101" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="Q101" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="R101" t="s">
         <v>398</v>
       </c>
       <c r="S101" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="102" spans="1:19">
@@ -7568,49 +7568,49 @@
         <v>302</v>
       </c>
       <c r="E102">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="F102">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="G102">
         <v>0.4285714285714285</v>
       </c>
-      <c r="F102">
-        <v>0.5</v>
-      </c>
-      <c r="G102">
-        <v>0.2857142857142857</v>
-      </c>
       <c r="H102">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="I102">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="J102">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="K102">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="L102">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="M102">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="N102">
-        <v>0.3321428571428571</v>
+        <v>0.3209523809523809</v>
       </c>
       <c r="O102">
         <v>1</v>
       </c>
       <c r="P102" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="Q102" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="R102" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="S102" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="103" spans="1:19">
@@ -7627,40 +7627,40 @@
         <v>303</v>
       </c>
       <c r="E103">
-        <v>0.4761904761904762</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="F103">
-        <v>0.1666666666666667</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="G103">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H103">
+        <v>0.5</v>
+      </c>
+      <c r="I103">
         <v>0.2</v>
       </c>
-      <c r="I103">
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
         <v>0.4</v>
       </c>
-      <c r="J103">
-        <v>0</v>
-      </c>
-      <c r="K103">
-        <v>0</v>
-      </c>
-      <c r="L103">
-        <v>0.2</v>
-      </c>
       <c r="M103">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="N103">
-        <v>0.3310714285714286</v>
+        <v>0.3177380952380952</v>
       </c>
       <c r="O103">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P103" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="Q103" t="s">
         <v>394</v>
@@ -7669,7 +7669,7 @@
         <v>397</v>
       </c>
       <c r="S103" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="104" spans="1:19">
@@ -7686,25 +7686,25 @@
         <v>304</v>
       </c>
       <c r="E104">
-        <v>0.3809523809523809</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="F104">
-        <v>0.3333333333333333</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="G104">
-        <v>0.1428571428571428</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H104">
         <v>0.3</v>
       </c>
       <c r="I104">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="J104">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="K104">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="L104">
         <v>0</v>
@@ -7713,22 +7713,22 @@
         <v>0.25</v>
       </c>
       <c r="N104">
-        <v>0.3235714285714286</v>
+        <v>0.3105952380952381</v>
       </c>
       <c r="O104">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P104" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="Q104" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="R104" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="S104" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="105" spans="1:19">
@@ -7745,46 +7745,46 @@
         <v>305</v>
       </c>
       <c r="E105">
-        <v>0.3333333333333333</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="F105">
-        <v>0.1111111111111111</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="G105">
-        <v>0.4285714285714285</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="H105">
+        <v>0.3</v>
+      </c>
+      <c r="I105">
         <v>0.4</v>
       </c>
-      <c r="I105">
+      <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="K105">
+        <v>0</v>
+      </c>
+      <c r="L105">
         <v>0.2</v>
       </c>
-      <c r="J105">
+      <c r="M105">
         <v>0.75</v>
       </c>
-      <c r="K105">
-        <v>0.2</v>
-      </c>
-      <c r="L105">
-        <v>0.4</v>
-      </c>
-      <c r="M105">
-        <v>0.25</v>
-      </c>
       <c r="N105">
-        <v>0.3209523809523809</v>
+        <v>0.3091666666666667</v>
       </c>
       <c r="O105">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P105" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="Q105" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="R105" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="S105" t="s">
         <v>402</v>
@@ -7804,22 +7804,22 @@
         <v>306</v>
       </c>
       <c r="E106">
-        <v>0.2857142857142857</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="F106">
-        <v>0.2777777777777778</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="G106">
         <v>0.5714285714285714</v>
       </c>
       <c r="H106">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="I106">
         <v>0.2</v>
       </c>
       <c r="J106">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K106">
         <v>0</v>
@@ -7828,25 +7828,25 @@
         <v>0.4</v>
       </c>
       <c r="M106">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="N106">
-        <v>0.3177380952380952</v>
+        <v>0.2997619047619048</v>
       </c>
       <c r="O106">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P106" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="Q106" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="R106" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="S106" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="107" spans="1:19">
@@ -7863,13 +7863,13 @@
         <v>307</v>
       </c>
       <c r="E107">
-        <v>0.2857142857142857</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="F107">
         <v>0.2777777777777778</v>
       </c>
       <c r="G107">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H107">
         <v>0.3</v>
@@ -7881,25 +7881,25 @@
         <v>0</v>
       </c>
       <c r="K107">
+        <v>0</v>
+      </c>
+      <c r="L107">
         <v>0.2</v>
       </c>
-      <c r="L107">
-        <v>0</v>
-      </c>
       <c r="M107">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="N107">
-        <v>0.3105952380952381</v>
+        <v>0.2980952380952381</v>
       </c>
       <c r="O107">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P107" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="Q107" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="R107" t="s">
         <v>400</v>
@@ -7922,13 +7922,13 @@
         <v>308</v>
       </c>
       <c r="E108">
-        <v>0.5238095238095238</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="F108">
-        <v>0.4444444444444444</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="G108">
-        <v>0.1428571428571428</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="H108">
         <v>0.3</v>
@@ -7937,7 +7937,7 @@
         <v>0.4</v>
       </c>
       <c r="J108">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="K108">
         <v>0</v>
@@ -7946,25 +7946,25 @@
         <v>0.2</v>
       </c>
       <c r="M108">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="N108">
-        <v>0.3091666666666667</v>
+        <v>0.2948809523809524</v>
       </c>
       <c r="O108">
         <v>5</v>
       </c>
       <c r="P108" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="Q108" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="R108" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="S108" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="109" spans="1:19">
@@ -7981,19 +7981,19 @@
         <v>309</v>
       </c>
       <c r="E109">
-        <v>0.4761904761904762</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="F109">
-        <v>0.2777777777777778</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="G109">
-        <v>0.7142857142857143</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="H109">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="I109">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="J109">
         <v>0</v>
@@ -8002,25 +8002,25 @@
         <v>0</v>
       </c>
       <c r="L109">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="M109">
         <v>0</v>
       </c>
       <c r="N109">
-        <v>0.3052380952380953</v>
+        <v>0.2930952380952381</v>
       </c>
       <c r="O109">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P109" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="Q109" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="R109" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="S109" t="s">
         <v>403</v>
@@ -8040,19 +8040,19 @@
         <v>310</v>
       </c>
       <c r="E110">
-        <v>0.2380952380952381</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="F110">
-        <v>0.2222222222222222</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="G110">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H110">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="I110">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="J110">
         <v>0.5</v>
@@ -8061,28 +8061,28 @@
         <v>0</v>
       </c>
       <c r="L110">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="M110">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="N110">
-        <v>0.2997619047619048</v>
+        <v>0.2925</v>
       </c>
       <c r="O110">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P110" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="Q110" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="R110" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="S110" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="111" spans="1:19">
@@ -8099,22 +8099,22 @@
         <v>311</v>
       </c>
       <c r="E111">
-        <v>0.4761904761904762</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="F111">
-        <v>0.1111111111111111</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="G111">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H111">
         <v>0.3</v>
       </c>
       <c r="I111">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="J111">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="K111">
         <v>0</v>
@@ -8123,22 +8123,22 @@
         <v>0.2</v>
       </c>
       <c r="M111">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="N111">
-        <v>0.2948809523809524</v>
+        <v>0.2821428571428571</v>
       </c>
       <c r="O111">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P111" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="Q111" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="R111" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="S111" t="s">
         <v>403</v>
@@ -8158,22 +8158,22 @@
         <v>312</v>
       </c>
       <c r="E112">
-        <v>0.3809523809523809</v>
+        <v>0</v>
       </c>
       <c r="F112">
-        <v>0.1111111111111111</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="G112">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H112">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="I112">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="J112">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="K112">
         <v>0</v>
@@ -8182,22 +8182,22 @@
         <v>0</v>
       </c>
       <c r="M112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N112">
-        <v>0.2930952380952381</v>
+        <v>0.2748809523809524</v>
       </c>
       <c r="O112">
         <v>4</v>
       </c>
       <c r="P112" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="Q112" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="R112" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="S112" t="s">
         <v>403</v>
@@ -8217,49 +8217,49 @@
         <v>313</v>
       </c>
       <c r="E113">
-        <v>0.3809523809523809</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="F113">
-        <v>0.1666666666666667</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="G113">
-        <v>0.2857142857142857</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="H113">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="I113">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="J113">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="K113">
         <v>0</v>
       </c>
       <c r="L113">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="M113">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="N113">
-        <v>0.2925</v>
+        <v>0.2691666666666667</v>
       </c>
       <c r="O113">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P113" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="Q113" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="R113" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="S113" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="114" spans="1:19">
@@ -8276,22 +8276,22 @@
         <v>314</v>
       </c>
       <c r="E114">
-        <v>0.4285714285714285</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="F114">
-        <v>0.1666666666666667</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="G114">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="H114">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="I114">
         <v>0.6</v>
       </c>
       <c r="J114">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="K114">
         <v>0</v>
@@ -8300,22 +8300,22 @@
         <v>0.2</v>
       </c>
       <c r="M114">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="N114">
-        <v>0.2821428571428571</v>
+        <v>0.2502380952380952</v>
       </c>
       <c r="O114">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P114" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="Q114" t="s">
         <v>394</v>
       </c>
       <c r="R114" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="S114" t="s">
         <v>403</v>
@@ -8335,49 +8335,49 @@
         <v>315</v>
       </c>
       <c r="E115">
-        <v>0</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="F115">
-        <v>0.6111111111111112</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="G115">
-        <v>0.5714285714285714</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="H115">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="I115">
         <v>0.2</v>
       </c>
       <c r="J115">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="K115">
         <v>0</v>
       </c>
       <c r="L115">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="M115">
+        <v>0</v>
+      </c>
+      <c r="N115">
+        <v>0.2461904761904762</v>
+      </c>
+      <c r="O115">
         <v>1</v>
       </c>
-      <c r="N115">
-        <v>0.2748809523809524</v>
-      </c>
-      <c r="O115">
-        <v>4</v>
-      </c>
       <c r="P115" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="Q115" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="R115" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="S115" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="116" spans="1:19">
@@ -8394,19 +8394,19 @@
         <v>316</v>
       </c>
       <c r="E116">
-        <v>0.2380952380952381</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="F116">
-        <v>0.1111111111111111</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="G116">
-        <v>0.4285714285714285</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="H116">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="I116">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="J116">
         <v>0.25</v>
@@ -8415,28 +8415,28 @@
         <v>0</v>
       </c>
       <c r="L116">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="M116">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="N116">
-        <v>0.2691666666666667</v>
+        <v>0.245952380952381</v>
       </c>
       <c r="O116">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P116" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="Q116" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="R116" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="S116" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="117" spans="1:19">
@@ -8456,19 +8456,19 @@
         <v>0.3809523809523809</v>
       </c>
       <c r="F117">
-        <v>0.1111111111111111</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="G117">
-        <v>0.1428571428571428</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H117">
+        <v>0.3</v>
+      </c>
+      <c r="I117">
+        <v>0.2</v>
+      </c>
+      <c r="J117">
         <v>0.5</v>
-      </c>
-      <c r="I117">
-        <v>0.6</v>
-      </c>
-      <c r="J117">
-        <v>0</v>
       </c>
       <c r="K117">
         <v>0</v>
@@ -8477,25 +8477,25 @@
         <v>0.2</v>
       </c>
       <c r="M117">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N117">
-        <v>0.2502380952380952</v>
+        <v>0.2433333333333333</v>
       </c>
       <c r="O117">
         <v>1</v>
       </c>
       <c r="P117" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="Q117" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="R117" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="S117" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="118" spans="1:19">
@@ -8512,49 +8512,49 @@
         <v>318</v>
       </c>
       <c r="E118">
-        <v>0.5238095238095238</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="F118">
-        <v>0.2222222222222222</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="G118">
         <v>0.4285714285714285</v>
       </c>
       <c r="H118">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I118">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="J118">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="K118">
         <v>0</v>
       </c>
       <c r="L118">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="M118">
         <v>0</v>
       </c>
       <c r="N118">
-        <v>0.2461904761904762</v>
+        <v>0.241547619047619</v>
       </c>
       <c r="O118">
         <v>1</v>
       </c>
       <c r="P118" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="Q118" t="s">
         <v>393</v>
       </c>
       <c r="R118" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="S118" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="119" spans="1:19">
@@ -8571,13 +8571,13 @@
         <v>319</v>
       </c>
       <c r="E119">
-        <v>0.2857142857142857</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="F119">
-        <v>0.2777777777777778</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="G119">
-        <v>0.1428571428571428</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="H119">
         <v>0.5</v>
@@ -8586,34 +8586,34 @@
         <v>0.2</v>
       </c>
       <c r="J119">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="K119">
         <v>0</v>
       </c>
       <c r="L119">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="M119">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="N119">
-        <v>0.245952380952381</v>
+        <v>0.2414285714285714</v>
       </c>
       <c r="O119">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P119" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="Q119" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="R119" t="s">
         <v>397</v>
       </c>
       <c r="S119" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="120" spans="1:19">
@@ -8630,49 +8630,49 @@
         <v>320</v>
       </c>
       <c r="E120">
-        <v>0.3809523809523809</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="F120">
-        <v>0.05555555555555555</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="G120">
-        <v>0.2857142857142857</v>
+        <v>0</v>
       </c>
       <c r="H120">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="I120">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="J120">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K120">
         <v>0</v>
       </c>
       <c r="L120">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="M120">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="N120">
-        <v>0.2433333333333333</v>
+        <v>0.2376190476190476</v>
       </c>
       <c r="O120">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P120" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q120" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="R120" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="S120" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="121" spans="1:19">
@@ -8689,46 +8689,46 @@
         <v>321</v>
       </c>
       <c r="E121">
-        <v>0.4761904761904762</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="F121">
-        <v>0.05555555555555555</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="G121">
-        <v>0.4285714285714285</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="H121">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="I121">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="J121">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="K121">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="L121">
         <v>0</v>
       </c>
       <c r="M121">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="N121">
-        <v>0.241547619047619</v>
+        <v>0.2363095238095238</v>
       </c>
       <c r="O121">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P121" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="Q121" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="R121" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="S121" t="s">
         <v>403</v>
@@ -8748,19 +8748,19 @@
         <v>322</v>
       </c>
       <c r="E122">
-        <v>0.3809523809523809</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F122">
-        <v>0.1666666666666667</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="G122">
-        <v>0.4285714285714285</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H122">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="I122">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="J122">
         <v>0</v>
@@ -8775,19 +8775,19 @@
         <v>0</v>
       </c>
       <c r="N122">
-        <v>0.2414285714285714</v>
+        <v>0.2252380952380952</v>
       </c>
       <c r="O122">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P122" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="Q122" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="R122" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="S122" t="s">
         <v>402</v>
@@ -8807,19 +8807,19 @@
         <v>323</v>
       </c>
       <c r="E123">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="F123">
-        <v>0.2222222222222222</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="G123">
-        <v>0</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H123">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="I123">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="J123">
         <v>0</v>
@@ -8828,25 +8828,25 @@
         <v>0</v>
       </c>
       <c r="L123">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="M123">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="N123">
-        <v>0.2376190476190476</v>
+        <v>0.2210714285714286</v>
       </c>
       <c r="O123">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P123" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="Q123" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="R123" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="S123" t="s">
         <v>401</v>
@@ -8866,16 +8866,16 @@
         <v>324</v>
       </c>
       <c r="E124">
-        <v>0.2380952380952381</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="F124">
-        <v>0.2777777777777778</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="G124">
-        <v>0.1428571428571428</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="H124">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="I124">
         <v>0.2</v>
@@ -8884,28 +8884,28 @@
         <v>0</v>
       </c>
       <c r="K124">
+        <v>0</v>
+      </c>
+      <c r="L124">
         <v>0.2</v>
       </c>
-      <c r="L124">
-        <v>0</v>
-      </c>
       <c r="M124">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="N124">
-        <v>0.2363095238095238</v>
+        <v>0.2153571428571429</v>
       </c>
       <c r="O124">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P124" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="Q124" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="R124" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="S124" t="s">
         <v>403</v>
@@ -8928,19 +8928,19 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="F125">
-        <v>0.1111111111111111</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="G125">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H125">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I125">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="J125">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="K125">
         <v>0</v>
@@ -8952,22 +8952,22 @@
         <v>0</v>
       </c>
       <c r="N125">
-        <v>0.2252380952380952</v>
+        <v>0.2136904761904762</v>
       </c>
       <c r="O125">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P125" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="Q125" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="R125" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="S125" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="126" spans="1:19">
@@ -8984,22 +8984,22 @@
         <v>326</v>
       </c>
       <c r="E126">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="F126">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="G126">
         <v>0.1428571428571428</v>
       </c>
-      <c r="F126">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G126">
-        <v>0.2857142857142857</v>
-      </c>
       <c r="H126">
+        <v>0.3</v>
+      </c>
+      <c r="I126">
         <v>0.2</v>
       </c>
-      <c r="I126">
-        <v>0.6</v>
-      </c>
       <c r="J126">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="K126">
         <v>0</v>
@@ -9011,13 +9011,13 @@
         <v>0</v>
       </c>
       <c r="N126">
-        <v>0.2167857142857143</v>
+        <v>0.2126190476190477</v>
       </c>
       <c r="O126">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P126" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="Q126" t="s">
         <v>392</v>
@@ -9026,7 +9026,7 @@
         <v>400</v>
       </c>
       <c r="S126" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="127" spans="1:19">
@@ -9043,16 +9043,16 @@
         <v>327</v>
       </c>
       <c r="E127">
-        <v>0.1904761904761905</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="F127">
-        <v>0.1666666666666667</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="G127">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H127">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="I127">
         <v>0.2</v>
@@ -9067,25 +9067,25 @@
         <v>0.2</v>
       </c>
       <c r="M127">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="N127">
-        <v>0.2153571428571429</v>
+        <v>0.2119047619047619</v>
       </c>
       <c r="O127">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P127" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="Q127" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="R127" t="s">
         <v>398</v>
       </c>
       <c r="S127" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="128" spans="1:19">
@@ -9102,46 +9102,46 @@
         <v>328</v>
       </c>
       <c r="E128">
-        <v>0.3333333333333333</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="F128">
-        <v>0.05555555555555555</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="G128">
         <v>0.2857142857142857</v>
       </c>
       <c r="H128">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I128">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="J128">
+        <v>0.75</v>
+      </c>
+      <c r="K128">
+        <v>0</v>
+      </c>
+      <c r="L128">
+        <v>0</v>
+      </c>
+      <c r="M128">
         <v>0.25</v>
       </c>
-      <c r="K128">
-        <v>0</v>
-      </c>
-      <c r="L128">
-        <v>0</v>
-      </c>
-      <c r="M128">
-        <v>0</v>
-      </c>
       <c r="N128">
-        <v>0.2136904761904762</v>
+        <v>0.2035714285714286</v>
       </c>
       <c r="O128">
         <v>4</v>
       </c>
       <c r="P128" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q128" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="R128" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="S128" t="s">
         <v>403</v>
@@ -9161,46 +9161,46 @@
         <v>329</v>
       </c>
       <c r="E129">
-        <v>0.2857142857142857</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="F129">
-        <v>0.5555555555555556</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="G129">
         <v>0.1428571428571428</v>
       </c>
       <c r="H129">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="I129">
+        <v>0.4</v>
+      </c>
+      <c r="J129">
+        <v>0.5</v>
+      </c>
+      <c r="K129">
         <v>0.2</v>
       </c>
-      <c r="J129">
-        <v>0</v>
-      </c>
-      <c r="K129">
-        <v>0</v>
-      </c>
       <c r="L129">
         <v>0</v>
       </c>
       <c r="M129">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="N129">
-        <v>0.2126190476190477</v>
+        <v>0.2029761904761905</v>
       </c>
       <c r="O129">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P129" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="Q129" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="R129" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="S129" t="s">
         <v>403</v>
@@ -9220,10 +9220,10 @@
         <v>330</v>
       </c>
       <c r="E130">
-        <v>0.2380952380952381</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="F130">
-        <v>0.2222222222222222</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="G130">
         <v>0.2857142857142857</v>
@@ -9235,34 +9235,34 @@
         <v>0.2</v>
       </c>
       <c r="J130">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="K130">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="L130">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="M130">
         <v>0</v>
       </c>
       <c r="N130">
-        <v>0.2119047619047619</v>
+        <v>0.2005952380952381</v>
       </c>
       <c r="O130">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P130" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="Q130" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="R130" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="S130" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="131" spans="1:19">
@@ -9282,19 +9282,19 @@
         <v>0.2380952380952381</v>
       </c>
       <c r="F131">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="G131">
-        <v>0.2857142857142857</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="H131">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I131">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="J131">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="K131">
         <v>0</v>
@@ -9303,25 +9303,25 @@
         <v>0</v>
       </c>
       <c r="M131">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="N131">
-        <v>0.2035714285714286</v>
+        <v>0.1975</v>
       </c>
       <c r="O131">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P131" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q131" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="R131" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="S131" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="132" spans="1:19">
@@ -9338,7 +9338,7 @@
         <v>332</v>
       </c>
       <c r="E132">
-        <v>0.2380952380952381</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F132">
         <v>0.05555555555555555</v>
@@ -9347,40 +9347,40 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="H132">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="I132">
         <v>0.4</v>
       </c>
       <c r="J132">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K132">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="L132">
         <v>0</v>
       </c>
       <c r="M132">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="N132">
-        <v>0.2029761904761905</v>
+        <v>0.1797619047619048</v>
       </c>
       <c r="O132">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P132" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="Q132" t="s">
         <v>393</v>
       </c>
       <c r="R132" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="S132" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="133" spans="1:19">
@@ -9397,13 +9397,13 @@
         <v>333</v>
       </c>
       <c r="E133">
-        <v>0.1904761904761905</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F133">
-        <v>0.1111111111111111</v>
+        <v>0</v>
       </c>
       <c r="G133">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="H133">
         <v>0.4</v>
@@ -9412,34 +9412,34 @@
         <v>0.2</v>
       </c>
       <c r="J133">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="K133">
+        <v>0</v>
+      </c>
+      <c r="L133">
         <v>0.2</v>
       </c>
-      <c r="L133">
-        <v>0</v>
-      </c>
       <c r="M133">
         <v>0</v>
       </c>
       <c r="N133">
-        <v>0.2005952380952381</v>
+        <v>0.1714285714285714</v>
       </c>
       <c r="O133">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P133" t="s">
         <v>383</v>
       </c>
       <c r="Q133" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="R133" t="s">
         <v>397</v>
       </c>
       <c r="S133" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="134" spans="1:19">
@@ -9456,16 +9456,16 @@
         <v>334</v>
       </c>
       <c r="E134">
-        <v>0.1904761904761905</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="F134">
         <v>0</v>
       </c>
       <c r="G134">
-        <v>0.2857142857142857</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="H134">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="I134">
         <v>0.2</v>
@@ -9480,19 +9480,19 @@
         <v>0.2</v>
       </c>
       <c r="M134">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="N134">
-        <v>0.1989285714285715</v>
+        <v>0.1707142857142857</v>
       </c>
       <c r="O134">
         <v>1</v>
       </c>
       <c r="P134" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="Q134" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="R134" t="s">
         <v>397</v>
@@ -9515,49 +9515,49 @@
         <v>335</v>
       </c>
       <c r="E135">
-        <v>0.2380952380952381</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="F135">
-        <v>0</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="G135">
-        <v>0.4285714285714285</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="H135">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="I135">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="J135">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="K135">
         <v>0</v>
       </c>
       <c r="L135">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="M135">
         <v>0</v>
       </c>
       <c r="N135">
-        <v>0.1975</v>
+        <v>0.1611904761904762</v>
       </c>
       <c r="O135">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P135" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q135" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="R135" t="s">
         <v>397</v>
       </c>
       <c r="S135" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="136" spans="1:19">
@@ -9574,19 +9574,19 @@
         <v>336</v>
       </c>
       <c r="E136">
-        <v>0.3333333333333333</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="F136">
-        <v>0.05555555555555555</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="G136">
         <v>0.1428571428571428</v>
       </c>
       <c r="H136">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="I136">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="J136">
         <v>0</v>
@@ -9598,25 +9598,25 @@
         <v>0</v>
       </c>
       <c r="M136">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="N136">
-        <v>0.1797619047619048</v>
+        <v>0.1596428571428571</v>
       </c>
       <c r="O136">
         <v>1</v>
       </c>
       <c r="P136" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="Q136" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="R136" t="s">
         <v>400</v>
       </c>
       <c r="S136" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="137" spans="1:19">
@@ -9633,19 +9633,19 @@
         <v>337</v>
       </c>
       <c r="E137">
-        <v>0.3333333333333333</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="F137">
-        <v>0</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="G137">
         <v>0.1428571428571428</v>
       </c>
       <c r="H137">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="I137">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="J137">
         <v>0</v>
@@ -9654,28 +9654,28 @@
         <v>0</v>
       </c>
       <c r="L137">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="M137">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N137">
-        <v>0.1714285714285714</v>
+        <v>0.1511904761904762</v>
       </c>
       <c r="O137">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P137" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="Q137" t="s">
         <v>394</v>
       </c>
       <c r="R137" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="S137" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="138" spans="1:19">
@@ -9692,19 +9692,19 @@
         <v>338</v>
       </c>
       <c r="E138">
-        <v>0.1428571428571428</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="F138">
         <v>0</v>
       </c>
       <c r="G138">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H138">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="I138">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="J138">
         <v>0</v>
@@ -9713,28 +9713,28 @@
         <v>0</v>
       </c>
       <c r="L138">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="M138">
         <v>0</v>
       </c>
       <c r="N138">
-        <v>0.1707142857142857</v>
+        <v>0.1407142857142857</v>
       </c>
       <c r="O138">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P138" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="Q138" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="R138" t="s">
         <v>397</v>
       </c>
       <c r="S138" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="139" spans="1:19">
@@ -9751,19 +9751,19 @@
         <v>339</v>
       </c>
       <c r="E139">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="F139">
-        <v>0.05555555555555555</v>
+        <v>0</v>
       </c>
       <c r="G139">
-        <v>0.1428571428571428</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H139">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="I139">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J139">
         <v>0</v>
@@ -9772,19 +9772,19 @@
         <v>0</v>
       </c>
       <c r="L139">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="M139">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="N139">
-        <v>0.1611904761904762</v>
+        <v>0.1203571428571429</v>
       </c>
       <c r="O139">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P139" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="Q139" t="s">
         <v>393</v>
@@ -9793,7 +9793,7 @@
         <v>397</v>
       </c>
       <c r="S139" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="140" spans="1:19">
@@ -9810,46 +9810,46 @@
         <v>340</v>
       </c>
       <c r="E140">
-        <v>0.2380952380952381</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="F140">
-        <v>0.1666666666666667</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="G140">
         <v>0.1428571428571428</v>
       </c>
       <c r="H140">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="I140">
+        <v>0</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+      <c r="K140">
+        <v>0</v>
+      </c>
+      <c r="L140">
         <v>0.2</v>
       </c>
-      <c r="J140">
-        <v>0</v>
-      </c>
-      <c r="K140">
-        <v>0</v>
-      </c>
-      <c r="L140">
-        <v>0</v>
-      </c>
       <c r="M140">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="N140">
-        <v>0.1596428571428571</v>
+        <v>0.1176190476190476</v>
       </c>
       <c r="O140">
         <v>1</v>
       </c>
       <c r="P140" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="Q140" t="s">
         <v>395</v>
       </c>
       <c r="R140" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="S140" t="s">
         <v>402</v>
@@ -9869,19 +9869,19 @@
         <v>341</v>
       </c>
       <c r="E141">
-        <v>0.1904761904761905</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="F141">
-        <v>0.2222222222222222</v>
+        <v>0</v>
       </c>
       <c r="G141">
         <v>0.2857142857142857</v>
       </c>
       <c r="H141">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="I141">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="J141">
         <v>0</v>
@@ -9893,19 +9893,19 @@
         <v>0</v>
       </c>
       <c r="M141">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="N141">
-        <v>0.1522619047619048</v>
+        <v>0.1042857142857143</v>
       </c>
       <c r="O141">
         <v>4</v>
       </c>
       <c r="P141" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="Q141" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="R141" t="s">
         <v>397</v>
@@ -9928,19 +9928,19 @@
         <v>342</v>
       </c>
       <c r="E142">
-        <v>0.2857142857142857</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="F142">
         <v>0</v>
       </c>
       <c r="G142">
-        <v>0.2857142857142857</v>
+        <v>0</v>
       </c>
       <c r="H142">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="I142">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="J142">
         <v>0</v>
@@ -9949,25 +9949,25 @@
         <v>0</v>
       </c>
       <c r="L142">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="M142">
         <v>0</v>
       </c>
       <c r="N142">
-        <v>0.1407142857142857</v>
+        <v>0.0992857142857143</v>
       </c>
       <c r="O142">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P142" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q142" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="R142" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="S142" t="s">
         <v>403</v>
@@ -9987,14 +9987,14 @@
         <v>343</v>
       </c>
       <c r="E143">
+        <v>0.09523809523809523</v>
+      </c>
+      <c r="F143">
+        <v>0</v>
+      </c>
+      <c r="G143">
         <v>0.2857142857142857</v>
       </c>
-      <c r="F143">
-        <v>0.2222222222222222</v>
-      </c>
-      <c r="G143">
-        <v>0.1428571428571428</v>
-      </c>
       <c r="H143">
         <v>0</v>
       </c>
@@ -10008,28 +10008,28 @@
         <v>0</v>
       </c>
       <c r="L143">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="M143">
         <v>0</v>
       </c>
       <c r="N143">
-        <v>0.1176190476190476</v>
+        <v>0.05714285714285713</v>
       </c>
       <c r="O143">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P143" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="Q143" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="R143" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="S143" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="144" spans="1:19">
@@ -10046,19 +10046,19 @@
         <v>344</v>
       </c>
       <c r="E144">
+        <v>0.04761904761904762</v>
+      </c>
+      <c r="F144">
+        <v>0</v>
+      </c>
+      <c r="G144">
         <v>0.1428571428571428</v>
       </c>
-      <c r="F144">
-        <v>0</v>
-      </c>
-      <c r="G144">
-        <v>0.2857142857142857</v>
-      </c>
       <c r="H144">
         <v>0</v>
       </c>
       <c r="I144">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="J144">
         <v>0</v>
@@ -10073,19 +10073,19 @@
         <v>0</v>
       </c>
       <c r="N144">
-        <v>0.1042857142857143</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="O144">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P144" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="Q144" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="R144" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="S144" t="s">
         <v>403</v>
@@ -10105,7 +10105,7 @@
         <v>345</v>
       </c>
       <c r="E145">
-        <v>0.09523809523809523</v>
+        <v>0</v>
       </c>
       <c r="F145">
         <v>0</v>
@@ -10114,10 +10114,10 @@
         <v>0</v>
       </c>
       <c r="H145">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="I145">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="J145">
         <v>0</v>
@@ -10126,28 +10126,28 @@
         <v>0</v>
       </c>
       <c r="L145">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="M145">
         <v>0</v>
       </c>
       <c r="N145">
-        <v>0.0992857142857143</v>
+        <v>0</v>
       </c>
       <c r="O145">
         <v>5</v>
       </c>
       <c r="P145" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="Q145" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="R145" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="S145" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="146" spans="1:19">
@@ -10164,13 +10164,13 @@
         <v>346</v>
       </c>
       <c r="E146">
-        <v>0.09523809523809523</v>
+        <v>0</v>
       </c>
       <c r="F146">
         <v>0</v>
       </c>
       <c r="G146">
-        <v>0.2857142857142857</v>
+        <v>0</v>
       </c>
       <c r="H146">
         <v>0</v>
@@ -10191,16 +10191,16 @@
         <v>0</v>
       </c>
       <c r="N146">
-        <v>0.05714285714285713</v>
+        <v>0</v>
       </c>
       <c r="O146">
         <v>2</v>
       </c>
       <c r="P146" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="Q146" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="R146" t="s">
         <v>400</v>
@@ -10223,13 +10223,13 @@
         <v>347</v>
       </c>
       <c r="E147">
-        <v>0.04761904761904762</v>
+        <v>0</v>
       </c>
       <c r="F147">
         <v>0</v>
       </c>
       <c r="G147">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="H147">
         <v>0</v>
@@ -10250,22 +10250,22 @@
         <v>0</v>
       </c>
       <c r="N147">
-        <v>0.02857142857142857</v>
+        <v>0</v>
       </c>
       <c r="O147">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P147" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Q147" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="R147" t="s">
         <v>400</v>
       </c>
       <c r="S147" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="148" spans="1:19">
@@ -10312,19 +10312,19 @@
         <v>0</v>
       </c>
       <c r="O148">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P148" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="Q148" t="s">
         <v>392</v>
       </c>
       <c r="R148" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="S148" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="149" spans="1:19">
@@ -10371,19 +10371,19 @@
         <v>0</v>
       </c>
       <c r="O149">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P149" t="s">
         <v>387</v>
       </c>
       <c r="Q149" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="R149" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="S149" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="150" spans="1:19">
@@ -10436,7 +10436,7 @@
         <v>388</v>
       </c>
       <c r="Q150" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="R150" t="s">
         <v>400</v>
@@ -10489,19 +10489,19 @@
         <v>0</v>
       </c>
       <c r="O151">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P151" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Q151" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="R151" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="S151" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="152" spans="1:19">
@@ -10548,16 +10548,16 @@
         <v>0</v>
       </c>
       <c r="O152">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P152" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="Q152" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="R152" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="S152" t="s">
         <v>403</v>
@@ -10607,13 +10607,13 @@
         <v>0</v>
       </c>
       <c r="O153">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P153" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="Q153" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="R153" t="s">
         <v>397</v>
@@ -10669,13 +10669,13 @@
         <v>1</v>
       </c>
       <c r="P154" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q154" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="R154" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="S154" t="s">
         <v>403</v>
@@ -10725,13 +10725,13 @@
         <v>0</v>
       </c>
       <c r="O155">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P155" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="Q155" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="R155" t="s">
         <v>397</v>
@@ -10784,19 +10784,19 @@
         <v>0</v>
       </c>
       <c r="O156">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P156" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="Q156" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="R156" t="s">
         <v>400</v>
       </c>
       <c r="S156" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="157" spans="1:19">
@@ -10843,19 +10843,19 @@
         <v>0</v>
       </c>
       <c r="O157">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P157" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="Q157" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="R157" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="S157" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="158" spans="1:19">
@@ -10902,19 +10902,19 @@
         <v>0</v>
       </c>
       <c r="O158">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P158" t="s">
         <v>385</v>
       </c>
       <c r="Q158" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="R158" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="S158" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="159" spans="1:19">
@@ -10961,19 +10961,19 @@
         <v>0</v>
       </c>
       <c r="O159">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P159" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="Q159" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="R159" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="S159" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="160" spans="1:19">
@@ -11020,19 +11020,19 @@
         <v>0</v>
       </c>
       <c r="O160">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P160" t="s">
         <v>385</v>
       </c>
       <c r="Q160" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="R160" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="S160" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="161" spans="1:19">
@@ -11079,19 +11079,19 @@
         <v>0</v>
       </c>
       <c r="O161">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P161" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="Q161" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="R161" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="S161" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="162" spans="1:19">
@@ -11138,16 +11138,16 @@
         <v>0</v>
       </c>
       <c r="O162">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P162" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="Q162" t="s">
         <v>394</v>
       </c>
       <c r="R162" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="S162" t="s">
         <v>403</v>
@@ -11197,19 +11197,19 @@
         <v>0</v>
       </c>
       <c r="O163">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P163" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="Q163" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="R163" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="S163" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="164" spans="1:19">
@@ -11256,19 +11256,19 @@
         <v>0</v>
       </c>
       <c r="O164">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P164" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="Q164" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="R164" t="s">
         <v>400</v>
       </c>
       <c r="S164" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="165" spans="1:19">
@@ -11315,13 +11315,13 @@
         <v>0</v>
       </c>
       <c r="O165">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P165" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="Q165" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="R165" t="s">
         <v>400</v>
@@ -11374,16 +11374,16 @@
         <v>0</v>
       </c>
       <c r="O166">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P166" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="Q166" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="R166" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="S166" t="s">
         <v>403</v>
@@ -11433,19 +11433,19 @@
         <v>0</v>
       </c>
       <c r="O167">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P167" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q167" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="R167" t="s">
         <v>400</v>
       </c>
       <c r="S167" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="168" spans="1:19">
@@ -11495,16 +11495,16 @@
         <v>2</v>
       </c>
       <c r="P168" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="Q168" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="R168" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="S168" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="169" spans="1:19">
@@ -11554,16 +11554,16 @@
         <v>1</v>
       </c>
       <c r="P169" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="Q169" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="R169" t="s">
         <v>400</v>
       </c>
       <c r="S169" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="170" spans="1:19">
@@ -11610,16 +11610,16 @@
         <v>0</v>
       </c>
       <c r="O170">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P170" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="Q170" t="s">
         <v>391</v>
       </c>
       <c r="R170" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="S170" t="s">
         <v>403</v>
@@ -11669,19 +11669,19 @@
         <v>0</v>
       </c>
       <c r="O171">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P171" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="Q171" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="R171" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="S171" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="172" spans="1:19">
@@ -11728,13 +11728,13 @@
         <v>0</v>
       </c>
       <c r="O172">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P172" t="s">
         <v>389</v>
       </c>
       <c r="Q172" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="R172" t="s">
         <v>400</v>
@@ -11787,13 +11787,13 @@
         <v>0</v>
       </c>
       <c r="O173">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P173" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="Q173" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="R173" t="s">
         <v>398</v>
@@ -11846,16 +11846,16 @@
         <v>0</v>
       </c>
       <c r="O174">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P174" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="Q174" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="R174" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="S174" t="s">
         <v>403</v>
@@ -11905,19 +11905,19 @@
         <v>0</v>
       </c>
       <c r="O175">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P175" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="Q175" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="R175" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="S175" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="176" spans="1:19">
@@ -11964,16 +11964,16 @@
         <v>0</v>
       </c>
       <c r="O176">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P176" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="Q176" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="R176" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="S176" t="s">
         <v>403</v>
@@ -12023,19 +12023,19 @@
         <v>0</v>
       </c>
       <c r="O177">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P177" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="Q177" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="R177" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="S177" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="178" spans="1:19">
@@ -12082,19 +12082,19 @@
         <v>0</v>
       </c>
       <c r="O178">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P178" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="Q178" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="R178" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="S178" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="179" spans="1:19">
@@ -12141,19 +12141,19 @@
         <v>0</v>
       </c>
       <c r="O179">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P179" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Q179" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="R179" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="S179" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="180" spans="1:19">
@@ -12200,19 +12200,19 @@
         <v>0</v>
       </c>
       <c r="O180">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P180" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="Q180" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="R180" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="S180" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="181" spans="1:19">
@@ -12259,19 +12259,19 @@
         <v>0</v>
       </c>
       <c r="O181">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P181" t="s">
         <v>387</v>
       </c>
       <c r="Q181" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="R181" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="S181" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="182" spans="1:19">
@@ -12318,19 +12318,19 @@
         <v>0</v>
       </c>
       <c r="O182">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P182" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="Q182" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="R182" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="S182" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
   </sheetData>

--- a/2021/district_councils.xlsx
+++ b/2021/district_councils.xlsx
@@ -469,6 +469,9 @@
     <t>Barrow-in-Furness Borough Council</t>
   </si>
   <si>
+    <t>Breckland District Council</t>
+  </si>
+  <si>
     <t>City of Lincoln Council</t>
   </si>
   <si>
@@ -484,144 +487,141 @@
     <t>Rossendale Borough Council</t>
   </si>
   <si>
+    <t>South Kesteven District Council</t>
+  </si>
+  <si>
+    <t>Boston Borough Council</t>
+  </si>
+  <si>
+    <t>Lancaster City Council</t>
+  </si>
+  <si>
+    <t>Tewkesbury Borough Council</t>
+  </si>
+  <si>
+    <t>Bromsgrove District Council</t>
+  </si>
+  <si>
+    <t>Harlow District Council</t>
+  </si>
+  <si>
+    <t>Rochford District Council</t>
+  </si>
+  <si>
+    <t>Tamworth Borough Council</t>
+  </si>
+  <si>
+    <t>Vale of White Horse District Council</t>
+  </si>
+  <si>
+    <t>Eden District Council</t>
+  </si>
+  <si>
+    <t>Erewash Borough Council</t>
+  </si>
+  <si>
+    <t>East Suffolk Council</t>
+  </si>
+  <si>
+    <t>Fenland District Council</t>
+  </si>
+  <si>
+    <t>Crawley Borough Council</t>
+  </si>
+  <si>
+    <t>Fylde Borough Council</t>
+  </si>
+  <si>
+    <t>Gloucester City Council</t>
+  </si>
+  <si>
+    <t>Great Yarmouth Borough Council</t>
+  </si>
+  <si>
+    <t>Dartford Borough Council</t>
+  </si>
+  <si>
+    <t>Spelthorne Borough Council</t>
+  </si>
+  <si>
+    <t>Arun District Council</t>
+  </si>
+  <si>
+    <t>Ashfield District Council</t>
+  </si>
+  <si>
+    <t>Bassetlaw District Council</t>
+  </si>
+  <si>
+    <t>Brentwood Borough Council</t>
+  </si>
+  <si>
+    <t>Burnley Borough Council</t>
+  </si>
+  <si>
+    <t>Cannock Chase District Council</t>
+  </si>
+  <si>
+    <t>Castle Point Borough Council</t>
+  </si>
+  <si>
+    <t>Chorley Borough Council</t>
+  </si>
+  <si>
+    <t>Ribble Valley Borough Council</t>
+  </si>
+  <si>
+    <t>Nuneaton and Bedworth Borough Council</t>
+  </si>
+  <si>
+    <t>North Warwickshire Borough Council</t>
+  </si>
+  <si>
+    <t>Preston City Council</t>
+  </si>
+  <si>
+    <t>Redditch Borough Council</t>
+  </si>
+  <si>
+    <t>Rugby Borough Council</t>
+  </si>
+  <si>
+    <t>Huntingdonshire District Council</t>
+  </si>
+  <si>
+    <t>Runnymede Borough Council</t>
+  </si>
+  <si>
+    <t>Selby District Council</t>
+  </si>
+  <si>
+    <t>South Holland District Council</t>
+  </si>
+  <si>
+    <t>South Oxfordshire District Council</t>
+  </si>
+  <si>
     <t>North Norfolk District Council</t>
   </si>
   <si>
-    <t>South Kesteven District Council</t>
-  </si>
-  <si>
-    <t>Boston Borough Council</t>
-  </si>
-  <si>
-    <t>Lancaster City Council</t>
-  </si>
-  <si>
-    <t>Tewkesbury Borough Council</t>
-  </si>
-  <si>
-    <t>Bromsgrove District Council</t>
-  </si>
-  <si>
-    <t>Harlow District Council</t>
-  </si>
-  <si>
-    <t>Rochford District Council</t>
-  </si>
-  <si>
-    <t>Vale of White Horse District Council</t>
-  </si>
-  <si>
-    <t>Tamworth Borough Council</t>
-  </si>
-  <si>
-    <t>Crawley Borough Council</t>
-  </si>
-  <si>
-    <t>Dartford Borough Council</t>
-  </si>
-  <si>
-    <t>Eden District Council</t>
-  </si>
-  <si>
-    <t>Erewash Borough Council</t>
-  </si>
-  <si>
-    <t>East Suffolk Council</t>
-  </si>
-  <si>
-    <t>Fenland District Council</t>
-  </si>
-  <si>
-    <t>Fylde Borough Council</t>
-  </si>
-  <si>
-    <t>Gloucester City Council</t>
-  </si>
-  <si>
-    <t>Great Yarmouth Borough Council</t>
-  </si>
-  <si>
-    <t>Spelthorne Borough Council</t>
-  </si>
-  <si>
-    <t>Arun District Council</t>
-  </si>
-  <si>
-    <t>Ashfield District Council</t>
-  </si>
-  <si>
-    <t>Bassetlaw District Council</t>
-  </si>
-  <si>
-    <t>Chorley Borough Council</t>
-  </si>
-  <si>
-    <t>Breckland District Council</t>
-  </si>
-  <si>
-    <t>Brentwood Borough Council</t>
-  </si>
-  <si>
-    <t>Burnley Borough Council</t>
-  </si>
-  <si>
-    <t>Cannock Chase District Council</t>
-  </si>
-  <si>
-    <t>Castle Point Borough Council</t>
-  </si>
-  <si>
-    <t>Ribble Valley Borough Council</t>
-  </si>
-  <si>
-    <t>Nuneaton and Bedworth Borough Council</t>
-  </si>
-  <si>
-    <t>North Warwickshire Borough Council</t>
-  </si>
-  <si>
-    <t>Preston City Council</t>
-  </si>
-  <si>
-    <t>Redditch Borough Council</t>
-  </si>
-  <si>
-    <t>Rugby Borough Council</t>
-  </si>
-  <si>
-    <t>Runnymede Borough Council</t>
-  </si>
-  <si>
-    <t>Selby District Council</t>
-  </si>
-  <si>
-    <t>South Holland District Council</t>
-  </si>
-  <si>
-    <t>South Oxfordshire District Council</t>
+    <t>Hyndburn Borough Council</t>
+  </si>
+  <si>
+    <t>Lichfield District Council</t>
+  </si>
+  <si>
+    <t>Maldon District Council</t>
+  </si>
+  <si>
+    <t>Melton Borough Council</t>
+  </si>
+  <si>
+    <t>North Devon District Council</t>
   </si>
   <si>
     <t>New Forest District Council</t>
   </si>
   <si>
-    <t>Huntingdonshire District Council</t>
-  </si>
-  <si>
-    <t>Hyndburn Borough Council</t>
-  </si>
-  <si>
-    <t>Lichfield District Council</t>
-  </si>
-  <si>
-    <t>Maldon District Council</t>
-  </si>
-  <si>
-    <t>Melton Borough Council</t>
-  </si>
-  <si>
-    <t>North Devon District Council</t>
-  </si>
-  <si>
     <t>SWT</t>
   </si>
   <si>
@@ -1012,6 +1012,9 @@
     <t>BAR</t>
   </si>
   <si>
+    <t>BRE</t>
+  </si>
+  <si>
     <t>LIC</t>
   </si>
   <si>
@@ -1027,142 +1030,139 @@
     <t>ROS</t>
   </si>
   <si>
+    <t>SKE</t>
+  </si>
+  <si>
+    <t>BOT</t>
+  </si>
+  <si>
+    <t>LAC</t>
+  </si>
+  <si>
+    <t>TEW</t>
+  </si>
+  <si>
+    <t>BRM</t>
+  </si>
+  <si>
+    <t>HAR</t>
+  </si>
+  <si>
+    <t>ROC</t>
+  </si>
+  <si>
+    <t>TAW</t>
+  </si>
+  <si>
+    <t>VAL</t>
+  </si>
+  <si>
+    <t>EDN</t>
+  </si>
+  <si>
+    <t>ERE</t>
+  </si>
+  <si>
+    <t>ESK</t>
+  </si>
+  <si>
+    <t>FEN</t>
+  </si>
+  <si>
+    <t>CRW</t>
+  </si>
+  <si>
+    <t>FYL</t>
+  </si>
+  <si>
+    <t>GLO</t>
+  </si>
+  <si>
+    <t>GRY</t>
+  </si>
+  <si>
+    <t>DAR</t>
+  </si>
+  <si>
+    <t>SPE</t>
+  </si>
+  <si>
+    <t>ARU</t>
+  </si>
+  <si>
+    <t>ASH</t>
+  </si>
+  <si>
+    <t>BAE</t>
+  </si>
+  <si>
+    <t>BRW</t>
+  </si>
+  <si>
+    <t>BUN</t>
+  </si>
+  <si>
+    <t>CAN</t>
+  </si>
+  <si>
+    <t>CAS</t>
+  </si>
+  <si>
+    <t>CHO</t>
+  </si>
+  <si>
+    <t>RIB</t>
+  </si>
+  <si>
+    <t>NUN</t>
+  </si>
+  <si>
+    <t>NWA</t>
+  </si>
+  <si>
+    <t>PRE</t>
+  </si>
+  <si>
+    <t>RED</t>
+  </si>
+  <si>
+    <t>RUG</t>
+  </si>
+  <si>
+    <t>HUN</t>
+  </si>
+  <si>
+    <t>RUN</t>
+  </si>
+  <si>
+    <t>SEL</t>
+  </si>
+  <si>
+    <t>SHO</t>
+  </si>
+  <si>
+    <t>SOX</t>
+  </si>
+  <si>
     <t>NNO</t>
   </si>
   <si>
-    <t>SKE</t>
-  </si>
-  <si>
-    <t>BOT</t>
-  </si>
-  <si>
-    <t>LAC</t>
-  </si>
-  <si>
-    <t>TEW</t>
-  </si>
-  <si>
-    <t>BRM</t>
-  </si>
-  <si>
-    <t>HAR</t>
-  </si>
-  <si>
-    <t>ROC</t>
-  </si>
-  <si>
-    <t>VAL</t>
-  </si>
-  <si>
-    <t>TAW</t>
-  </si>
-  <si>
-    <t>CRW</t>
-  </si>
-  <si>
-    <t>DAR</t>
-  </si>
-  <si>
-    <t>EDN</t>
-  </si>
-  <si>
-    <t>ERE</t>
-  </si>
-  <si>
-    <t>ESK</t>
-  </si>
-  <si>
-    <t>FEN</t>
-  </si>
-  <si>
-    <t>FYL</t>
-  </si>
-  <si>
-    <t>GLO</t>
-  </si>
-  <si>
-    <t>GRY</t>
-  </si>
-  <si>
-    <t>SPE</t>
-  </si>
-  <si>
-    <t>ARU</t>
-  </si>
-  <si>
-    <t>ASH</t>
-  </si>
-  <si>
-    <t>BAE</t>
-  </si>
-  <si>
-    <t>CHO</t>
-  </si>
-  <si>
-    <t>BRE</t>
-  </si>
-  <si>
-    <t>BRW</t>
-  </si>
-  <si>
-    <t>BUN</t>
-  </si>
-  <si>
-    <t>CAN</t>
-  </si>
-  <si>
-    <t>CAS</t>
-  </si>
-  <si>
-    <t>RIB</t>
-  </si>
-  <si>
-    <t>NUN</t>
-  </si>
-  <si>
-    <t>NWA</t>
-  </si>
-  <si>
-    <t>PRE</t>
-  </si>
-  <si>
-    <t>RED</t>
-  </si>
-  <si>
-    <t>RUG</t>
-  </si>
-  <si>
-    <t>RUN</t>
-  </si>
-  <si>
-    <t>SEL</t>
-  </si>
-  <si>
-    <t>SHO</t>
-  </si>
-  <si>
-    <t>SOX</t>
+    <t>HYN</t>
+  </si>
+  <si>
+    <t>LIF</t>
+  </si>
+  <si>
+    <t>MAL</t>
+  </si>
+  <si>
+    <t>MEL</t>
+  </si>
+  <si>
+    <t>NDE</t>
   </si>
   <si>
     <t>NEW</t>
-  </si>
-  <si>
-    <t>HUN</t>
-  </si>
-  <si>
-    <t>HYN</t>
-  </si>
-  <si>
-    <t>LIF</t>
-  </si>
-  <si>
-    <t>MAL</t>
-  </si>
-  <si>
-    <t>MEL</t>
-  </si>
-  <si>
-    <t>NDE</t>
   </si>
   <si>
     <t>140k - 160k</t>
@@ -9341,16 +9341,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="F132">
-        <v>0.05555555555555555</v>
+        <v>0</v>
       </c>
       <c r="G132">
-        <v>0.1428571428571428</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H132">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="I132">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="J132">
         <v>0</v>
@@ -9359,28 +9359,28 @@
         <v>0</v>
       </c>
       <c r="L132">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="M132">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="N132">
-        <v>0.1797619047619048</v>
+        <v>0.1903571428571429</v>
       </c>
       <c r="O132">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P132" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="Q132" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="R132" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="S132" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="133" spans="1:19">
@@ -9400,7 +9400,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="F133">
-        <v>0</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="G133">
         <v>0.1428571428571428</v>
@@ -9409,7 +9409,7 @@
         <v>0.4</v>
       </c>
       <c r="I133">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="J133">
         <v>0</v>
@@ -9418,28 +9418,28 @@
         <v>0</v>
       </c>
       <c r="L133">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="M133">
         <v>0</v>
       </c>
       <c r="N133">
-        <v>0.1714285714285714</v>
+        <v>0.1797619047619048</v>
       </c>
       <c r="O133">
         <v>1</v>
       </c>
       <c r="P133" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q133" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="R133" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="S133" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="134" spans="1:19">
@@ -9456,16 +9456,16 @@
         <v>334</v>
       </c>
       <c r="E134">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="F134">
+        <v>0</v>
+      </c>
+      <c r="G134">
         <v>0.1428571428571428</v>
       </c>
-      <c r="F134">
-        <v>0</v>
-      </c>
-      <c r="G134">
-        <v>0.4285714285714285</v>
-      </c>
       <c r="H134">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="I134">
         <v>0.2</v>
@@ -9483,16 +9483,16 @@
         <v>0</v>
       </c>
       <c r="N134">
-        <v>0.1707142857142857</v>
+        <v>0.1714285714285714</v>
       </c>
       <c r="O134">
         <v>1</v>
       </c>
       <c r="P134" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="Q134" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="R134" t="s">
         <v>397</v>
@@ -9518,16 +9518,16 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="F135">
-        <v>0.05555555555555555</v>
+        <v>0</v>
       </c>
       <c r="G135">
-        <v>0.1428571428571428</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="H135">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="I135">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J135">
         <v>0</v>
@@ -9542,22 +9542,22 @@
         <v>0</v>
       </c>
       <c r="N135">
-        <v>0.1611904761904762</v>
+        <v>0.1707142857142857</v>
       </c>
       <c r="O135">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P135" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="Q135" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="R135" t="s">
         <v>397</v>
       </c>
       <c r="S135" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="136" spans="1:19">
@@ -9574,49 +9574,49 @@
         <v>336</v>
       </c>
       <c r="E136">
-        <v>0.2380952380952381</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="F136">
-        <v>0.1666666666666667</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="G136">
         <v>0.1428571428571428</v>
       </c>
       <c r="H136">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="I136">
+        <v>0</v>
+      </c>
+      <c r="J136">
+        <v>0</v>
+      </c>
+      <c r="K136">
+        <v>0</v>
+      </c>
+      <c r="L136">
         <v>0.2</v>
       </c>
-      <c r="J136">
-        <v>0</v>
-      </c>
-      <c r="K136">
-        <v>0</v>
-      </c>
-      <c r="L136">
-        <v>0</v>
-      </c>
       <c r="M136">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="N136">
-        <v>0.1596428571428571</v>
+        <v>0.1611904761904762</v>
       </c>
       <c r="O136">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P136" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q136" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="R136" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="S136" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="137" spans="1:19">
@@ -9633,19 +9633,19 @@
         <v>337</v>
       </c>
       <c r="E137">
-        <v>0.1428571428571428</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="F137">
-        <v>0.05555555555555555</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="G137">
         <v>0.1428571428571428</v>
       </c>
       <c r="H137">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="I137">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J137">
         <v>0</v>
@@ -9657,25 +9657,25 @@
         <v>0</v>
       </c>
       <c r="M137">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="N137">
-        <v>0.1511904761904762</v>
+        <v>0.1596428571428571</v>
       </c>
       <c r="O137">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P137" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="Q137" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="R137" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="S137" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="138" spans="1:19">
@@ -10135,19 +10135,19 @@
         <v>0</v>
       </c>
       <c r="O145">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P145" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="Q145" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="R145" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="S145" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="146" spans="1:19">
@@ -10194,19 +10194,19 @@
         <v>0</v>
       </c>
       <c r="O146">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P146" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="Q146" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="R146" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="S146" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="147" spans="1:19">
@@ -10253,16 +10253,16 @@
         <v>0</v>
       </c>
       <c r="O147">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P147" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="Q147" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="R147" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="S147" t="s">
         <v>402</v>
@@ -10318,7 +10318,7 @@
         <v>388</v>
       </c>
       <c r="Q148" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="R148" t="s">
         <v>400</v>
@@ -10371,19 +10371,19 @@
         <v>0</v>
       </c>
       <c r="O149">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P149" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Q149" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="R149" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="S149" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="150" spans="1:19">
@@ -10430,16 +10430,16 @@
         <v>0</v>
       </c>
       <c r="O150">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P150" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="Q150" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="R150" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="S150" t="s">
         <v>403</v>
@@ -10492,16 +10492,16 @@
         <v>2</v>
       </c>
       <c r="P151" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="Q151" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="R151" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="S151" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="152" spans="1:19">
@@ -10548,13 +10548,13 @@
         <v>0</v>
       </c>
       <c r="O152">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P152" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="Q152" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="R152" t="s">
         <v>397</v>
@@ -10607,16 +10607,16 @@
         <v>0</v>
       </c>
       <c r="O153">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P153" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="Q153" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="R153" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="S153" t="s">
         <v>403</v>
@@ -10669,13 +10669,13 @@
         <v>1</v>
       </c>
       <c r="P154" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="Q154" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="R154" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="S154" t="s">
         <v>403</v>
@@ -10725,16 +10725,16 @@
         <v>0</v>
       </c>
       <c r="O155">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P155" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="Q155" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="R155" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="S155" t="s">
         <v>403</v>
@@ -11020,19 +11020,19 @@
         <v>0</v>
       </c>
       <c r="O160">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P160" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="Q160" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="R160" t="s">
         <v>397</v>
       </c>
       <c r="S160" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="161" spans="1:19">
@@ -11079,19 +11079,19 @@
         <v>0</v>
       </c>
       <c r="O161">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P161" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="Q161" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="R161" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="S161" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="162" spans="1:19">
@@ -11138,16 +11138,16 @@
         <v>0</v>
       </c>
       <c r="O162">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P162" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="Q162" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="R162" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="S162" t="s">
         <v>403</v>
@@ -11197,19 +11197,19 @@
         <v>0</v>
       </c>
       <c r="O163">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P163" t="s">
         <v>389</v>
       </c>
       <c r="Q163" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="R163" t="s">
         <v>400</v>
       </c>
       <c r="S163" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="164" spans="1:19">
@@ -11256,19 +11256,19 @@
         <v>0</v>
       </c>
       <c r="O164">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P164" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q164" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="R164" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="S164" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="165" spans="1:19">
@@ -11315,16 +11315,16 @@
         <v>0</v>
       </c>
       <c r="O165">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P165" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="Q165" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="R165" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="S165" t="s">
         <v>403</v>
@@ -11374,16 +11374,16 @@
         <v>0</v>
       </c>
       <c r="O166">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P166" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="Q166" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="R166" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="S166" t="s">
         <v>403</v>
@@ -11433,16 +11433,16 @@
         <v>0</v>
       </c>
       <c r="O167">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P167" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="Q167" t="s">
         <v>391</v>
       </c>
       <c r="R167" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="S167" t="s">
         <v>403</v>
@@ -11492,19 +11492,19 @@
         <v>0</v>
       </c>
       <c r="O168">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P168" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="Q168" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="R168" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="S168" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="169" spans="1:19">
@@ -11554,16 +11554,16 @@
         <v>1</v>
       </c>
       <c r="P169" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="Q169" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="R169" t="s">
         <v>400</v>
       </c>
       <c r="S169" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="170" spans="1:19">
@@ -11610,16 +11610,16 @@
         <v>0</v>
       </c>
       <c r="O170">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P170" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Q170" t="s">
         <v>391</v>
       </c>
       <c r="R170" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="S170" t="s">
         <v>403</v>
@@ -11672,13 +11672,13 @@
         <v>4</v>
       </c>
       <c r="P171" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="Q171" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="R171" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="S171" t="s">
         <v>403</v>
@@ -11964,19 +11964,19 @@
         <v>0</v>
       </c>
       <c r="O176">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P176" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="Q176" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="R176" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="S176" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="177" spans="1:19">
@@ -12023,19 +12023,19 @@
         <v>0</v>
       </c>
       <c r="O177">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P177" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="Q177" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="R177" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="S177" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="178" spans="1:19">
@@ -12082,19 +12082,19 @@
         <v>0</v>
       </c>
       <c r="O178">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P178" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Q178" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="R178" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="S178" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="179" spans="1:19">
@@ -12141,19 +12141,19 @@
         <v>0</v>
       </c>
       <c r="O179">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P179" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="Q179" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="R179" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="S179" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="180" spans="1:19">
@@ -12200,19 +12200,19 @@
         <v>0</v>
       </c>
       <c r="O180">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P180" t="s">
         <v>387</v>
       </c>
       <c r="Q180" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="R180" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="S180" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="181" spans="1:19">
@@ -12259,19 +12259,19 @@
         <v>0</v>
       </c>
       <c r="O181">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P181" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="Q181" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="R181" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="S181" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="182" spans="1:19">
@@ -12318,19 +12318,19 @@
         <v>0</v>
       </c>
       <c r="O182">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P182" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="Q182" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="R182" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="S182" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
   </sheetData>

--- a/2021/district_councils.xlsx
+++ b/2021/district_councils.xlsx
@@ -130,12 +130,12 @@
     <t>Cambridge City Council</t>
   </si>
   <si>
+    <t>Swale Borough Council</t>
+  </si>
+  <si>
     <t>Mole Valley District Council</t>
   </si>
   <si>
-    <t>Swale Borough Council</t>
-  </si>
-  <si>
     <t>Surrey Heath Borough Council</t>
   </si>
   <si>
@@ -148,10 +148,13 @@
     <t>Exeter City Council</t>
   </si>
   <si>
+    <t>South Ribble Borough Council</t>
+  </si>
+  <si>
     <t>Canterbury City Council</t>
   </si>
   <si>
-    <t>South Ribble Borough Council</t>
+    <t>Epping Forest District Council</t>
   </si>
   <si>
     <t>Folkestone and Hythe District Council</t>
@@ -169,201 +172,198 @@
     <t>Babergh District Council</t>
   </si>
   <si>
-    <t>Epping Forest District Council</t>
-  </si>
-  <si>
     <t>Mid Devon District Council</t>
   </si>
   <si>
     <t>Lewes District Council</t>
   </si>
   <si>
+    <t>Allerdale Borough Council</t>
+  </si>
+  <si>
     <t>South Somerset District Council</t>
   </si>
   <si>
-    <t>Allerdale Borough Council</t>
+    <t>Blaby District Council</t>
+  </si>
+  <si>
+    <t>Three Rivers District Council</t>
+  </si>
+  <si>
+    <t>Ashford Borough Council</t>
   </si>
   <si>
     <t>Epsom and Ewell Borough Council</t>
   </si>
   <si>
-    <t>Three Rivers District Council</t>
-  </si>
-  <si>
-    <t>Ashford Borough Council</t>
-  </si>
-  <si>
-    <t>Blaby District Council</t>
+    <t>West Lindsey District Council</t>
   </si>
   <si>
     <t>Gravesham Borough Council</t>
   </si>
   <si>
+    <t>Sevenoaks District Council</t>
+  </si>
+  <si>
     <t>Basingstoke and Deane Borough Council</t>
   </si>
   <si>
-    <t>Sevenoaks District Council</t>
+    <t>Carlisle City Council</t>
   </si>
   <si>
     <t>West Lancashire Borough Council</t>
   </si>
   <si>
-    <t>Carlisle City Council</t>
-  </si>
-  <si>
     <t>St Albans City and District Council</t>
   </si>
   <si>
-    <t>West Lindsey District Council</t>
-  </si>
-  <si>
     <t>Warwick District Council</t>
   </si>
   <si>
     <t>Colchester Borough Council</t>
   </si>
   <si>
+    <t>Adur District Council</t>
+  </si>
+  <si>
     <t>Worthing Borough Council</t>
   </si>
   <si>
-    <t>Adur District Council</t>
-  </si>
-  <si>
     <t>Ipswich Borough Council</t>
   </si>
   <si>
+    <t>Derbyshire Dales District Council</t>
+  </si>
+  <si>
     <t>Dover District Council</t>
   </si>
   <si>
+    <t>West Oxfordshire District Council</t>
+  </si>
+  <si>
     <t>Tunbridge Wells Borough Council</t>
   </si>
   <si>
     <t>Eastbourne Borough Council</t>
   </si>
   <si>
-    <t>Derbyshire Dales District Council</t>
-  </si>
-  <si>
-    <t>West Oxfordshire District Council</t>
+    <t>Wychavon District Council</t>
   </si>
   <si>
     <t>Winchester City Council</t>
   </si>
   <si>
+    <t>Basildon Borough Council</t>
+  </si>
+  <si>
     <t>Oxford City Council</t>
   </si>
   <si>
-    <t>Wychavon District Council</t>
+    <t>Eastleigh Borough Council</t>
   </si>
   <si>
     <t>Worcester City Council</t>
   </si>
   <si>
-    <t>Basildon Borough Council</t>
+    <t>Gedling Borough Council</t>
+  </si>
+  <si>
+    <t>Wyre Borough Council</t>
   </si>
   <si>
     <t>Rushmoor Borough Council</t>
   </si>
   <si>
-    <t>Gedling Borough Council</t>
-  </si>
-  <si>
-    <t>Wyre Borough Council</t>
+    <t>Rushcliffe Borough Council</t>
   </si>
   <si>
     <t>Chichester District Council</t>
   </si>
   <si>
+    <t>Cherwell District Council</t>
+  </si>
+  <si>
+    <t>Forest of Dean District Council</t>
+  </si>
+  <si>
     <t>Tandridge District Council</t>
   </si>
   <si>
-    <t>Eastleigh Borough Council</t>
-  </si>
-  <si>
-    <t>Rushcliffe Borough Council</t>
+    <t>Uttlesford District Council</t>
+  </si>
+  <si>
+    <t>Dacorum Borough Council</t>
   </si>
   <si>
     <t>Scarborough Borough Council</t>
   </si>
   <si>
-    <t>Uttlesford District Council</t>
-  </si>
-  <si>
-    <t>Cherwell District Council</t>
-  </si>
-  <si>
-    <t>Forest of Dean District Council</t>
-  </si>
-  <si>
-    <t>Dacorum Borough Council</t>
-  </si>
-  <si>
     <t>Havant Borough Council</t>
   </si>
   <si>
+    <t>North West Leicestershire District Council</t>
+  </si>
+  <si>
+    <t>Gosport Borough Council</t>
+  </si>
+  <si>
+    <t>East Cambridgeshire District Council</t>
+  </si>
+  <si>
+    <t>Hastings Borough Council</t>
+  </si>
+  <si>
     <t>Teignbridge District Council</t>
   </si>
   <si>
-    <t>East Cambridgeshire District Council</t>
+    <t>Mansfield District Council</t>
   </si>
   <si>
     <t>Harborough District Council</t>
   </si>
   <si>
-    <t>North West Leicestershire District Council</t>
-  </si>
-  <si>
     <t>Hertsmere Borough Council</t>
   </si>
   <si>
     <t>Newark and Sherwood District Council</t>
   </si>
   <si>
-    <t>Gosport Borough Council</t>
-  </si>
-  <si>
-    <t>Hastings Borough Council</t>
-  </si>
-  <si>
     <t>South Norfolk District Council</t>
   </si>
   <si>
-    <t>Mansfield District Council</t>
-  </si>
-  <si>
     <t>Cotswold District Council</t>
   </si>
   <si>
+    <t>South Lakeland District Council</t>
+  </si>
+  <si>
+    <t>South Cambridgeshire District Council</t>
+  </si>
+  <si>
     <t>Guildford Borough Council</t>
   </si>
   <si>
-    <t>South Lakeland District Council</t>
-  </si>
-  <si>
     <t>High Peak Borough Council</t>
   </si>
   <si>
     <t>Braintree District Council</t>
   </si>
   <si>
-    <t>South Cambridgeshire District Council</t>
+    <t>Watford Borough Council</t>
   </si>
   <si>
     <t>Stevenage Borough Council</t>
   </si>
   <si>
+    <t>Stafford Borough Council</t>
+  </si>
+  <si>
     <t>Malvern Hills District Council</t>
   </si>
   <si>
     <t>Richmondshire District Council</t>
   </si>
   <si>
-    <t>Stafford Borough Council</t>
-  </si>
-  <si>
-    <t>Watford Borough Council</t>
-  </si>
-  <si>
     <t>South Staffordshire Council</t>
   </si>
   <si>
@@ -373,120 +373,120 @@
     <t>Stratford-on-Avon District Council</t>
   </si>
   <si>
+    <t>Craven District Council</t>
+  </si>
+  <si>
+    <t>Bolsover District Council</t>
+  </si>
+  <si>
     <t>Norwich City Council</t>
   </si>
   <si>
-    <t>Craven District Council</t>
-  </si>
-  <si>
-    <t>Bolsover District Council</t>
+    <t>Broxbourne Borough Council</t>
+  </si>
+  <si>
+    <t>North Hertfordshire District Council</t>
   </si>
   <si>
     <t>East Hertfordshire District Council</t>
   </si>
   <si>
-    <t>Broxbourne Borough Council</t>
-  </si>
-  <si>
-    <t>North Hertfordshire District Council</t>
-  </si>
-  <si>
     <t>Oadby and Wigston Borough Council</t>
   </si>
   <si>
     <t>Pendle Borough Council</t>
   </si>
   <si>
+    <t>Wealden District Council</t>
+  </si>
+  <si>
     <t>Horsham District Council</t>
   </si>
   <si>
-    <t>Wealden District Council</t>
-  </si>
-  <si>
     <t>Newcastle-under-Lyme Borough Council</t>
   </si>
   <si>
+    <t>Broadland District Council</t>
+  </si>
+  <si>
+    <t>Broxtowe Borough Council</t>
+  </si>
+  <si>
     <t>Welwyn Hatfield Borough Council</t>
   </si>
   <si>
-    <t>Broadland District Council</t>
-  </si>
-  <si>
-    <t>Broxtowe Borough Council</t>
-  </si>
-  <si>
     <t>Borough Council of Kings Lynn and West Norfolk</t>
   </si>
   <si>
     <t>Chesterfield Borough Council</t>
   </si>
   <si>
+    <t>Copeland Borough Council</t>
+  </si>
+  <si>
+    <t>East Lindsey District Council</t>
+  </si>
+  <si>
+    <t>Cheltenham Borough Council</t>
+  </si>
+  <si>
+    <t>East Hampshire District Council</t>
+  </si>
+  <si>
     <t>East Staffordshire Borough Council</t>
   </si>
   <si>
-    <t>Copeland Borough Council</t>
-  </si>
-  <si>
-    <t>East Lindsey District Council</t>
-  </si>
-  <si>
     <t>Hart District Council</t>
   </si>
   <si>
-    <t>Cheltenham Borough Council</t>
-  </si>
-  <si>
-    <t>East Hampshire District Council</t>
+    <t>Chelmsford City Council</t>
+  </si>
+  <si>
+    <t>Test Valley Borough Council</t>
+  </si>
+  <si>
+    <t>Hambleton District Council</t>
+  </si>
+  <si>
+    <t>Rother District Council</t>
   </si>
   <si>
     <t>Ryedale District Council</t>
   </si>
   <si>
-    <t>Chelmsford City Council</t>
-  </si>
-  <si>
-    <t>Hambleton District Council</t>
-  </si>
-  <si>
-    <t>Test Valley Borough Council</t>
+    <t>Charnwood Borough Council</t>
+  </si>
+  <si>
+    <t>Amber Valley Borough Council</t>
+  </si>
+  <si>
+    <t>Barrow-in-Furness Borough Council</t>
   </si>
   <si>
     <t>Mid Sussex District Council</t>
   </si>
   <si>
-    <t>Rother District Council</t>
-  </si>
-  <si>
-    <t>Charnwood Borough Council</t>
-  </si>
-  <si>
-    <t>Amber Valley Borough Council</t>
+    <t>Breckland District Council</t>
   </si>
   <si>
     <t>Harrogate Borough Council</t>
   </si>
   <si>
-    <t>Barrow-in-Furness Borough Council</t>
-  </si>
-  <si>
-    <t>Breckland District Council</t>
-  </si>
-  <si>
     <t>City of Lincoln Council</t>
   </si>
   <si>
+    <t>Wyre Forest District Council</t>
+  </si>
+  <si>
+    <t>Rossendale Borough Council</t>
+  </si>
+  <si>
     <t>Tendring District Council</t>
   </si>
   <si>
-    <t>Wyre Forest District Council</t>
-  </si>
-  <si>
     <t>Hinckley and Bosworth Borough Council</t>
   </si>
   <si>
-    <t>Rossendale Borough Council</t>
-  </si>
-  <si>
     <t>South Kesteven District Council</t>
   </si>
   <si>
@@ -496,24 +496,24 @@
     <t>Lancaster City Council</t>
   </si>
   <si>
+    <t>Bromsgrove District Council</t>
+  </si>
+  <si>
     <t>Tewkesbury Borough Council</t>
   </si>
   <si>
-    <t>Bromsgrove District Council</t>
-  </si>
-  <si>
     <t>Harlow District Council</t>
   </si>
   <si>
     <t>Rochford District Council</t>
   </si>
   <si>
+    <t>Vale of White Horse District Council</t>
+  </si>
+  <si>
     <t>Tamworth Borough Council</t>
   </si>
   <si>
-    <t>Vale of White Horse District Council</t>
-  </si>
-  <si>
     <t>Eden District Council</t>
   </si>
   <si>
@@ -673,12 +673,12 @@
     <t>CAB</t>
   </si>
   <si>
+    <t>SWL</t>
+  </si>
+  <si>
     <t>MOL</t>
   </si>
   <si>
-    <t>SWL</t>
-  </si>
-  <si>
     <t>SUR</t>
   </si>
   <si>
@@ -691,10 +691,13 @@
     <t>EXE</t>
   </si>
   <si>
+    <t>SRI</t>
+  </si>
+  <si>
     <t>CAT</t>
   </si>
   <si>
-    <t>SRI</t>
+    <t>EPP</t>
   </si>
   <si>
     <t>SHE</t>
@@ -712,201 +715,198 @@
     <t>BAB</t>
   </si>
   <si>
-    <t>EPP</t>
-  </si>
-  <si>
     <t>MDE</t>
   </si>
   <si>
     <t>LEE</t>
   </si>
   <si>
+    <t>ALL</t>
+  </si>
+  <si>
     <t>SSO</t>
   </si>
   <si>
-    <t>ALL</t>
+    <t>BLA</t>
+  </si>
+  <si>
+    <t>THE</t>
+  </si>
+  <si>
+    <t>ASF</t>
   </si>
   <si>
     <t>EPS</t>
   </si>
   <si>
-    <t>THE</t>
-  </si>
-  <si>
-    <t>ASF</t>
-  </si>
-  <si>
-    <t>BLA</t>
+    <t>WLI</t>
   </si>
   <si>
     <t>GRA</t>
   </si>
   <si>
+    <t>SEV</t>
+  </si>
+  <si>
     <t>BAN</t>
   </si>
   <si>
-    <t>SEV</t>
+    <t>CAR</t>
   </si>
   <si>
     <t>WLA</t>
   </si>
   <si>
-    <t>CAR</t>
-  </si>
-  <si>
     <t>SAL</t>
   </si>
   <si>
-    <t>WLI</t>
-  </si>
-  <si>
     <t>WAW</t>
   </si>
   <si>
     <t>COL</t>
   </si>
   <si>
+    <t>ADU</t>
+  </si>
+  <si>
     <t>WOT</t>
   </si>
   <si>
-    <t>ADU</t>
-  </si>
-  <si>
     <t>IPS</t>
   </si>
   <si>
+    <t>DEB</t>
+  </si>
+  <si>
     <t>DOV</t>
   </si>
   <si>
+    <t>WOX</t>
+  </si>
+  <si>
     <t>TUN</t>
   </si>
   <si>
     <t>EAS</t>
   </si>
   <si>
-    <t>DEB</t>
-  </si>
-  <si>
-    <t>WOX</t>
+    <t>WYC</t>
   </si>
   <si>
     <t>WIN</t>
   </si>
   <si>
+    <t>BAI</t>
+  </si>
+  <si>
     <t>OXO</t>
   </si>
   <si>
-    <t>WYC</t>
+    <t>EAT</t>
   </si>
   <si>
     <t>WOC</t>
   </si>
   <si>
-    <t>BAI</t>
+    <t>GED</t>
+  </si>
+  <si>
+    <t>WYR</t>
   </si>
   <si>
     <t>RUH</t>
   </si>
   <si>
-    <t>GED</t>
-  </si>
-  <si>
-    <t>WYR</t>
+    <t>RUS</t>
   </si>
   <si>
     <t>CHI</t>
   </si>
   <si>
+    <t>CHR</t>
+  </si>
+  <si>
+    <t>FOE</t>
+  </si>
+  <si>
     <t>TAN</t>
   </si>
   <si>
-    <t>EAT</t>
-  </si>
-  <si>
-    <t>RUS</t>
+    <t>UTT</t>
+  </si>
+  <si>
+    <t>DAC</t>
   </si>
   <si>
     <t>SCE</t>
   </si>
   <si>
-    <t>UTT</t>
-  </si>
-  <si>
-    <t>CHR</t>
-  </si>
-  <si>
-    <t>FOE</t>
-  </si>
-  <si>
-    <t>DAC</t>
-  </si>
-  <si>
     <t>HAA</t>
   </si>
   <si>
+    <t>NWL</t>
+  </si>
+  <si>
+    <t>GOS</t>
+  </si>
+  <si>
+    <t>ECA</t>
+  </si>
+  <si>
+    <t>HAS</t>
+  </si>
+  <si>
     <t>TEI</t>
   </si>
   <si>
-    <t>ECA</t>
+    <t>MAS</t>
   </si>
   <si>
     <t>HAO</t>
   </si>
   <si>
-    <t>NWL</t>
-  </si>
-  <si>
     <t>HER</t>
   </si>
   <si>
     <t>NEA</t>
   </si>
   <si>
-    <t>GOS</t>
-  </si>
-  <si>
-    <t>HAS</t>
-  </si>
-  <si>
     <t>SNO</t>
   </si>
   <si>
-    <t>MAS</t>
-  </si>
-  <si>
     <t>COT</t>
   </si>
   <si>
+    <t>SLA</t>
+  </si>
+  <si>
+    <t>SCA</t>
+  </si>
+  <si>
     <t>GRT</t>
   </si>
   <si>
-    <t>SLA</t>
-  </si>
-  <si>
     <t>HIG</t>
   </si>
   <si>
     <t>BRA</t>
   </si>
   <si>
-    <t>SCA</t>
+    <t>WAT</t>
   </si>
   <si>
     <t>STV</t>
   </si>
   <si>
+    <t>STA</t>
+  </si>
+  <si>
     <t>MAV</t>
   </si>
   <si>
     <t>RIH</t>
   </si>
   <si>
-    <t>STA</t>
-  </si>
-  <si>
-    <t>WAT</t>
-  </si>
-  <si>
     <t>SST</t>
   </si>
   <si>
@@ -916,120 +916,120 @@
     <t>STR</t>
   </si>
   <si>
+    <t>CRA</t>
+  </si>
+  <si>
+    <t>BOS</t>
+  </si>
+  <si>
     <t>NOW</t>
   </si>
   <si>
-    <t>CRA</t>
-  </si>
-  <si>
-    <t>BOS</t>
+    <t>BRX</t>
+  </si>
+  <si>
+    <t>NHE</t>
   </si>
   <si>
     <t>EHE</t>
   </si>
   <si>
-    <t>BRX</t>
-  </si>
-  <si>
-    <t>NHE</t>
-  </si>
-  <si>
     <t>OAD</t>
   </si>
   <si>
     <t>PEN</t>
   </si>
   <si>
+    <t>WEA</t>
+  </si>
+  <si>
     <t>HOR</t>
   </si>
   <si>
-    <t>WEA</t>
-  </si>
-  <si>
     <t>NEC</t>
   </si>
   <si>
+    <t>BRO</t>
+  </si>
+  <si>
+    <t>BRT</t>
+  </si>
+  <si>
     <t>WEW</t>
   </si>
   <si>
-    <t>BRO</t>
-  </si>
-  <si>
-    <t>BRT</t>
-  </si>
-  <si>
     <t>KIN</t>
   </si>
   <si>
     <t>CHS</t>
   </si>
   <si>
+    <t>COP</t>
+  </si>
+  <si>
+    <t>ELI</t>
+  </si>
+  <si>
+    <t>CHT</t>
+  </si>
+  <si>
+    <t>EHA</t>
+  </si>
+  <si>
     <t>EST</t>
   </si>
   <si>
-    <t>COP</t>
-  </si>
-  <si>
-    <t>ELI</t>
-  </si>
-  <si>
     <t>HAT</t>
   </si>
   <si>
-    <t>CHT</t>
-  </si>
-  <si>
-    <t>EHA</t>
+    <t>CHL</t>
+  </si>
+  <si>
+    <t>TES</t>
+  </si>
+  <si>
+    <t>HAE</t>
+  </si>
+  <si>
+    <t>ROH</t>
   </si>
   <si>
     <t>RYE</t>
   </si>
   <si>
-    <t>CHL</t>
-  </si>
-  <si>
-    <t>HAE</t>
-  </si>
-  <si>
-    <t>TES</t>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>AMB</t>
+  </si>
+  <si>
+    <t>BAR</t>
   </si>
   <si>
     <t>MSS</t>
   </si>
   <si>
-    <t>ROH</t>
-  </si>
-  <si>
-    <t>CHA</t>
-  </si>
-  <si>
-    <t>AMB</t>
+    <t>BRE</t>
   </si>
   <si>
     <t>HAG</t>
   </si>
   <si>
-    <t>BAR</t>
-  </si>
-  <si>
-    <t>BRE</t>
-  </si>
-  <si>
     <t>LIC</t>
   </si>
   <si>
+    <t>WYE</t>
+  </si>
+  <si>
+    <t>ROS</t>
+  </si>
+  <si>
     <t>TEN</t>
   </si>
   <si>
-    <t>WYE</t>
-  </si>
-  <si>
     <t>HIN</t>
   </si>
   <si>
-    <t>ROS</t>
-  </si>
-  <si>
     <t>SKE</t>
   </si>
   <si>
@@ -1039,22 +1039,22 @@
     <t>LAC</t>
   </si>
   <si>
+    <t>BRM</t>
+  </si>
+  <si>
     <t>TEW</t>
   </si>
   <si>
-    <t>BRM</t>
-  </si>
-  <si>
     <t>HAR</t>
   </si>
   <si>
     <t>ROC</t>
   </si>
   <si>
+    <t>VAL</t>
+  </si>
+  <si>
     <t>TAW</t>
-  </si>
-  <si>
-    <t>VAL</t>
   </si>
   <si>
     <t>EDN</t>
@@ -1677,7 +1677,7 @@
         <v>1</v>
       </c>
       <c r="H2">
-        <v>0.9</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -1695,7 +1695,7 @@
         <v>1</v>
       </c>
       <c r="N2">
-        <v>0.9164285714285715</v>
+        <v>0.9147619047619048</v>
       </c>
       <c r="O2">
         <v>2</v>
@@ -1795,7 +1795,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H4">
-        <v>0.9</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="I4">
         <v>0.8</v>
@@ -1813,7 +1813,7 @@
         <v>1</v>
       </c>
       <c r="N4">
-        <v>0.777857142857143</v>
+        <v>0.7761904761904763</v>
       </c>
       <c r="O4">
         <v>4</v>
@@ -1913,7 +1913,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="H6">
-        <v>0.9</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="I6">
         <v>0.8</v>
@@ -1931,7 +1931,7 @@
         <v>0.75</v>
       </c>
       <c r="N6">
-        <v>0.7613095238095239</v>
+        <v>0.7596428571428572</v>
       </c>
       <c r="O6">
         <v>5</v>
@@ -1972,7 +1972,7 @@
         <v>1</v>
       </c>
       <c r="H7">
-        <v>0.9</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="I7">
         <v>0.4</v>
@@ -1990,7 +1990,7 @@
         <v>0.75</v>
       </c>
       <c r="N7">
-        <v>0.7203571428571429</v>
+        <v>0.7186904761904762</v>
       </c>
       <c r="O7">
         <v>3</v>
@@ -2031,7 +2031,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="H8">
-        <v>0.9</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="I8">
         <v>0.8</v>
@@ -2049,7 +2049,7 @@
         <v>0.75</v>
       </c>
       <c r="N8">
-        <v>0.7170238095238096</v>
+        <v>0.7153571428571429</v>
       </c>
       <c r="O8">
         <v>2</v>
@@ -2090,7 +2090,7 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="H9">
-        <v>0.7</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I9">
         <v>0.6</v>
@@ -2108,7 +2108,7 @@
         <v>1</v>
       </c>
       <c r="N9">
-        <v>0.7135714285714286</v>
+        <v>0.7085714285714286</v>
       </c>
       <c r="O9">
         <v>2</v>
@@ -2149,7 +2149,7 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="H10">
-        <v>0.8</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="I10">
         <v>0.8</v>
@@ -2167,7 +2167,7 @@
         <v>1</v>
       </c>
       <c r="N10">
-        <v>0.7085714285714286</v>
+        <v>0.7052380952380954</v>
       </c>
       <c r="O10">
         <v>3</v>
@@ -2208,7 +2208,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="H11">
-        <v>0.8</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -2226,7 +2226,7 @@
         <v>0.75</v>
       </c>
       <c r="N11">
-        <v>0.7038095238095238</v>
+        <v>0.7004761904761904</v>
       </c>
       <c r="O11">
         <v>5</v>
@@ -2267,7 +2267,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="H12">
-        <v>0.8</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -2285,7 +2285,7 @@
         <v>0.5</v>
       </c>
       <c r="N12">
-        <v>0.6839285714285714</v>
+        <v>0.6972619047619047</v>
       </c>
       <c r="O12">
         <v>3</v>
@@ -2326,7 +2326,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H13">
-        <v>0.6</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -2344,7 +2344,7 @@
         <v>0.5</v>
       </c>
       <c r="N13">
-        <v>0.6767857142857143</v>
+        <v>0.6867857142857143</v>
       </c>
       <c r="O13">
         <v>5</v>
@@ -2385,7 +2385,7 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="H14">
-        <v>0.9</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -2403,7 +2403,7 @@
         <v>0.75</v>
       </c>
       <c r="N14">
-        <v>0.6586904761904763</v>
+        <v>0.6570238095238096</v>
       </c>
       <c r="O14">
         <v>4</v>
@@ -2444,7 +2444,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H15">
-        <v>0.7</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I15">
         <v>0.8</v>
@@ -2462,7 +2462,7 @@
         <v>0.75</v>
       </c>
       <c r="N15">
-        <v>0.6485714285714285</v>
+        <v>0.6435714285714286</v>
       </c>
       <c r="O15">
         <v>3</v>
@@ -2503,7 +2503,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="H16">
-        <v>0.8</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="I16">
         <v>0.8</v>
@@ -2521,7 +2521,7 @@
         <v>0.5</v>
       </c>
       <c r="N16">
-        <v>0.6447619047619049</v>
+        <v>0.6414285714285716</v>
       </c>
       <c r="O16">
         <v>4</v>
@@ -2562,7 +2562,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="H17">
-        <v>0.8</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="I17">
         <v>0.6</v>
@@ -2580,7 +2580,7 @@
         <v>0.75</v>
       </c>
       <c r="N17">
-        <v>0.6441666666666667</v>
+        <v>0.6408333333333333</v>
       </c>
       <c r="O17">
         <v>5</v>
@@ -2621,7 +2621,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="H18">
-        <v>0.8</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="I18">
         <v>0.8</v>
@@ -2639,7 +2639,7 @@
         <v>0.75</v>
       </c>
       <c r="N18">
-        <v>0.6433333333333332</v>
+        <v>0.6399999999999998</v>
       </c>
       <c r="O18">
         <v>3</v>
@@ -2671,40 +2671,40 @@
         <v>219</v>
       </c>
       <c r="E19">
-        <v>0.6666666666666666</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="F19">
-        <v>0.9444444444444444</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="G19">
         <v>0.8571428571428571</v>
       </c>
       <c r="H19">
-        <v>0.6</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I19">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>0.4</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
         <v>0.75</v>
       </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0.6</v>
-      </c>
-      <c r="M19">
-        <v>0.5</v>
-      </c>
       <c r="N19">
-        <v>0.6427380952380951</v>
+        <v>0.6372619047619048</v>
       </c>
       <c r="O19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P19" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="Q19" t="s">
         <v>392</v>
@@ -2713,7 +2713,7 @@
         <v>397</v>
       </c>
       <c r="S19" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -2730,40 +2730,40 @@
         <v>220</v>
       </c>
       <c r="E20">
-        <v>0.6190476190476191</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F20">
-        <v>0.7222222222222222</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="G20">
         <v>0.8571428571428571</v>
       </c>
       <c r="H20">
-        <v>0.7</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="I20">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="J20">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K20">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="M20">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="N20">
-        <v>0.6422619047619048</v>
+        <v>0.6360714285714285</v>
       </c>
       <c r="O20">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P20" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="Q20" t="s">
         <v>392</v>
@@ -2772,7 +2772,7 @@
         <v>397</v>
       </c>
       <c r="S20" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -2798,7 +2798,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="H21">
-        <v>0.7</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I21">
         <v>0.6</v>
@@ -2816,7 +2816,7 @@
         <v>0.5</v>
       </c>
       <c r="N21">
-        <v>0.6309523809523808</v>
+        <v>0.6259523809523809</v>
       </c>
       <c r="O21">
         <v>5</v>
@@ -2857,7 +2857,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="H22">
-        <v>0.9</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="I22">
         <v>0.8</v>
@@ -2875,7 +2875,7 @@
         <v>0.75</v>
       </c>
       <c r="N22">
-        <v>0.6222619047619048</v>
+        <v>0.6205952380952382</v>
       </c>
       <c r="O22">
         <v>1</v>
@@ -2916,7 +2916,7 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="H23">
-        <v>0.8</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="I23">
         <v>1</v>
@@ -2934,7 +2934,7 @@
         <v>0.75</v>
       </c>
       <c r="N23">
-        <v>0.6172619047619048</v>
+        <v>0.6139285714285715</v>
       </c>
       <c r="O23">
         <v>5</v>
@@ -2975,7 +2975,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="H24">
-        <v>0.7</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I24">
         <v>0.6</v>
@@ -2993,7 +2993,7 @@
         <v>0.75</v>
       </c>
       <c r="N24">
-        <v>0.6149999999999999</v>
+        <v>0.61</v>
       </c>
       <c r="O24">
         <v>3</v>
@@ -3025,49 +3025,49 @@
         <v>225</v>
       </c>
       <c r="E25">
-        <v>0.5714285714285714</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="F25">
-        <v>0.6111111111111112</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="G25">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="I25">
+        <v>0.8</v>
+      </c>
+      <c r="J25">
+        <v>0.75</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0.8</v>
+      </c>
+      <c r="M25">
         <v>0.5</v>
       </c>
-      <c r="I25">
-        <v>0.6</v>
-      </c>
-      <c r="J25">
-        <v>1</v>
-      </c>
-      <c r="K25">
-        <v>0.2</v>
-      </c>
-      <c r="L25">
-        <v>0.4</v>
-      </c>
-      <c r="M25">
-        <v>0.75</v>
-      </c>
       <c r="N25">
-        <v>0.6098809523809524</v>
+        <v>0.6022619047619048</v>
       </c>
       <c r="O25">
         <v>3</v>
       </c>
       <c r="P25" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="Q25" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="R25" t="s">
         <v>400</v>
       </c>
       <c r="S25" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="26" spans="1:19">
@@ -3084,49 +3084,49 @@
         <v>226</v>
       </c>
       <c r="E26">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="F26">
-        <v>0.7222222222222222</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="G26">
-        <v>0.7142857142857143</v>
+        <v>1</v>
       </c>
       <c r="H26">
-        <v>0.7</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="I26">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>0.2</v>
+      </c>
+      <c r="L26">
+        <v>0.4</v>
+      </c>
+      <c r="M26">
         <v>0.75</v>
       </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <v>0.8</v>
-      </c>
-      <c r="M26">
-        <v>0.5</v>
-      </c>
       <c r="N26">
-        <v>0.6072619047619049</v>
+        <v>0.601547619047619</v>
       </c>
       <c r="O26">
         <v>3</v>
       </c>
       <c r="P26" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="Q26" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="R26" t="s">
         <v>400</v>
       </c>
       <c r="S26" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="27" spans="1:19">
@@ -3143,16 +3143,16 @@
         <v>227</v>
       </c>
       <c r="E27">
-        <v>0.7142857142857143</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="F27">
-        <v>0.5555555555555556</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="G27">
-        <v>0.8571428571428571</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H27">
-        <v>0.6</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I27">
         <v>0.6</v>
@@ -3161,31 +3161,31 @@
         <v>1</v>
       </c>
       <c r="K27">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="L27">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="M27">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="N27">
-        <v>0.596547619047619</v>
+        <v>0.590952380952381</v>
       </c>
       <c r="O27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P27" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="Q27" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="R27" t="s">
         <v>397</v>
       </c>
       <c r="S27" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="28" spans="1:19">
@@ -3202,46 +3202,46 @@
         <v>228</v>
       </c>
       <c r="E28">
-        <v>0.4761904761904762</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="F28">
-        <v>0.9444444444444444</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="G28">
         <v>0.8571428571428571</v>
       </c>
       <c r="H28">
-        <v>0.5</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="I28">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="J28">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="L28">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="M28">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="N28">
-        <v>0.5941666666666667</v>
+        <v>0.5898809523809524</v>
       </c>
       <c r="O28">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P28" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="Q28" t="s">
         <v>392</v>
       </c>
       <c r="R28" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="S28" t="s">
         <v>402</v>
@@ -3264,34 +3264,34 @@
         <v>0.4761904761904762</v>
       </c>
       <c r="F29">
-        <v>0.6666666666666666</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="G29">
-        <v>0.7142857142857143</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H29">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="I29">
         <v>0.8</v>
       </c>
-      <c r="I29">
-        <v>0.2</v>
-      </c>
       <c r="J29">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K29">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="L29">
         <v>0.6</v>
       </c>
       <c r="M29">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="N29">
-        <v>0.5860714285714286</v>
+        <v>0.5858333333333332</v>
       </c>
       <c r="O29">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P29" t="s">
         <v>383</v>
@@ -3320,25 +3320,25 @@
         <v>230</v>
       </c>
       <c r="E30">
+        <v>0.4761904761904762</v>
+      </c>
+      <c r="F30">
         <v>0.6666666666666666</v>
-      </c>
-      <c r="F30">
-        <v>0.7222222222222222</v>
       </c>
       <c r="G30">
         <v>0.7142857142857143</v>
       </c>
       <c r="H30">
-        <v>0.7</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="I30">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="J30">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="L30">
         <v>0.6</v>
@@ -3347,19 +3347,19 @@
         <v>0.75</v>
       </c>
       <c r="N30">
-        <v>0.5829761904761904</v>
+        <v>0.5827380952380953</v>
       </c>
       <c r="O30">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P30" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="Q30" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="R30" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="S30" t="s">
         <v>402</v>
@@ -3388,7 +3388,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H31">
-        <v>0.7</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I31">
         <v>0.4</v>
@@ -3406,19 +3406,19 @@
         <v>0.75</v>
       </c>
       <c r="N31">
-        <v>0.5829761904761904</v>
+        <v>0.5779761904761905</v>
       </c>
       <c r="O31">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P31" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="Q31" t="s">
         <v>394</v>
       </c>
       <c r="R31" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="S31" t="s">
         <v>402</v>
@@ -3438,49 +3438,49 @@
         <v>232</v>
       </c>
       <c r="E32">
-        <v>0.5238095238095238</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F32">
-        <v>0.6111111111111112</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="G32">
-        <v>0.5714285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H32">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="I32">
+        <v>0.4</v>
+      </c>
+      <c r="J32">
+        <v>0.5</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
         <v>0.6</v>
       </c>
-      <c r="I32">
-        <v>0.6</v>
-      </c>
-      <c r="J32">
-        <v>1</v>
-      </c>
-      <c r="K32">
-        <v>0.6</v>
-      </c>
-      <c r="L32">
-        <v>0.4</v>
-      </c>
       <c r="M32">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="N32">
-        <v>0.580952380952381</v>
+        <v>0.5779761904761905</v>
       </c>
       <c r="O32">
         <v>3</v>
       </c>
       <c r="P32" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="Q32" t="s">
         <v>394</v>
       </c>
       <c r="R32" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="S32" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="33" spans="1:19">
@@ -3506,7 +3506,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H33">
-        <v>0.6</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="I33">
         <v>0.8</v>
@@ -3524,7 +3524,7 @@
         <v>0.75</v>
       </c>
       <c r="N33">
-        <v>0.5797619047619048</v>
+        <v>0.573095238095238</v>
       </c>
       <c r="O33">
         <v>3</v>
@@ -3565,7 +3565,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H34">
-        <v>0.6</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="I34">
         <v>1</v>
@@ -3583,7 +3583,7 @@
         <v>0.5</v>
       </c>
       <c r="N34">
-        <v>0.5785714285714286</v>
+        <v>0.5719047619047619</v>
       </c>
       <c r="O34">
         <v>3</v>
@@ -3615,49 +3615,49 @@
         <v>235</v>
       </c>
       <c r="E35">
-        <v>0.5238095238095238</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="F35">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G35">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="H35">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="I35">
+        <v>0.6</v>
+      </c>
+      <c r="J35">
+        <v>0.5</v>
+      </c>
+      <c r="K35">
+        <v>0.4</v>
+      </c>
+      <c r="L35">
+        <v>0.8</v>
+      </c>
+      <c r="M35">
+        <v>0.5</v>
+      </c>
+      <c r="N35">
+        <v>0.5704761904761905</v>
+      </c>
+      <c r="O35">
         <v>1</v>
       </c>
-      <c r="G35">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="H35">
-        <v>0.6</v>
-      </c>
-      <c r="I35">
-        <v>0.4</v>
-      </c>
-      <c r="J35">
-        <v>1</v>
-      </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-      <c r="L35">
-        <v>0.4</v>
-      </c>
-      <c r="M35">
-        <v>0.75</v>
-      </c>
-      <c r="N35">
-        <v>0.5717857142857142</v>
-      </c>
-      <c r="O35">
-        <v>2</v>
-      </c>
       <c r="P35" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="Q35" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="R35" t="s">
         <v>398</v>
       </c>
       <c r="S35" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="36" spans="1:19">
@@ -3674,49 +3674,49 @@
         <v>236</v>
       </c>
       <c r="E36">
-        <v>0.6190476190476191</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="F36">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G36">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H36">
-        <v>0.5</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="I36">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="J36">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
         <v>0.4</v>
       </c>
-      <c r="L36">
-        <v>0.8</v>
-      </c>
       <c r="M36">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="N36">
-        <v>0.5621428571428572</v>
+        <v>0.5651190476190475</v>
       </c>
       <c r="O36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P36" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="Q36" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="R36" t="s">
         <v>398</v>
       </c>
       <c r="S36" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="37" spans="1:19">
@@ -3733,19 +3733,19 @@
         <v>237</v>
       </c>
       <c r="E37">
-        <v>0.4761904761904762</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="F37">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="G37">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="H37">
         <v>0.7777777777777778</v>
       </c>
-      <c r="G37">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="H37">
-        <v>0.5</v>
-      </c>
       <c r="I37">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="J37">
         <v>0.5</v>
@@ -3757,25 +3757,25 @@
         <v>0.6</v>
       </c>
       <c r="M37">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="N37">
-        <v>0.5541666666666666</v>
+        <v>0.5617857142857141</v>
       </c>
       <c r="O37">
         <v>5</v>
       </c>
       <c r="P37" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="Q37" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="R37" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="S37" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="38" spans="1:19">
@@ -3801,7 +3801,7 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="H38">
-        <v>0.9</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="I38">
         <v>1</v>
@@ -3819,7 +3819,7 @@
         <v>0.75</v>
       </c>
       <c r="N38">
-        <v>0.5538095238095238</v>
+        <v>0.552142857142857</v>
       </c>
       <c r="O38">
         <v>5</v>
@@ -3860,7 +3860,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="H39">
-        <v>0.8</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="I39">
         <v>0.2</v>
@@ -3878,7 +3878,7 @@
         <v>0.75</v>
       </c>
       <c r="N39">
-        <v>0.5520238095238095</v>
+        <v>0.5486904761904762</v>
       </c>
       <c r="O39">
         <v>2</v>
@@ -3910,19 +3910,19 @@
         <v>240</v>
       </c>
       <c r="E40">
-        <v>0.5238095238095238</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="F40">
-        <v>0.5555555555555556</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="G40">
-        <v>0.5714285714285714</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H40">
-        <v>0.7</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="I40">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="J40">
         <v>0.5</v>
@@ -3934,25 +3934,25 @@
         <v>0.6</v>
       </c>
       <c r="M40">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="N40">
-        <v>0.5501190476190476</v>
+        <v>0.5458333333333333</v>
       </c>
       <c r="O40">
         <v>5</v>
       </c>
       <c r="P40" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="Q40" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="R40" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="S40" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="41" spans="1:19">
@@ -3969,25 +3969,25 @@
         <v>241</v>
       </c>
       <c r="E41">
-        <v>0.5714285714285714</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F41">
-        <v>0.6111111111111112</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G41">
-        <v>0.7142857142857143</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="H41">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="I41">
         <v>0.6</v>
       </c>
-      <c r="I41">
-        <v>0.4</v>
-      </c>
       <c r="J41">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K41">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="L41">
         <v>0.4</v>
@@ -3996,22 +3996,22 @@
         <v>0.5</v>
       </c>
       <c r="N41">
-        <v>0.5495238095238095</v>
+        <v>0.543452380952381</v>
       </c>
       <c r="O41">
         <v>2</v>
       </c>
       <c r="P41" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="Q41" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="R41" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="S41" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="42" spans="1:19">
@@ -4028,25 +4028,25 @@
         <v>242</v>
       </c>
       <c r="E42">
-        <v>0.6190476190476191</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="F42">
-        <v>0.4444444444444444</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="G42">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H42">
-        <v>0.6</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="I42">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="J42">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K42">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="L42">
         <v>0.4</v>
@@ -4055,13 +4055,13 @@
         <v>0.5</v>
       </c>
       <c r="N42">
-        <v>0.5480952380952381</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="O42">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P42" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="Q42" t="s">
         <v>392</v>
@@ -4070,7 +4070,7 @@
         <v>397</v>
       </c>
       <c r="S42" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="43" spans="1:19">
@@ -4096,7 +4096,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H43">
-        <v>0.7</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I43">
         <v>0.4</v>
@@ -4114,7 +4114,7 @@
         <v>0.75</v>
       </c>
       <c r="N43">
-        <v>0.5477380952380951</v>
+        <v>0.5427380952380951</v>
       </c>
       <c r="O43">
         <v>4</v>
@@ -4149,16 +4149,16 @@
         <v>0.6190476190476191</v>
       </c>
       <c r="F44">
-        <v>0.5</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="G44">
         <v>0.8571428571428571</v>
       </c>
       <c r="H44">
-        <v>0.6</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="I44">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="J44">
         <v>0.5</v>
@@ -4167,28 +4167,28 @@
         <v>0</v>
       </c>
       <c r="L44">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="M44">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="N44">
-        <v>0.5439285714285714</v>
+        <v>0.5414285714285715</v>
       </c>
       <c r="O44">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P44" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="Q44" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="R44" t="s">
         <v>397</v>
       </c>
       <c r="S44" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="45" spans="1:19">
@@ -4214,7 +4214,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H45">
-        <v>0.7</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I45">
         <v>1</v>
@@ -4232,7 +4232,7 @@
         <v>0.25</v>
       </c>
       <c r="N45">
-        <v>0.5438095238095237</v>
+        <v>0.5388095238095237</v>
       </c>
       <c r="O45">
         <v>2</v>
@@ -4264,19 +4264,19 @@
         <v>246</v>
       </c>
       <c r="E46">
-        <v>0.5714285714285714</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="F46">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G46">
-        <v>0.4285714285714285</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H46">
-        <v>0.8</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="I46">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="J46">
         <v>0.5</v>
@@ -4285,28 +4285,28 @@
         <v>0</v>
       </c>
       <c r="L46">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="M46">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="N46">
-        <v>0.5325</v>
+        <v>0.5372619047619047</v>
       </c>
       <c r="O46">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P46" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="Q46" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="R46" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="S46" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="47" spans="1:19">
@@ -4323,7 +4323,7 @@
         <v>247</v>
       </c>
       <c r="E47">
-        <v>0.6666666666666666</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="F47">
         <v>0.6666666666666666</v>
@@ -4332,13 +4332,13 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="H47">
-        <v>0.7</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="I47">
         <v>0.6</v>
       </c>
       <c r="J47">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="K47">
         <v>0</v>
@@ -4347,25 +4347,25 @@
         <v>0.4</v>
       </c>
       <c r="M47">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="N47">
-        <v>0.5317857142857143</v>
+        <v>0.5291666666666667</v>
       </c>
       <c r="O47">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P47" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="Q47" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="R47" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="S47" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="48" spans="1:19">
@@ -4391,7 +4391,7 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="H48">
-        <v>0.7</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I48">
         <v>0.8</v>
@@ -4409,7 +4409,7 @@
         <v>0.75</v>
       </c>
       <c r="N48">
-        <v>0.5308333333333334</v>
+        <v>0.5258333333333334</v>
       </c>
       <c r="O48">
         <v>4</v>
@@ -4450,7 +4450,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="H49">
-        <v>0.7</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I49">
         <v>0.6</v>
@@ -4468,7 +4468,7 @@
         <v>0.5</v>
       </c>
       <c r="N49">
-        <v>0.5216666666666666</v>
+        <v>0.5166666666666666</v>
       </c>
       <c r="O49">
         <v>3</v>
@@ -4509,7 +4509,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="H50">
-        <v>0.6</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="I50">
         <v>0.6</v>
@@ -4527,13 +4527,13 @@
         <v>0.25</v>
       </c>
       <c r="N50">
-        <v>0.519047619047619</v>
+        <v>0.5123809523809524</v>
       </c>
       <c r="O50">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P50" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="Q50" t="s">
         <v>392</v>
@@ -4568,7 +4568,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="H51">
-        <v>0.6</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="I51">
         <v>0.6</v>
@@ -4586,13 +4586,13 @@
         <v>0.25</v>
       </c>
       <c r="N51">
-        <v>0.519047619047619</v>
+        <v>0.5123809523809524</v>
       </c>
       <c r="O51">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P51" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q51" t="s">
         <v>392</v>
@@ -4627,7 +4627,7 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="H52">
-        <v>0.9</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="I52">
         <v>0.6</v>
@@ -4645,7 +4645,7 @@
         <v>0.5</v>
       </c>
       <c r="N52">
-        <v>0.5135714285714286</v>
+        <v>0.5119047619047619</v>
       </c>
       <c r="O52">
         <v>1</v>
@@ -4683,40 +4683,40 @@
         <v>0.5</v>
       </c>
       <c r="G53">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H53">
-        <v>0.8</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="I53">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="J53">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="K53">
         <v>0.2</v>
       </c>
       <c r="L53">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="M53">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="N53">
-        <v>0.51</v>
+        <v>0.5102380952380953</v>
       </c>
       <c r="O53">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P53" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="Q53" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="R53" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="S53" t="s">
         <v>403</v>
@@ -4736,19 +4736,19 @@
         <v>254</v>
       </c>
       <c r="E54">
-        <v>0.4761904761904762</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="F54">
-        <v>0.5555555555555556</v>
+        <v>0.5</v>
       </c>
       <c r="G54">
-        <v>0.5714285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H54">
-        <v>0.6</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="I54">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="J54">
         <v>1</v>
@@ -4757,19 +4757,19 @@
         <v>0.2</v>
       </c>
       <c r="L54">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="M54">
         <v>0.5</v>
       </c>
       <c r="N54">
-        <v>0.5054761904761905</v>
+        <v>0.5066666666666667</v>
       </c>
       <c r="O54">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P54" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="Q54" t="s">
         <v>392</v>
@@ -4795,19 +4795,19 @@
         <v>255</v>
       </c>
       <c r="E55">
-        <v>0.4285714285714285</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="F55">
         <v>0.4444444444444444</v>
       </c>
       <c r="G55">
-        <v>0.8571428571428571</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="H55">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I55">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="J55">
         <v>0.5</v>
@@ -4822,22 +4822,22 @@
         <v>0.5</v>
       </c>
       <c r="N55">
-        <v>0.5045238095238096</v>
+        <v>0.5023809523809524</v>
       </c>
       <c r="O55">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P55" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="Q55" t="s">
         <v>392</v>
       </c>
       <c r="R55" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="S55" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="56" spans="1:19">
@@ -4854,22 +4854,22 @@
         <v>256</v>
       </c>
       <c r="E56">
-        <v>0.6190476190476191</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="F56">
-        <v>0.5</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="G56">
         <v>0.5714285714285714</v>
       </c>
       <c r="H56">
-        <v>0.4</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="I56">
+        <v>0.6</v>
+      </c>
+      <c r="J56">
         <v>1</v>
-      </c>
-      <c r="J56">
-        <v>0.25</v>
       </c>
       <c r="K56">
         <v>0.2</v>
@@ -4878,22 +4878,22 @@
         <v>0.2</v>
       </c>
       <c r="M56">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="N56">
-        <v>0.5035714285714287</v>
+        <v>0.4988095238095238</v>
       </c>
       <c r="O56">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P56" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="Q56" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="R56" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="S56" t="s">
         <v>403</v>
@@ -4913,19 +4913,19 @@
         <v>257</v>
       </c>
       <c r="E57">
-        <v>0.4761904761904762</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="F57">
         <v>0.4444444444444444</v>
       </c>
       <c r="G57">
-        <v>0.4285714285714285</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H57">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="I57">
         <v>1</v>
-      </c>
-      <c r="I57">
-        <v>0.8</v>
       </c>
       <c r="J57">
         <v>0.5</v>
@@ -4940,22 +4940,22 @@
         <v>0.5</v>
       </c>
       <c r="N57">
-        <v>0.5023809523809524</v>
+        <v>0.4961904761904762</v>
       </c>
       <c r="O57">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P57" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="Q57" t="s">
         <v>392</v>
       </c>
       <c r="R57" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="S57" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="58" spans="1:19">
@@ -4975,46 +4975,46 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="F58">
-        <v>0.2222222222222222</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="G58">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H58">
-        <v>0.9</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="I58">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="J58">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="K58">
         <v>0</v>
       </c>
       <c r="L58">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="M58">
         <v>0.75</v>
       </c>
       <c r="N58">
-        <v>0.4926190476190476</v>
+        <v>0.4920238095238095</v>
       </c>
       <c r="O58">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P58" t="s">
         <v>385</v>
       </c>
       <c r="Q58" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="R58" t="s">
         <v>398</v>
       </c>
       <c r="S58" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="59" spans="1:19">
@@ -5031,49 +5031,49 @@
         <v>259</v>
       </c>
       <c r="E59">
-        <v>0.5238095238095238</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="F59">
-        <v>0.5</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="G59">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H59">
-        <v>0.5</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="I59">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="J59">
         <v>0.25</v>
       </c>
       <c r="K59">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="L59">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="M59">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="N59">
-        <v>0.4896428571428572</v>
+        <v>0.4909523809523809</v>
       </c>
       <c r="O59">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P59" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="Q59" t="s">
         <v>392</v>
       </c>
       <c r="R59" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="S59" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="60" spans="1:19">
@@ -5090,46 +5090,46 @@
         <v>260</v>
       </c>
       <c r="E60">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="F60">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="G60">
         <v>0.7142857142857143</v>
       </c>
-      <c r="F60">
-        <v>0.2777777777777778</v>
-      </c>
-      <c r="G60">
-        <v>0.5714285714285714</v>
-      </c>
       <c r="H60">
-        <v>0.3</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I60">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="J60">
+        <v>0.5</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0.2</v>
+      </c>
+      <c r="M60">
+        <v>0.5</v>
+      </c>
+      <c r="N60">
+        <v>0.4847619047619048</v>
+      </c>
+      <c r="O60">
         <v>1</v>
       </c>
-      <c r="K60">
-        <v>0</v>
-      </c>
-      <c r="L60">
-        <v>0.4</v>
-      </c>
-      <c r="M60">
-        <v>0.75</v>
-      </c>
-      <c r="N60">
-        <v>0.4870238095238095</v>
-      </c>
-      <c r="O60">
-        <v>3</v>
-      </c>
       <c r="P60" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q60" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="R60" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="S60" t="s">
         <v>403</v>
@@ -5149,49 +5149,49 @@
         <v>261</v>
       </c>
       <c r="E61">
-        <v>0.4761904761904762</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="F61">
-        <v>0.6111111111111112</v>
+        <v>0.5</v>
       </c>
       <c r="G61">
-        <v>0.4285714285714285</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H61">
-        <v>0.7</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="I61">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="J61">
         <v>0.25</v>
       </c>
       <c r="K61">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="L61">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="M61">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="N61">
-        <v>0.4773809523809524</v>
+        <v>0.4813095238095239</v>
       </c>
       <c r="O61">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P61" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="Q61" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="R61" t="s">
         <v>400</v>
       </c>
       <c r="S61" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="62" spans="1:19">
@@ -5208,49 +5208,49 @@
         <v>262</v>
       </c>
       <c r="E62">
-        <v>0.4285714285714285</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="F62">
-        <v>0.5555555555555556</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="G62">
         <v>0.7142857142857143</v>
       </c>
       <c r="H62">
-        <v>0.6</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="I62">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="J62">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K62">
         <v>0</v>
       </c>
       <c r="L62">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="M62">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="N62">
-        <v>0.4747619047619048</v>
+        <v>0.4728571428571429</v>
       </c>
       <c r="O62">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P62" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="Q62" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="R62" t="s">
         <v>400</v>
       </c>
       <c r="S62" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="63" spans="1:19">
@@ -5267,22 +5267,22 @@
         <v>263</v>
       </c>
       <c r="E63">
-        <v>0.3809523809523809</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="F63">
-        <v>0.5</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="G63">
-        <v>0.8571428571428571</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="H63">
-        <v>0.3</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I63">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="J63">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="K63">
         <v>0</v>
@@ -5291,19 +5291,19 @@
         <v>0.6</v>
       </c>
       <c r="M63">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="N63">
-        <v>0.4732142857142857</v>
+        <v>0.4723809523809524</v>
       </c>
       <c r="O63">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P63" t="s">
         <v>384</v>
       </c>
       <c r="Q63" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="R63" t="s">
         <v>400</v>
@@ -5335,7 +5335,7 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="H64">
-        <v>0.5</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="I64">
         <v>0.6</v>
@@ -5353,7 +5353,7 @@
         <v>0.5</v>
       </c>
       <c r="N64">
-        <v>0.4720238095238095</v>
+        <v>0.4636904761904762</v>
       </c>
       <c r="O64">
         <v>3</v>
@@ -5394,7 +5394,7 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="H65">
-        <v>0.5</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="I65">
         <v>0.8</v>
@@ -5412,7 +5412,7 @@
         <v>0.5</v>
       </c>
       <c r="N65">
-        <v>0.471547619047619</v>
+        <v>0.4632142857142857</v>
       </c>
       <c r="O65">
         <v>2</v>
@@ -5444,49 +5444,49 @@
         <v>266</v>
       </c>
       <c r="E66">
-        <v>0.6190476190476191</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="F66">
-        <v>0.5555555555555556</v>
+        <v>0.5</v>
       </c>
       <c r="G66">
-        <v>0.4285714285714285</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H66">
-        <v>0.5</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="I66">
         <v>0.2</v>
       </c>
       <c r="J66">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="K66">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="L66">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="M66">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="N66">
-        <v>0.4604761904761905</v>
+        <v>0.461547619047619</v>
       </c>
       <c r="O66">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P66" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="Q66" t="s">
         <v>392</v>
       </c>
       <c r="R66" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="S66" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="67" spans="1:19">
@@ -5503,19 +5503,19 @@
         <v>267</v>
       </c>
       <c r="E67">
-        <v>0.1904761904761905</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="F67">
-        <v>0.9444444444444444</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="G67">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H67">
-        <v>0.3</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="I67">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="J67">
         <v>0.5</v>
@@ -5524,28 +5524,28 @@
         <v>0</v>
       </c>
       <c r="L67">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="M67">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="N67">
-        <v>0.4598809523809524</v>
+        <v>0.4611904761904762</v>
       </c>
       <c r="O67">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P67" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="Q67" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="R67" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="S67" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="68" spans="1:19">
@@ -5562,49 +5562,49 @@
         <v>268</v>
       </c>
       <c r="E68">
-        <v>0.2380952380952381</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="F68">
-        <v>0.2777777777777778</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="G68">
-        <v>0.7142857142857143</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="H68">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="I68">
+        <v>0.2</v>
+      </c>
+      <c r="J68">
+        <v>0.25</v>
+      </c>
+      <c r="K68">
+        <v>0.2</v>
+      </c>
+      <c r="L68">
         <v>0.8</v>
       </c>
-      <c r="I68">
-        <v>0.4</v>
-      </c>
-      <c r="J68">
-        <v>0.75</v>
-      </c>
-      <c r="K68">
-        <v>0</v>
-      </c>
-      <c r="L68">
-        <v>0.4</v>
-      </c>
       <c r="M68">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="N68">
-        <v>0.4595238095238096</v>
+        <v>0.4521428571428572</v>
       </c>
       <c r="O68">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P68" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="Q68" t="s">
         <v>392</v>
       </c>
       <c r="R68" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="S68" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="69" spans="1:19">
@@ -5621,19 +5621,19 @@
         <v>269</v>
       </c>
       <c r="E69">
-        <v>0.3809523809523809</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="F69">
-        <v>0.7777777777777778</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="G69">
-        <v>0.5714285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H69">
-        <v>0.4</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="I69">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="J69">
         <v>0.5</v>
@@ -5642,25 +5642,25 @@
         <v>0</v>
       </c>
       <c r="L69">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="M69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N69">
-        <v>0.4545238095238095</v>
+        <v>0.4511904761904762</v>
       </c>
       <c r="O69">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P69" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="Q69" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="R69" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="S69" t="s">
         <v>403</v>
@@ -5680,46 +5680,46 @@
         <v>270</v>
       </c>
       <c r="E70">
-        <v>0.2857142857142857</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="F70">
-        <v>0.3888888888888889</v>
+        <v>0.5</v>
       </c>
       <c r="G70">
-        <v>0.8571428571428571</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="H70">
-        <v>0.3</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="I70">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="J70">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="K70">
         <v>0</v>
       </c>
       <c r="L70">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="M70">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="N70">
-        <v>0.4522619047619048</v>
+        <v>0.4498809523809524</v>
       </c>
       <c r="O70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P70" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q70" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="R70" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="S70" t="s">
         <v>402</v>
@@ -5739,19 +5739,19 @@
         <v>271</v>
       </c>
       <c r="E71">
-        <v>0.3809523809523809</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="F71">
-        <v>0.5555555555555556</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="G71">
-        <v>0.4285714285714285</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H71">
-        <v>0.7</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="I71">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="J71">
         <v>0.5</v>
@@ -5760,28 +5760,28 @@
         <v>0</v>
       </c>
       <c r="L71">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="M71">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="N71">
-        <v>0.4522619047619048</v>
+        <v>0.4482142857142858</v>
       </c>
       <c r="O71">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P71" t="s">
         <v>389</v>
       </c>
       <c r="Q71" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="R71" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="S71" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="72" spans="1:19">
@@ -5798,19 +5798,19 @@
         <v>272</v>
       </c>
       <c r="E72">
-        <v>0.5714285714285714</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="F72">
-        <v>0.4444444444444444</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="G72">
-        <v>0.7142857142857143</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="H72">
-        <v>0.4</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I72">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="J72">
         <v>0.5</v>
@@ -5822,25 +5822,25 @@
         <v>0.2</v>
       </c>
       <c r="M72">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="N72">
-        <v>0.4445238095238095</v>
+        <v>0.4472619047619047</v>
       </c>
       <c r="O72">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P72" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="Q72" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="R72" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="S72" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="73" spans="1:19">
@@ -5857,49 +5857,49 @@
         <v>273</v>
       </c>
       <c r="E73">
-        <v>0.4761904761904762</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="F73">
-        <v>0.5</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="G73">
-        <v>0.4285714285714285</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H73">
-        <v>0.7</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="I73">
+        <v>0.8</v>
+      </c>
+      <c r="J73">
+        <v>0.25</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
         <v>0.4</v>
-      </c>
-      <c r="J73">
-        <v>0.5</v>
-      </c>
-      <c r="K73">
-        <v>0</v>
-      </c>
-      <c r="L73">
-        <v>0.2</v>
       </c>
       <c r="M73">
         <v>0.75</v>
       </c>
       <c r="N73">
-        <v>0.4382142857142857</v>
+        <v>0.445</v>
       </c>
       <c r="O73">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P73" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="Q73" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="R73" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="S73" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="74" spans="1:19">
@@ -5919,13 +5919,13 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="F74">
-        <v>0.2777777777777778</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="G74">
-        <v>0.7142857142857143</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H74">
-        <v>0.5</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="I74">
         <v>0.8</v>
@@ -5937,28 +5937,28 @@
         <v>0</v>
       </c>
       <c r="L74">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="M74">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="N74">
-        <v>0.4366666666666666</v>
+        <v>0.4405952380952382</v>
       </c>
       <c r="O74">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P74" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="Q74" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="R74" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="S74" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="75" spans="1:19">
@@ -5984,7 +5984,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H75">
-        <v>0.5</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="I75">
         <v>0.2</v>
@@ -6002,7 +6002,7 @@
         <v>0.75</v>
       </c>
       <c r="N75">
-        <v>0.4304761904761905</v>
+        <v>0.4388095238095238</v>
       </c>
       <c r="O75">
         <v>2</v>
@@ -6034,49 +6034,49 @@
         <v>276</v>
       </c>
       <c r="E76">
-        <v>0.3809523809523809</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F76">
-        <v>0.5</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="G76">
         <v>0.4285714285714285</v>
       </c>
       <c r="H76">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="I76">
+        <v>0.8</v>
+      </c>
+      <c r="J76">
+        <v>0.25</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
         <v>0.6</v>
       </c>
-      <c r="I76">
-        <v>0.4</v>
-      </c>
-      <c r="J76">
-        <v>0.5</v>
-      </c>
-      <c r="K76">
-        <v>0</v>
-      </c>
-      <c r="L76">
-        <v>0.4</v>
-      </c>
       <c r="M76">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="N76">
-        <v>0.4289285714285714</v>
+        <v>0.4292857142857143</v>
       </c>
       <c r="O76">
         <v>3</v>
       </c>
       <c r="P76" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q76" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="R76" t="s">
         <v>397</v>
       </c>
       <c r="S76" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="77" spans="1:19">
@@ -6093,46 +6093,46 @@
         <v>277</v>
       </c>
       <c r="E77">
-        <v>0.4285714285714285</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="F77">
-        <v>0.1111111111111111</v>
+        <v>0.5</v>
       </c>
       <c r="G77">
-        <v>0.2857142857142857</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H77">
-        <v>0.8</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="I77">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="J77">
+        <v>0.25</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0.2</v>
+      </c>
+      <c r="M77">
         <v>0.5</v>
       </c>
-      <c r="K77">
-        <v>0</v>
-      </c>
-      <c r="L77">
-        <v>0.4</v>
-      </c>
-      <c r="M77">
-        <v>0.75</v>
-      </c>
       <c r="N77">
-        <v>0.4263095238095238</v>
+        <v>0.423452380952381</v>
       </c>
       <c r="O77">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P77" t="s">
         <v>389</v>
       </c>
       <c r="Q77" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="R77" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="S77" t="s">
         <v>403</v>
@@ -6152,43 +6152,43 @@
         <v>278</v>
       </c>
       <c r="E78">
-        <v>0.1904761904761905</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="F78">
-        <v>0.7222222222222222</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="G78">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H78">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="I78">
+        <v>0.8</v>
+      </c>
+      <c r="J78">
         <v>0.5</v>
       </c>
-      <c r="I78">
-        <v>0.2</v>
-      </c>
-      <c r="J78">
-        <v>1</v>
-      </c>
       <c r="K78">
         <v>0</v>
       </c>
       <c r="L78">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="M78">
         <v>0.75</v>
       </c>
       <c r="N78">
-        <v>0.4251190476190476</v>
+        <v>0.4229761904761905</v>
       </c>
       <c r="O78">
         <v>5</v>
       </c>
       <c r="P78" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="Q78" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="R78" t="s">
         <v>398</v>
@@ -6211,49 +6211,49 @@
         <v>279</v>
       </c>
       <c r="E79">
-        <v>0.3333333333333333</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="F79">
+        <v>0.2777777777777778</v>
+      </c>
+      <c r="G79">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="H79">
         <v>0.5555555555555556</v>
-      </c>
-      <c r="G79">
-        <v>0.4285714285714285</v>
-      </c>
-      <c r="H79">
-        <v>0.4</v>
       </c>
       <c r="I79">
         <v>0.8</v>
       </c>
       <c r="J79">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="K79">
         <v>0</v>
       </c>
       <c r="L79">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="M79">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="N79">
-        <v>0.4226190476190477</v>
+        <v>0.4228571428571428</v>
       </c>
       <c r="O79">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P79" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="Q79" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="R79" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="S79" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="80" spans="1:19">
@@ -6270,49 +6270,49 @@
         <v>280</v>
       </c>
       <c r="E80">
-        <v>0.1428571428571428</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="F80">
-        <v>0.7777777777777778</v>
+        <v>0.5</v>
       </c>
       <c r="G80">
-        <v>0.7142857142857143</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="H80">
-        <v>0.6</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="I80">
         <v>0.4</v>
       </c>
       <c r="J80">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K80">
         <v>0</v>
       </c>
       <c r="L80">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="M80">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="N80">
-        <v>0.4202380952380953</v>
+        <v>0.4222619047619047</v>
       </c>
       <c r="O80">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P80" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="Q80" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="R80" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="S80" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="81" spans="1:19">
@@ -6329,49 +6329,49 @@
         <v>281</v>
       </c>
       <c r="E81">
-        <v>0.5714285714285714</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="F81">
-        <v>0.5555555555555556</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="G81">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H81">
-        <v>0.4</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I81">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="J81">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K81">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="L81">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="M81">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="N81">
-        <v>0.4197619047619048</v>
+        <v>0.4171428571428571</v>
       </c>
       <c r="O81">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P81" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="Q81" t="s">
         <v>393</v>
       </c>
       <c r="R81" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="S81" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="82" spans="1:19">
@@ -6388,22 +6388,22 @@
         <v>282</v>
       </c>
       <c r="E82">
-        <v>0.3809523809523809</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="F82">
-        <v>0.5</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="G82">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H82">
-        <v>0.4</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="I82">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="J82">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="K82">
         <v>0</v>
@@ -6412,22 +6412,22 @@
         <v>0.2</v>
       </c>
       <c r="M82">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="N82">
         <v>0.4167857142857143</v>
       </c>
       <c r="O82">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P82" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="Q82" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="R82" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="S82" t="s">
         <v>403</v>
@@ -6447,49 +6447,49 @@
         <v>283</v>
       </c>
       <c r="E83">
-        <v>0.3809523809523809</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="F83">
-        <v>0.2777777777777778</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="G83">
-        <v>0.5714285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H83">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="I83">
+        <v>0.4</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>0.2</v>
+      </c>
+      <c r="M83">
         <v>0.5</v>
       </c>
-      <c r="I83">
-        <v>0.8</v>
-      </c>
-      <c r="J83">
-        <v>0.75</v>
-      </c>
-      <c r="K83">
-        <v>0</v>
-      </c>
-      <c r="L83">
-        <v>0</v>
-      </c>
-      <c r="M83">
-        <v>0.75</v>
-      </c>
       <c r="N83">
-        <v>0.4145238095238095</v>
+        <v>0.4135714285714286</v>
       </c>
       <c r="O83">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P83" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Q83" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="R83" t="s">
         <v>400</v>
       </c>
       <c r="S83" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="84" spans="1:19">
@@ -6506,43 +6506,43 @@
         <v>284</v>
       </c>
       <c r="E84">
-        <v>0.1904761904761905</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="F84">
-        <v>0.6666666666666666</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="G84">
-        <v>0.2857142857142857</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H84">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="I84">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="J84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K84">
         <v>0.2</v>
       </c>
       <c r="L84">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="M84">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="N84">
-        <v>0.4139285714285714</v>
+        <v>0.4097619047619048</v>
       </c>
       <c r="O84">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P84" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="Q84" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="R84" t="s">
         <v>398</v>
@@ -6565,49 +6565,49 @@
         <v>285</v>
       </c>
       <c r="E85">
-        <v>0.4285714285714285</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="F85">
-        <v>0.1666666666666667</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G85">
         <v>0.2857142857142857</v>
       </c>
       <c r="H85">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="I85">
         <v>0.6</v>
       </c>
-      <c r="I85">
+      <c r="J85">
         <v>1</v>
       </c>
-      <c r="J85">
-        <v>0.5</v>
-      </c>
       <c r="K85">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="L85">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="M85">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="N85">
-        <v>0.4071428571428571</v>
+        <v>0.4055952380952381</v>
       </c>
       <c r="O85">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P85" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="Q85" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="R85" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="S85" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="86" spans="1:19">
@@ -6633,7 +6633,7 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="H86">
-        <v>0.6</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="I86">
         <v>0.6</v>
@@ -6651,7 +6651,7 @@
         <v>0.75</v>
       </c>
       <c r="N86">
-        <v>0.4042857142857142</v>
+        <v>0.3976190476190476</v>
       </c>
       <c r="O86">
         <v>5</v>
@@ -6683,49 +6683,49 @@
         <v>287</v>
       </c>
       <c r="E87">
+        <v>0.4761904761904762</v>
+      </c>
+      <c r="F87">
         <v>0.3333333333333333</v>
       </c>
-      <c r="F87">
-        <v>0.9444444444444444</v>
-      </c>
       <c r="G87">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H87">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="I87">
+        <v>0.6</v>
+      </c>
+      <c r="J87">
+        <v>1</v>
+      </c>
+      <c r="K87">
         <v>0.2</v>
       </c>
-      <c r="I87">
+      <c r="L87">
         <v>0.2</v>
-      </c>
-      <c r="J87">
-        <v>0.5</v>
-      </c>
-      <c r="K87">
-        <v>0</v>
-      </c>
-      <c r="L87">
-        <v>0.6</v>
       </c>
       <c r="M87">
         <v>0.25</v>
       </c>
       <c r="N87">
-        <v>0.403452380952381</v>
+        <v>0.3934523809523809</v>
       </c>
       <c r="O87">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P87" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q87" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="R87" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="S87" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="88" spans="1:19">
@@ -6742,43 +6742,43 @@
         <v>288</v>
       </c>
       <c r="E88">
-        <v>0.4761904761904762</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="F88">
-        <v>0.3333333333333333</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="G88">
-        <v>0.2857142857142857</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H88">
-        <v>0.5</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="I88">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="J88">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="K88">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="L88">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="M88">
         <v>0.25</v>
       </c>
       <c r="N88">
-        <v>0.4017857142857143</v>
+        <v>0.3923809523809524</v>
       </c>
       <c r="O88">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P88" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="Q88" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="R88" t="s">
         <v>398</v>
@@ -6801,49 +6801,49 @@
         <v>289</v>
       </c>
       <c r="E89">
-        <v>0.4761904761904762</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F89">
-        <v>0</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="G89">
-        <v>0.5714285714285714</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="H89">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="I89">
+        <v>0.2</v>
+      </c>
+      <c r="J89">
         <v>0.5</v>
       </c>
-      <c r="I89">
-        <v>1</v>
-      </c>
-      <c r="J89">
-        <v>0</v>
-      </c>
       <c r="K89">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="L89">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="M89">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="N89">
-        <v>0.3971428571428572</v>
+        <v>0.3901190476190476</v>
       </c>
       <c r="O89">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P89" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="Q89" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="R89" t="s">
         <v>397</v>
       </c>
       <c r="S89" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="90" spans="1:19">
@@ -6860,49 +6860,49 @@
         <v>290</v>
       </c>
       <c r="E90">
-        <v>0.2380952380952381</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="F90">
-        <v>0.1111111111111111</v>
+        <v>0</v>
       </c>
       <c r="G90">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H90">
-        <v>0.8</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="I90">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="J90">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="K90">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="L90">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="M90">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="N90">
-        <v>0.3866666666666667</v>
+        <v>0.3888095238095238</v>
       </c>
       <c r="O90">
         <v>3</v>
       </c>
       <c r="P90" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="Q90" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="R90" t="s">
         <v>397</v>
       </c>
       <c r="S90" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="91" spans="1:19">
@@ -6919,37 +6919,37 @@
         <v>291</v>
       </c>
       <c r="E91">
-        <v>0.3809523809523809</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="F91">
-        <v>0.3888888888888889</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="G91">
-        <v>0.8571428571428571</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="H91">
-        <v>0.5</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="I91">
+        <v>0.6</v>
+      </c>
+      <c r="J91">
+        <v>0.75</v>
+      </c>
+      <c r="K91">
+        <v>0</v>
+      </c>
+      <c r="L91">
         <v>0.4</v>
-      </c>
-      <c r="J91">
-        <v>0.25</v>
-      </c>
-      <c r="K91">
-        <v>0</v>
-      </c>
-      <c r="L91">
-        <v>0</v>
       </c>
       <c r="M91">
         <v>0.25</v>
       </c>
       <c r="N91">
-        <v>0.3840476190476191</v>
+        <v>0.3833333333333334</v>
       </c>
       <c r="O91">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P91" t="s">
         <v>383</v>
@@ -6958,10 +6958,10 @@
         <v>394</v>
       </c>
       <c r="R91" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="S91" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="92" spans="1:19">
@@ -6978,40 +6978,40 @@
         <v>292</v>
       </c>
       <c r="E92">
-        <v>0.2857142857142857</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="F92">
-        <v>0.3888888888888889</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G92">
         <v>0.2857142857142857</v>
       </c>
       <c r="H92">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="I92">
+        <v>0.6</v>
+      </c>
+      <c r="J92">
         <v>0.5</v>
       </c>
-      <c r="I92">
-        <v>0.4</v>
-      </c>
-      <c r="J92">
-        <v>0</v>
-      </c>
       <c r="K92">
         <v>0</v>
       </c>
       <c r="L92">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="M92">
         <v>0.75</v>
       </c>
       <c r="N92">
-        <v>0.3765476190476191</v>
+        <v>0.3701190476190476</v>
       </c>
       <c r="O92">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P92" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="Q92" t="s">
         <v>394</v>
@@ -7020,7 +7020,7 @@
         <v>400</v>
       </c>
       <c r="S92" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="93" spans="1:19">
@@ -7037,49 +7037,49 @@
         <v>293</v>
       </c>
       <c r="E93">
-        <v>0.5238095238095238</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="F93">
-        <v>0.5</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="G93">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H93">
-        <v>0.4</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="I93">
         <v>0.4</v>
       </c>
       <c r="J93">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="K93">
         <v>0</v>
       </c>
       <c r="L93">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="M93">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="N93">
-        <v>0.3753571428571429</v>
+        <v>0.3682142857142857</v>
       </c>
       <c r="O93">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P93" t="s">
         <v>389</v>
       </c>
       <c r="Q93" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="R93" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="S93" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="94" spans="1:19">
@@ -7096,49 +7096,49 @@
         <v>294</v>
       </c>
       <c r="E94">
-        <v>0.8095238095238095</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="F94">
-        <v>0.05555555555555555</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="G94">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H94">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>0</v>
+      </c>
+      <c r="L94">
         <v>0.4</v>
       </c>
-      <c r="I94">
-        <v>0.2</v>
-      </c>
-      <c r="J94">
-        <v>0.25</v>
-      </c>
-      <c r="K94">
-        <v>0</v>
-      </c>
-      <c r="L94">
-        <v>0.2</v>
-      </c>
       <c r="M94">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="N94">
-        <v>0.3708333333333333</v>
+        <v>0.3655952380952381</v>
       </c>
       <c r="O94">
         <v>4</v>
       </c>
       <c r="P94" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="Q94" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="R94" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="S94" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="95" spans="1:19">
@@ -7155,49 +7155,49 @@
         <v>295</v>
       </c>
       <c r="E95">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="F95">
+        <v>0.5</v>
+      </c>
+      <c r="G95">
         <v>0.4285714285714285</v>
       </c>
-      <c r="F95">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="G95">
-        <v>0.7142857142857143</v>
-      </c>
       <c r="H95">
-        <v>0.7</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="I95">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="J95">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="K95">
         <v>0</v>
       </c>
       <c r="L95">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="M95">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="N95">
-        <v>0.3705952380952381</v>
+        <v>0.3653571428571429</v>
       </c>
       <c r="O95">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P95" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="Q95" t="s">
         <v>391</v>
       </c>
       <c r="R95" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="S95" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="96" spans="1:19">
@@ -7214,49 +7214,49 @@
         <v>296</v>
       </c>
       <c r="E96">
-        <v>0.4761904761904762</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="F96">
+        <v>0.05555555555555555</v>
+      </c>
+      <c r="G96">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="H96">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G96">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="H96">
-        <v>0.5</v>
-      </c>
       <c r="I96">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="J96">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="K96">
         <v>0</v>
       </c>
       <c r="L96">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="M96">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="N96">
-        <v>0.3617857142857143</v>
+        <v>0.3608333333333333</v>
       </c>
       <c r="O96">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P96" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="Q96" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="R96" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="S96" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="97" spans="1:19">
@@ -7282,7 +7282,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="H97">
-        <v>0.4</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="I97">
         <v>0.4</v>
@@ -7300,7 +7300,7 @@
         <v>0.75</v>
       </c>
       <c r="N97">
-        <v>0.3515476190476191</v>
+        <v>0.3415476190476191</v>
       </c>
       <c r="O97">
         <v>4</v>
@@ -7341,7 +7341,7 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="H98">
-        <v>0.4</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="I98">
         <v>0.2</v>
@@ -7359,7 +7359,7 @@
         <v>0</v>
       </c>
       <c r="N98">
-        <v>0.3476190476190477</v>
+        <v>0.3376190476190477</v>
       </c>
       <c r="O98">
         <v>2</v>
@@ -7400,7 +7400,7 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="H99">
-        <v>0.2</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="I99">
         <v>0.6</v>
@@ -7418,7 +7418,7 @@
         <v>0.5</v>
       </c>
       <c r="N99">
-        <v>0.3475</v>
+        <v>0.3341666666666667</v>
       </c>
       <c r="O99">
         <v>4</v>
@@ -7450,49 +7450,49 @@
         <v>300</v>
       </c>
       <c r="E100">
-        <v>0.4285714285714285</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="F100">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G100">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="H100">
-        <v>0.6</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="I100">
         <v>0.6</v>
       </c>
       <c r="J100">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="K100">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="L100">
         <v>0</v>
       </c>
       <c r="M100">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="N100">
-        <v>0.3321428571428571</v>
+        <v>0.3285714285714286</v>
       </c>
       <c r="O100">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P100" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="Q100" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="R100" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="S100" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="101" spans="1:19">
@@ -7509,43 +7509,43 @@
         <v>301</v>
       </c>
       <c r="E101">
-        <v>0.3809523809523809</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F101">
-        <v>0.3333333333333333</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="G101">
-        <v>0.1428571428571428</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="H101">
-        <v>0.3</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="I101">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="J101">
         <v>0.75</v>
       </c>
       <c r="K101">
+        <v>0.2</v>
+      </c>
+      <c r="L101">
         <v>0.4</v>
-      </c>
-      <c r="L101">
-        <v>0</v>
       </c>
       <c r="M101">
         <v>0.25</v>
       </c>
       <c r="N101">
-        <v>0.3235714285714286</v>
+        <v>0.3276190476190476</v>
       </c>
       <c r="O101">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P101" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="Q101" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="R101" t="s">
         <v>398</v>
@@ -7568,49 +7568,49 @@
         <v>302</v>
       </c>
       <c r="E102">
-        <v>0.3333333333333333</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="F102">
-        <v>0.1111111111111111</v>
+        <v>0.5</v>
       </c>
       <c r="G102">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H102">
-        <v>0.4</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="I102">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="J102">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="K102">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="L102">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="M102">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="N102">
-        <v>0.3209523809523809</v>
+        <v>0.3254761904761905</v>
       </c>
       <c r="O102">
         <v>1</v>
       </c>
       <c r="P102" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="Q102" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="R102" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="S102" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="103" spans="1:19">
@@ -7633,10 +7633,10 @@
         <v>0.2777777777777778</v>
       </c>
       <c r="G103">
-        <v>0.5714285714285714</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H103">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="I103">
         <v>0.2</v>
@@ -7645,28 +7645,28 @@
         <v>0</v>
       </c>
       <c r="K103">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="L103">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="M103">
         <v>0.25</v>
       </c>
       <c r="N103">
-        <v>0.3177380952380952</v>
+        <v>0.3155952380952381</v>
       </c>
       <c r="O103">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P103" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q103" t="s">
         <v>394</v>
       </c>
       <c r="R103" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="S103" t="s">
         <v>403</v>
@@ -7686,40 +7686,40 @@
         <v>304</v>
       </c>
       <c r="E104">
-        <v>0.2857142857142857</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="F104">
-        <v>0.2777777777777778</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="G104">
-        <v>0.8571428571428571</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="H104">
-        <v>0.3</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="I104">
+        <v>0.4</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
         <v>0.2</v>
       </c>
-      <c r="J104">
-        <v>0</v>
-      </c>
-      <c r="K104">
-        <v>0.2</v>
-      </c>
-      <c r="L104">
-        <v>0</v>
-      </c>
       <c r="M104">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="N104">
-        <v>0.3105952380952381</v>
+        <v>0.3141666666666667</v>
       </c>
       <c r="O104">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P104" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q104" t="s">
         <v>394</v>
@@ -7728,7 +7728,7 @@
         <v>400</v>
       </c>
       <c r="S104" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="105" spans="1:19">
@@ -7745,49 +7745,49 @@
         <v>305</v>
       </c>
       <c r="E105">
-        <v>0.5238095238095238</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="F105">
+        <v>0.2777777777777778</v>
+      </c>
+      <c r="G105">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="H105">
         <v>0.4444444444444444</v>
       </c>
-      <c r="G105">
-        <v>0.1428571428571428</v>
-      </c>
-      <c r="H105">
-        <v>0.3</v>
-      </c>
       <c r="I105">
+        <v>0.2</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="K105">
+        <v>0</v>
+      </c>
+      <c r="L105">
         <v>0.4</v>
       </c>
-      <c r="J105">
-        <v>0</v>
-      </c>
-      <c r="K105">
-        <v>0</v>
-      </c>
-      <c r="L105">
-        <v>0.2</v>
-      </c>
       <c r="M105">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="N105">
-        <v>0.3091666666666667</v>
+        <v>0.3094047619047619</v>
       </c>
       <c r="O105">
         <v>5</v>
       </c>
       <c r="P105" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="Q105" t="s">
         <v>394</v>
       </c>
       <c r="R105" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="S105" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="106" spans="1:19">
@@ -7813,7 +7813,7 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="H106">
-        <v>0.4</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="I106">
         <v>0.2</v>
@@ -7831,7 +7831,7 @@
         <v>0</v>
       </c>
       <c r="N106">
-        <v>0.2997619047619048</v>
+        <v>0.3064285714285715</v>
       </c>
       <c r="O106">
         <v>4</v>
@@ -7872,7 +7872,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H107">
-        <v>0.3</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="I107">
         <v>0.2</v>
@@ -7890,7 +7890,7 @@
         <v>0</v>
       </c>
       <c r="N107">
-        <v>0.2980952380952381</v>
+        <v>0.3030952380952381</v>
       </c>
       <c r="O107">
         <v>1</v>
@@ -7922,7 +7922,7 @@
         <v>308</v>
       </c>
       <c r="E108">
-        <v>0.4761904761904762</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="F108">
         <v>0.1111111111111111</v>
@@ -7931,28 +7931,28 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="H108">
-        <v>0.3</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="I108">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="J108">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="K108">
         <v>0</v>
       </c>
       <c r="L108">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="M108">
         <v>0</v>
       </c>
       <c r="N108">
-        <v>0.2948809523809524</v>
+        <v>0.3014285714285714</v>
       </c>
       <c r="O108">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P108" t="s">
         <v>383</v>
@@ -7961,7 +7961,7 @@
         <v>392</v>
       </c>
       <c r="R108" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="S108" t="s">
         <v>403</v>
@@ -7981,7 +7981,7 @@
         <v>309</v>
       </c>
       <c r="E109">
-        <v>0.3809523809523809</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="F109">
         <v>0.1111111111111111</v>
@@ -7990,28 +7990,28 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="H109">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="I109">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="J109">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="K109">
         <v>0</v>
       </c>
       <c r="L109">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="M109">
         <v>0</v>
       </c>
       <c r="N109">
-        <v>0.2930952380952381</v>
+        <v>0.2998809523809524</v>
       </c>
       <c r="O109">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P109" t="s">
         <v>383</v>
@@ -8020,7 +8020,7 @@
         <v>392</v>
       </c>
       <c r="R109" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="S109" t="s">
         <v>403</v>
@@ -8049,7 +8049,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="H110">
-        <v>0.3</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="I110">
         <v>0.6</v>
@@ -8067,7 +8067,7 @@
         <v>0.75</v>
       </c>
       <c r="N110">
-        <v>0.2925</v>
+        <v>0.2975</v>
       </c>
       <c r="O110">
         <v>2</v>
@@ -8099,19 +8099,19 @@
         <v>311</v>
       </c>
       <c r="E111">
-        <v>0.4285714285714285</v>
+        <v>0</v>
       </c>
       <c r="F111">
-        <v>0.1666666666666667</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="G111">
-        <v>0.2857142857142857</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H111">
-        <v>0.3</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="I111">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="J111">
         <v>0.25</v>
@@ -8120,16 +8120,16 @@
         <v>0</v>
       </c>
       <c r="L111">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="M111">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="N111">
-        <v>0.2821428571428571</v>
+        <v>0.276547619047619</v>
       </c>
       <c r="O111">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P111" t="s">
         <v>385</v>
@@ -8138,7 +8138,7 @@
         <v>394</v>
       </c>
       <c r="R111" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="S111" t="s">
         <v>403</v>
@@ -8158,19 +8158,19 @@
         <v>312</v>
       </c>
       <c r="E112">
-        <v>0</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="F112">
-        <v>0.6111111111111112</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="G112">
-        <v>0.5714285714285714</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="H112">
-        <v>0.1</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="I112">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="J112">
         <v>0.25</v>
@@ -8179,28 +8179,28 @@
         <v>0</v>
       </c>
       <c r="L112">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="M112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N112">
-        <v>0.2748809523809524</v>
+        <v>0.2758333333333334</v>
       </c>
       <c r="O112">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P112" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="Q112" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="R112" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="S112" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="113" spans="1:19">
@@ -8217,19 +8217,19 @@
         <v>313</v>
       </c>
       <c r="E113">
-        <v>0.2380952380952381</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="F113">
-        <v>0.1111111111111111</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="G113">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H113">
-        <v>0.4</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="I113">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="J113">
         <v>0.25</v>
@@ -8238,28 +8238,28 @@
         <v>0</v>
       </c>
       <c r="L113">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="M113">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="N113">
-        <v>0.2691666666666667</v>
+        <v>0.2704761904761905</v>
       </c>
       <c r="O113">
         <v>3</v>
       </c>
       <c r="P113" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="Q113" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="R113" t="s">
         <v>400</v>
       </c>
       <c r="S113" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="114" spans="1:19">
@@ -8285,7 +8285,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="H114">
-        <v>0.5</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="I114">
         <v>0.6</v>
@@ -8303,7 +8303,7 @@
         <v>0</v>
       </c>
       <c r="N114">
-        <v>0.2502380952380952</v>
+        <v>0.2585714285714286</v>
       </c>
       <c r="O114">
         <v>1</v>
@@ -8344,7 +8344,7 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="H115">
-        <v>0.2</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="I115">
         <v>0.2</v>
@@ -8362,7 +8362,7 @@
         <v>0</v>
       </c>
       <c r="N115">
-        <v>0.2461904761904762</v>
+        <v>0.2495238095238095</v>
       </c>
       <c r="O115">
         <v>1</v>
@@ -8394,22 +8394,22 @@
         <v>316</v>
       </c>
       <c r="E116">
+        <v>0.3809523809523809</v>
+      </c>
+      <c r="F116">
+        <v>0.05555555555555555</v>
+      </c>
+      <c r="G116">
         <v>0.2857142857142857</v>
       </c>
-      <c r="F116">
-        <v>0.2777777777777778</v>
-      </c>
-      <c r="G116">
-        <v>0.1428571428571428</v>
-      </c>
       <c r="H116">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="I116">
         <v>0.2</v>
       </c>
       <c r="J116">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="K116">
         <v>0</v>
@@ -8418,25 +8418,25 @@
         <v>0.2</v>
       </c>
       <c r="M116">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="N116">
-        <v>0.245952380952381</v>
+        <v>0.2483333333333333</v>
       </c>
       <c r="O116">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P116" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="Q116" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="R116" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="S116" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="117" spans="1:19">
@@ -8453,49 +8453,49 @@
         <v>317</v>
       </c>
       <c r="E117">
-        <v>0.3809523809523809</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="F117">
         <v>0.05555555555555555</v>
       </c>
       <c r="G117">
-        <v>0.2857142857142857</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="H117">
-        <v>0.3</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="I117">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="J117">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="K117">
         <v>0</v>
       </c>
       <c r="L117">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="M117">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="N117">
-        <v>0.2433333333333333</v>
+        <v>0.246547619047619</v>
       </c>
       <c r="O117">
         <v>1</v>
       </c>
       <c r="P117" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="Q117" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="R117" t="s">
         <v>398</v>
       </c>
       <c r="S117" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="118" spans="1:19">
@@ -8512,22 +8512,22 @@
         <v>318</v>
       </c>
       <c r="E118">
-        <v>0.4761904761904762</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="F118">
-        <v>0.05555555555555555</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="G118">
-        <v>0.4285714285714285</v>
+        <v>0</v>
       </c>
       <c r="H118">
-        <v>0.3</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="I118">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="J118">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="K118">
         <v>0</v>
@@ -8539,22 +8539,22 @@
         <v>0</v>
       </c>
       <c r="N118">
-        <v>0.241547619047619</v>
+        <v>0.2442857142857143</v>
       </c>
       <c r="O118">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P118" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="Q118" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="R118" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="S118" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="119" spans="1:19">
@@ -8571,16 +8571,16 @@
         <v>319</v>
       </c>
       <c r="E119">
-        <v>0.3809523809523809</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="F119">
-        <v>0.1666666666666667</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="G119">
-        <v>0.4285714285714285</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="H119">
-        <v>0.5</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="I119">
         <v>0.2</v>
@@ -8589,22 +8589,22 @@
         <v>0</v>
       </c>
       <c r="K119">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="L119">
         <v>0</v>
       </c>
       <c r="M119">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="N119">
-        <v>0.2414285714285714</v>
+        <v>0.2429761904761905</v>
       </c>
       <c r="O119">
         <v>5</v>
       </c>
       <c r="P119" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q119" t="s">
         <v>392</v>
@@ -8613,7 +8613,7 @@
         <v>397</v>
       </c>
       <c r="S119" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="120" spans="1:19">
@@ -8630,49 +8630,49 @@
         <v>320</v>
       </c>
       <c r="E120">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="F120">
-        <v>0.2222222222222222</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="G120">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="H120">
-        <v>0.4</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="I120">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="J120">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="K120">
         <v>0</v>
       </c>
       <c r="L120">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="M120">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="N120">
-        <v>0.2376190476190476</v>
+        <v>0.2376190476190477</v>
       </c>
       <c r="O120">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P120" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="Q120" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="R120" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="S120" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="121" spans="1:19">
@@ -8689,16 +8689,16 @@
         <v>321</v>
       </c>
       <c r="E121">
-        <v>0.2380952380952381</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="F121">
-        <v>0.2777777777777778</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="G121">
-        <v>0.1428571428571428</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="H121">
-        <v>0.4</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="I121">
         <v>0.2</v>
@@ -8707,22 +8707,22 @@
         <v>0</v>
       </c>
       <c r="K121">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="L121">
         <v>0</v>
       </c>
       <c r="M121">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="N121">
-        <v>0.2363095238095238</v>
+        <v>0.2330952380952381</v>
       </c>
       <c r="O121">
         <v>5</v>
       </c>
       <c r="P121" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="Q121" t="s">
         <v>392</v>
@@ -8731,7 +8731,7 @@
         <v>397</v>
       </c>
       <c r="S121" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="122" spans="1:19">
@@ -8748,20 +8748,20 @@
         <v>322</v>
       </c>
       <c r="E122">
-        <v>0.3333333333333333</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="F122">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="G122">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="H122">
         <v>0.1111111111111111</v>
       </c>
-      <c r="G122">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="H122">
+      <c r="I122">
         <v>0.2</v>
       </c>
-      <c r="I122">
-        <v>0</v>
-      </c>
       <c r="J122">
         <v>0</v>
       </c>
@@ -8769,28 +8769,28 @@
         <v>0</v>
       </c>
       <c r="L122">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="M122">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="N122">
-        <v>0.2252380952380952</v>
+        <v>0.2227380952380952</v>
       </c>
       <c r="O122">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P122" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Q122" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="R122" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="S122" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="123" spans="1:19">
@@ -8807,49 +8807,49 @@
         <v>323</v>
       </c>
       <c r="E123">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="F123">
+        <v>0.05555555555555555</v>
+      </c>
+      <c r="G123">
         <v>0.2857142857142857</v>
       </c>
-      <c r="F123">
-        <v>0.1666666666666667</v>
-      </c>
-      <c r="G123">
-        <v>0.5714285714285714</v>
-      </c>
       <c r="H123">
-        <v>0.1</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="I123">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="J123">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="K123">
         <v>0</v>
       </c>
       <c r="L123">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="M123">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="N123">
-        <v>0.2210714285714286</v>
+        <v>0.2203571428571429</v>
       </c>
       <c r="O123">
         <v>4</v>
       </c>
       <c r="P123" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="Q123" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="R123" t="s">
         <v>397</v>
       </c>
       <c r="S123" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="124" spans="1:19">
@@ -8875,7 +8875,7 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="H124">
-        <v>0.3</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="I124">
         <v>0.2</v>
@@ -8893,7 +8893,7 @@
         <v>0.25</v>
       </c>
       <c r="N124">
-        <v>0.2153571428571429</v>
+        <v>0.2203571428571429</v>
       </c>
       <c r="O124">
         <v>4</v>
@@ -8925,49 +8925,49 @@
         <v>325</v>
       </c>
       <c r="E125">
-        <v>0.3333333333333333</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="F125">
-        <v>0.05555555555555555</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="G125">
         <v>0.2857142857142857</v>
       </c>
       <c r="H125">
-        <v>0.4</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="I125">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="J125">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="K125">
         <v>0</v>
       </c>
       <c r="L125">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="M125">
         <v>0</v>
       </c>
       <c r="N125">
-        <v>0.2136904761904762</v>
+        <v>0.2185714285714286</v>
       </c>
       <c r="O125">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P125" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="Q125" t="s">
         <v>392</v>
       </c>
       <c r="R125" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="S125" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="126" spans="1:19">
@@ -8984,19 +8984,19 @@
         <v>326</v>
       </c>
       <c r="E126">
-        <v>0.2857142857142857</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F126">
-        <v>0.5555555555555556</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="G126">
-        <v>0.1428571428571428</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H126">
-        <v>0.3</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="I126">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="J126">
         <v>0</v>
@@ -9011,22 +9011,22 @@
         <v>0</v>
       </c>
       <c r="N126">
-        <v>0.2126190476190477</v>
+        <v>0.2119047619047619</v>
       </c>
       <c r="O126">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P126" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="Q126" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="R126" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="S126" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="127" spans="1:19">
@@ -9046,46 +9046,46 @@
         <v>0.2380952380952381</v>
       </c>
       <c r="F127">
-        <v>0.2222222222222222</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="G127">
         <v>0.2857142857142857</v>
       </c>
       <c r="H127">
-        <v>0.4</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="I127">
         <v>0.2</v>
       </c>
       <c r="J127">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="K127">
         <v>0</v>
       </c>
       <c r="L127">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="M127">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="N127">
-        <v>0.2119047619047619</v>
+        <v>0.2069047619047619</v>
       </c>
       <c r="O127">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P127" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="Q127" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="R127" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="S127" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="128" spans="1:19">
@@ -9105,43 +9105,43 @@
         <v>0.2380952380952381</v>
       </c>
       <c r="F128">
-        <v>0.1666666666666667</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="G128">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="H128">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="I128">
+        <v>0.4</v>
+      </c>
+      <c r="J128">
+        <v>0.5</v>
+      </c>
+      <c r="K128">
         <v>0.2</v>
       </c>
-      <c r="I128">
-        <v>0.2</v>
-      </c>
-      <c r="J128">
+      <c r="L128">
+        <v>0</v>
+      </c>
+      <c r="M128">
         <v>0.75</v>
       </c>
-      <c r="K128">
-        <v>0</v>
-      </c>
-      <c r="L128">
-        <v>0</v>
-      </c>
-      <c r="M128">
-        <v>0.25</v>
-      </c>
       <c r="N128">
-        <v>0.2035714285714286</v>
+        <v>0.2046428571428572</v>
       </c>
       <c r="O128">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P128" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="Q128" t="s">
         <v>393</v>
       </c>
       <c r="R128" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="S128" t="s">
         <v>403</v>
@@ -9164,46 +9164,46 @@
         <v>0.2380952380952381</v>
       </c>
       <c r="F129">
-        <v>0.05555555555555555</v>
+        <v>0</v>
       </c>
       <c r="G129">
-        <v>0.1428571428571428</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="H129">
-        <v>0.1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="I129">
         <v>0.4</v>
       </c>
       <c r="J129">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="K129">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="L129">
         <v>0</v>
       </c>
       <c r="M129">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="N129">
-        <v>0.2029761904761905</v>
+        <v>0.2025</v>
       </c>
       <c r="O129">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P129" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="Q129" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="R129" t="s">
         <v>397</v>
       </c>
       <c r="S129" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="130" spans="1:19">
@@ -9220,25 +9220,25 @@
         <v>330</v>
       </c>
       <c r="E130">
-        <v>0.1904761904761905</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="F130">
-        <v>0.1111111111111111</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="G130">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="H130">
-        <v>0.4</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="I130">
         <v>0.2</v>
       </c>
       <c r="J130">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="K130">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="L130">
         <v>0</v>
@@ -9247,7 +9247,7 @@
         <v>0</v>
       </c>
       <c r="N130">
-        <v>0.2005952380952381</v>
+        <v>0.2009523809523809</v>
       </c>
       <c r="O130">
         <v>5</v>
@@ -9256,10 +9256,10 @@
         <v>383</v>
       </c>
       <c r="Q130" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="R130" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="S130" t="s">
         <v>403</v>
@@ -9279,49 +9279,49 @@
         <v>331</v>
       </c>
       <c r="E131">
-        <v>0.2380952380952381</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F131">
         <v>0</v>
       </c>
       <c r="G131">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H131">
-        <v>0.3</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="I131">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="J131">
+        <v>0</v>
+      </c>
+      <c r="K131">
+        <v>0</v>
+      </c>
+      <c r="L131">
+        <v>0.2</v>
+      </c>
+      <c r="M131">
         <v>0.25</v>
       </c>
-      <c r="K131">
-        <v>0</v>
-      </c>
-      <c r="L131">
-        <v>0</v>
-      </c>
-      <c r="M131">
-        <v>0</v>
-      </c>
       <c r="N131">
-        <v>0.1975</v>
+        <v>0.1953571428571429</v>
       </c>
       <c r="O131">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P131" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="Q131" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="R131" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="S131" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="132" spans="1:19">
@@ -9338,46 +9338,46 @@
         <v>332</v>
       </c>
       <c r="E132">
-        <v>0.3333333333333333</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="F132">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="G132">
         <v>0.2857142857142857</v>
       </c>
       <c r="H132">
-        <v>0.3</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="I132">
         <v>0.2</v>
       </c>
       <c r="J132">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="K132">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="L132">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="M132">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="N132">
-        <v>0.1903571428571429</v>
+        <v>0.1905952380952381</v>
       </c>
       <c r="O132">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P132" t="s">
         <v>383</v>
       </c>
       <c r="Q132" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="R132" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="S132" t="s">
         <v>403</v>
@@ -9406,7 +9406,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="H133">
-        <v>0.4</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="I133">
         <v>0.4</v>
@@ -9424,7 +9424,7 @@
         <v>0</v>
       </c>
       <c r="N133">
-        <v>0.1797619047619048</v>
+        <v>0.1864285714285714</v>
       </c>
       <c r="O133">
         <v>1</v>
@@ -9456,16 +9456,16 @@
         <v>334</v>
       </c>
       <c r="E134">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="F134">
+        <v>0</v>
+      </c>
+      <c r="G134">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="H134">
         <v>0.3333333333333333</v>
-      </c>
-      <c r="F134">
-        <v>0</v>
-      </c>
-      <c r="G134">
-        <v>0.1428571428571428</v>
-      </c>
-      <c r="H134">
-        <v>0.4</v>
       </c>
       <c r="I134">
         <v>0.2</v>
@@ -9483,16 +9483,16 @@
         <v>0</v>
       </c>
       <c r="N134">
-        <v>0.1714285714285714</v>
+        <v>0.1757142857142857</v>
       </c>
       <c r="O134">
         <v>1</v>
       </c>
       <c r="P134" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q134" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="R134" t="s">
         <v>397</v>
@@ -9515,16 +9515,16 @@
         <v>335</v>
       </c>
       <c r="E135">
+        <v>0.2380952380952381</v>
+      </c>
+      <c r="F135">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="G135">
         <v>0.1428571428571428</v>
       </c>
-      <c r="F135">
-        <v>0</v>
-      </c>
-      <c r="G135">
-        <v>0.4285714285714285</v>
-      </c>
       <c r="H135">
-        <v>0.3</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="I135">
         <v>0.2</v>
@@ -9536,25 +9536,25 @@
         <v>0</v>
       </c>
       <c r="L135">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="M135">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="N135">
-        <v>0.1707142857142857</v>
+        <v>0.1646428571428571</v>
       </c>
       <c r="O135">
         <v>1</v>
       </c>
       <c r="P135" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="Q135" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="R135" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="S135" t="s">
         <v>402</v>
@@ -9574,19 +9574,19 @@
         <v>336</v>
       </c>
       <c r="E136">
-        <v>0.1428571428571428</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F136">
-        <v>0.05555555555555555</v>
+        <v>0</v>
       </c>
       <c r="G136">
         <v>0.1428571428571428</v>
       </c>
       <c r="H136">
-        <v>0.6</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="I136">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J136">
         <v>0</v>
@@ -9601,22 +9601,22 @@
         <v>0</v>
       </c>
       <c r="N136">
-        <v>0.1611904761904762</v>
+        <v>0.1614285714285714</v>
       </c>
       <c r="O136">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P136" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="Q136" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="R136" t="s">
         <v>397</v>
       </c>
       <c r="S136" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="137" spans="1:19">
@@ -9633,49 +9633,49 @@
         <v>337</v>
       </c>
       <c r="E137">
-        <v>0.2380952380952381</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="F137">
-        <v>0.1666666666666667</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="G137">
         <v>0.1428571428571428</v>
       </c>
       <c r="H137">
-        <v>0.3</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137">
+        <v>0</v>
+      </c>
+      <c r="K137">
+        <v>0</v>
+      </c>
+      <c r="L137">
         <v>0.2</v>
       </c>
-      <c r="J137">
-        <v>0</v>
-      </c>
-      <c r="K137">
-        <v>0</v>
-      </c>
-      <c r="L137">
-        <v>0</v>
-      </c>
       <c r="M137">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="N137">
-        <v>0.1596428571428571</v>
+        <v>0.1545238095238095</v>
       </c>
       <c r="O137">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P137" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q137" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="R137" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="S137" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="138" spans="1:19">
@@ -9701,7 +9701,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="H138">
-        <v>0.1</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="I138">
         <v>0.4</v>
@@ -9719,7 +9719,7 @@
         <v>0</v>
       </c>
       <c r="N138">
-        <v>0.1407142857142857</v>
+        <v>0.1423809523809524</v>
       </c>
       <c r="O138">
         <v>4</v>
@@ -9760,7 +9760,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="H139">
-        <v>0.3</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="I139">
         <v>0.2</v>
@@ -9778,7 +9778,7 @@
         <v>0.25</v>
       </c>
       <c r="N139">
-        <v>0.1203571428571429</v>
+        <v>0.1253571428571429</v>
       </c>
       <c r="O139">
         <v>1</v>
@@ -9869,19 +9869,19 @@
         <v>341</v>
       </c>
       <c r="E141">
-        <v>0.1428571428571428</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="F141">
         <v>0</v>
       </c>
       <c r="G141">
-        <v>0.2857142857142857</v>
+        <v>0</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="I141">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="J141">
         <v>0</v>
@@ -9890,7 +9890,7 @@
         <v>0</v>
       </c>
       <c r="L141">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="M141">
         <v>0</v>
@@ -9899,16 +9899,16 @@
         <v>0.1042857142857143</v>
       </c>
       <c r="O141">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P141" t="s">
         <v>384</v>
       </c>
       <c r="Q141" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="R141" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="S141" t="s">
         <v>403</v>
@@ -9928,19 +9928,19 @@
         <v>342</v>
       </c>
       <c r="E142">
-        <v>0.09523809523809523</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="F142">
         <v>0</v>
       </c>
       <c r="G142">
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H142">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="I142">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="J142">
         <v>0</v>
@@ -9949,25 +9949,25 @@
         <v>0</v>
       </c>
       <c r="L142">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="M142">
         <v>0</v>
       </c>
       <c r="N142">
-        <v>0.0992857142857143</v>
+        <v>0.1042857142857143</v>
       </c>
       <c r="O142">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P142" t="s">
         <v>384</v>
       </c>
       <c r="Q142" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="R142" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="S142" t="s">
         <v>403</v>
@@ -10135,19 +10135,19 @@
         <v>0</v>
       </c>
       <c r="O145">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P145" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="Q145" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="R145" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="S145" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="146" spans="1:19">
@@ -10194,19 +10194,19 @@
         <v>0</v>
       </c>
       <c r="O146">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P146" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="Q146" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="R146" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="S146" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="147" spans="1:19">

--- a/2021/district_councils.xlsx
+++ b/2021/district_councils.xlsx
@@ -223,12 +223,12 @@
     <t>Colchester Borough Council</t>
   </si>
   <si>
+    <t>Worthing Borough Council</t>
+  </si>
+  <si>
     <t>Adur District Council</t>
   </si>
   <si>
-    <t>Worthing Borough Council</t>
-  </si>
-  <si>
     <t>Ipswich Borough Council</t>
   </si>
   <si>
@@ -442,12 +442,12 @@
     <t>Chelmsford City Council</t>
   </si>
   <si>
+    <t>Hambleton District Council</t>
+  </si>
+  <si>
     <t>Test Valley Borough Council</t>
   </si>
   <si>
-    <t>Hambleton District Council</t>
-  </si>
-  <si>
     <t>Rother District Council</t>
   </si>
   <si>
@@ -484,6 +484,9 @@
     <t>Tendring District Council</t>
   </si>
   <si>
+    <t>North Norfolk District Council</t>
+  </si>
+  <si>
     <t>Hinckley and Bosworth Borough Council</t>
   </si>
   <si>
@@ -496,22 +499,25 @@
     <t>Lancaster City Council</t>
   </si>
   <si>
+    <t>Tewkesbury Borough Council</t>
+  </si>
+  <si>
     <t>Bromsgrove District Council</t>
   </si>
   <si>
-    <t>Tewkesbury Borough Council</t>
-  </si>
-  <si>
     <t>Harlow District Council</t>
   </si>
   <si>
     <t>Rochford District Council</t>
   </si>
   <si>
+    <t>Tamworth Borough Council</t>
+  </si>
+  <si>
     <t>Vale of White Horse District Council</t>
   </si>
   <si>
-    <t>Tamworth Borough Council</t>
+    <t>Dartford Borough Council</t>
   </si>
   <si>
     <t>Eden District Council</t>
@@ -526,84 +532,81 @@
     <t>Fenland District Council</t>
   </si>
   <si>
+    <t>Fylde Borough Council</t>
+  </si>
+  <si>
+    <t>Gloucester City Council</t>
+  </si>
+  <si>
+    <t>Great Yarmouth Borough Council</t>
+  </si>
+  <si>
     <t>Crawley Borough Council</t>
   </si>
   <si>
-    <t>Fylde Borough Council</t>
-  </si>
-  <si>
-    <t>Gloucester City Council</t>
-  </si>
-  <si>
-    <t>Great Yarmouth Borough Council</t>
-  </si>
-  <si>
-    <t>Dartford Borough Council</t>
+    <t>Arun District Council</t>
+  </si>
+  <si>
+    <t>Ashfield District Council</t>
+  </si>
+  <si>
+    <t>Bassetlaw District Council</t>
+  </si>
+  <si>
+    <t>Brentwood Borough Council</t>
+  </si>
+  <si>
+    <t>Burnley Borough Council</t>
+  </si>
+  <si>
+    <t>Cannock Chase District Council</t>
+  </si>
+  <si>
+    <t>Castle Point Borough Council</t>
+  </si>
+  <si>
+    <t>Chorley Borough Council</t>
   </si>
   <si>
     <t>Spelthorne Borough Council</t>
   </si>
   <si>
-    <t>Arun District Council</t>
-  </si>
-  <si>
-    <t>Ashfield District Council</t>
-  </si>
-  <si>
-    <t>Bassetlaw District Council</t>
-  </si>
-  <si>
-    <t>Brentwood Borough Council</t>
-  </si>
-  <si>
-    <t>Burnley Borough Council</t>
-  </si>
-  <si>
-    <t>Cannock Chase District Council</t>
-  </si>
-  <si>
-    <t>Castle Point Borough Council</t>
-  </si>
-  <si>
-    <t>Chorley Borough Council</t>
+    <t>Nuneaton and Bedworth Borough Council</t>
+  </si>
+  <si>
+    <t>North Warwickshire Borough Council</t>
+  </si>
+  <si>
+    <t>Preston City Council</t>
+  </si>
+  <si>
+    <t>Redditch Borough Council</t>
   </si>
   <si>
     <t>Ribble Valley Borough Council</t>
   </si>
   <si>
-    <t>Nuneaton and Bedworth Borough Council</t>
-  </si>
-  <si>
-    <t>North Warwickshire Borough Council</t>
-  </si>
-  <si>
-    <t>Preston City Council</t>
-  </si>
-  <si>
-    <t>Redditch Borough Council</t>
-  </si>
-  <si>
     <t>Rugby Borough Council</t>
   </si>
   <si>
+    <t>Runnymede Borough Council</t>
+  </si>
+  <si>
+    <t>Selby District Council</t>
+  </si>
+  <si>
+    <t>South Holland District Council</t>
+  </si>
+  <si>
+    <t>South Oxfordshire District Council</t>
+  </si>
+  <si>
+    <t>New Forest District Council</t>
+  </si>
+  <si>
     <t>Huntingdonshire District Council</t>
   </si>
   <si>
-    <t>Runnymede Borough Council</t>
-  </si>
-  <si>
-    <t>Selby District Council</t>
-  </si>
-  <si>
-    <t>South Holland District Council</t>
-  </si>
-  <si>
-    <t>South Oxfordshire District Council</t>
-  </si>
-  <si>
-    <t>North Norfolk District Council</t>
-  </si>
-  <si>
     <t>Hyndburn Borough Council</t>
   </si>
   <si>
@@ -619,9 +622,6 @@
     <t>North Devon District Council</t>
   </si>
   <si>
-    <t>New Forest District Council</t>
-  </si>
-  <si>
     <t>SWT</t>
   </si>
   <si>
@@ -766,12 +766,12 @@
     <t>COL</t>
   </si>
   <si>
+    <t>WOT</t>
+  </si>
+  <si>
     <t>ADU</t>
   </si>
   <si>
-    <t>WOT</t>
-  </si>
-  <si>
     <t>IPS</t>
   </si>
   <si>
@@ -985,12 +985,12 @@
     <t>CHL</t>
   </si>
   <si>
+    <t>HAE</t>
+  </si>
+  <si>
     <t>TES</t>
   </si>
   <si>
-    <t>HAE</t>
-  </si>
-  <si>
     <t>ROH</t>
   </si>
   <si>
@@ -1027,6 +1027,9 @@
     <t>TEN</t>
   </si>
   <si>
+    <t>NNO</t>
+  </si>
+  <si>
     <t>HIN</t>
   </si>
   <si>
@@ -1039,22 +1042,25 @@
     <t>LAC</t>
   </si>
   <si>
+    <t>TEW</t>
+  </si>
+  <si>
     <t>BRM</t>
   </si>
   <si>
-    <t>TEW</t>
-  </si>
-  <si>
     <t>HAR</t>
   </si>
   <si>
     <t>ROC</t>
   </si>
   <si>
+    <t>TAW</t>
+  </si>
+  <si>
     <t>VAL</t>
   </si>
   <si>
-    <t>TAW</t>
+    <t>DAR</t>
   </si>
   <si>
     <t>EDN</t>
@@ -1069,84 +1075,81 @@
     <t>FEN</t>
   </si>
   <si>
+    <t>FYL</t>
+  </si>
+  <si>
+    <t>GLO</t>
+  </si>
+  <si>
+    <t>GRY</t>
+  </si>
+  <si>
     <t>CRW</t>
   </si>
   <si>
-    <t>FYL</t>
-  </si>
-  <si>
-    <t>GLO</t>
-  </si>
-  <si>
-    <t>GRY</t>
-  </si>
-  <si>
-    <t>DAR</t>
+    <t>ARU</t>
+  </si>
+  <si>
+    <t>ASH</t>
+  </si>
+  <si>
+    <t>BAE</t>
+  </si>
+  <si>
+    <t>BRW</t>
+  </si>
+  <si>
+    <t>BUN</t>
+  </si>
+  <si>
+    <t>CAN</t>
+  </si>
+  <si>
+    <t>CAS</t>
+  </si>
+  <si>
+    <t>CHO</t>
   </si>
   <si>
     <t>SPE</t>
   </si>
   <si>
-    <t>ARU</t>
-  </si>
-  <si>
-    <t>ASH</t>
-  </si>
-  <si>
-    <t>BAE</t>
-  </si>
-  <si>
-    <t>BRW</t>
-  </si>
-  <si>
-    <t>BUN</t>
-  </si>
-  <si>
-    <t>CAN</t>
-  </si>
-  <si>
-    <t>CAS</t>
-  </si>
-  <si>
-    <t>CHO</t>
+    <t>NUN</t>
+  </si>
+  <si>
+    <t>NWA</t>
+  </si>
+  <si>
+    <t>PRE</t>
+  </si>
+  <si>
+    <t>RED</t>
   </si>
   <si>
     <t>RIB</t>
   </si>
   <si>
-    <t>NUN</t>
-  </si>
-  <si>
-    <t>NWA</t>
-  </si>
-  <si>
-    <t>PRE</t>
-  </si>
-  <si>
-    <t>RED</t>
-  </si>
-  <si>
     <t>RUG</t>
   </si>
   <si>
+    <t>RUN</t>
+  </si>
+  <si>
+    <t>SEL</t>
+  </si>
+  <si>
+    <t>SHO</t>
+  </si>
+  <si>
+    <t>SOX</t>
+  </si>
+  <si>
+    <t>NEW</t>
+  </si>
+  <si>
     <t>HUN</t>
   </si>
   <si>
-    <t>RUN</t>
-  </si>
-  <si>
-    <t>SEL</t>
-  </si>
-  <si>
-    <t>SHO</t>
-  </si>
-  <si>
-    <t>SOX</t>
-  </si>
-  <si>
-    <t>NNO</t>
-  </si>
-  <si>
     <t>HYN</t>
   </si>
   <si>
@@ -1160,9 +1163,6 @@
   </si>
   <si>
     <t>NDE</t>
-  </si>
-  <si>
-    <t>NEW</t>
   </si>
   <si>
     <t>140k - 160k</t>
@@ -4530,10 +4530,10 @@
         <v>0.5123809523809524</v>
       </c>
       <c r="O50">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P50" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q50" t="s">
         <v>392</v>
@@ -4589,10 +4589,10 @@
         <v>0.5123809523809524</v>
       </c>
       <c r="O51">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P51" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="Q51" t="s">
         <v>392</v>
@@ -8807,31 +8807,31 @@
         <v>323</v>
       </c>
       <c r="E123">
+        <v>0.1904761904761905</v>
+      </c>
+      <c r="F123">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="G123">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="H123">
         <v>0.3333333333333333</v>
       </c>
-      <c r="F123">
-        <v>0.05555555555555555</v>
-      </c>
-      <c r="G123">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="H123">
-        <v>0.4444444444444444</v>
-      </c>
       <c r="I123">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="J123">
+        <v>0</v>
+      </c>
+      <c r="K123">
+        <v>0</v>
+      </c>
+      <c r="L123">
+        <v>0.2</v>
+      </c>
+      <c r="M123">
         <v>0.25</v>
-      </c>
-      <c r="K123">
-        <v>0</v>
-      </c>
-      <c r="L123">
-        <v>0</v>
-      </c>
-      <c r="M123">
-        <v>0</v>
       </c>
       <c r="N123">
         <v>0.2203571428571429</v>
@@ -8840,13 +8840,13 @@
         <v>4</v>
       </c>
       <c r="P123" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="Q123" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="R123" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="S123" t="s">
         <v>403</v>
@@ -8866,31 +8866,31 @@
         <v>324</v>
       </c>
       <c r="E124">
-        <v>0.1904761904761905</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F124">
-        <v>0.1666666666666667</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="G124">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H124">
-        <v>0.3333333333333333</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="I124">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="J124">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="K124">
         <v>0</v>
       </c>
       <c r="L124">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="M124">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="N124">
         <v>0.2203571428571429</v>
@@ -8899,13 +8899,13 @@
         <v>4</v>
       </c>
       <c r="P124" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="Q124" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="R124" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="S124" t="s">
         <v>403</v>
@@ -9654,25 +9654,25 @@
         <v>0</v>
       </c>
       <c r="L137">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="M137">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N137">
-        <v>0.1545238095238095</v>
+        <v>0.1595238095238095</v>
       </c>
       <c r="O137">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P137" t="s">
         <v>388</v>
       </c>
       <c r="Q137" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="R137" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="S137" t="s">
         <v>401</v>
@@ -9692,19 +9692,19 @@
         <v>338</v>
       </c>
       <c r="E138">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="F138">
-        <v>0</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="G138">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="H138">
-        <v>0.1111111111111111</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="I138">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="J138">
         <v>0</v>
@@ -9713,19 +9713,19 @@
         <v>0</v>
       </c>
       <c r="L138">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="M138">
         <v>0</v>
       </c>
       <c r="N138">
-        <v>0.1423809523809524</v>
+        <v>0.1545238095238095</v>
       </c>
       <c r="O138">
         <v>4</v>
       </c>
       <c r="P138" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="Q138" t="s">
         <v>393</v>
@@ -9734,7 +9734,7 @@
         <v>397</v>
       </c>
       <c r="S138" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="139" spans="1:19">
@@ -9751,7 +9751,7 @@
         <v>339</v>
       </c>
       <c r="E139">
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="F139">
         <v>0</v>
@@ -9760,10 +9760,10 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="H139">
-        <v>0.3333333333333333</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="I139">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="J139">
         <v>0</v>
@@ -9775,16 +9775,16 @@
         <v>0</v>
       </c>
       <c r="M139">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="N139">
-        <v>0.1253571428571429</v>
+        <v>0.1423809523809524</v>
       </c>
       <c r="O139">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P139" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="Q139" t="s">
         <v>393</v>
@@ -9793,7 +9793,7 @@
         <v>397</v>
       </c>
       <c r="S139" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="140" spans="1:19">
@@ -9810,19 +9810,19 @@
         <v>340</v>
       </c>
       <c r="E140">
+        <v>0</v>
+      </c>
+      <c r="F140">
+        <v>0</v>
+      </c>
+      <c r="G140">
         <v>0.2857142857142857</v>
       </c>
-      <c r="F140">
-        <v>0.2222222222222222</v>
-      </c>
-      <c r="G140">
-        <v>0.1428571428571428</v>
-      </c>
       <c r="H140">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="I140">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J140">
         <v>0</v>
@@ -9831,22 +9831,22 @@
         <v>0</v>
       </c>
       <c r="L140">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="M140">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="N140">
-        <v>0.1176190476190476</v>
+        <v>0.1253571428571429</v>
       </c>
       <c r="O140">
         <v>1</v>
       </c>
       <c r="P140" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="Q140" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="R140" t="s">
         <v>397</v>
@@ -9869,19 +9869,19 @@
         <v>341</v>
       </c>
       <c r="E141">
-        <v>0.09523809523809523</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="F141">
-        <v>0</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="G141">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="H141">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="I141">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="J141">
         <v>0</v>
@@ -9896,22 +9896,22 @@
         <v>0</v>
       </c>
       <c r="N141">
-        <v>0.1042857142857143</v>
+        <v>0.1176190476190476</v>
       </c>
       <c r="O141">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P141" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="Q141" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="R141" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="S141" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="142" spans="1:19">
@@ -9993,13 +9993,13 @@
         <v>0</v>
       </c>
       <c r="G143">
-        <v>0.2857142857142857</v>
+        <v>0</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="I143">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J143">
         <v>0</v>
@@ -10008,22 +10008,22 @@
         <v>0</v>
       </c>
       <c r="L143">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="M143">
         <v>0</v>
       </c>
       <c r="N143">
-        <v>0.05714285714285713</v>
+        <v>0.1042857142857143</v>
       </c>
       <c r="O143">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P143" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="Q143" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="R143" t="s">
         <v>400</v>
@@ -10046,13 +10046,13 @@
         <v>344</v>
       </c>
       <c r="E144">
-        <v>0.04761904761904762</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="F144">
         <v>0</v>
       </c>
       <c r="G144">
-        <v>0.1428571428571428</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H144">
         <v>0</v>
@@ -10073,10 +10073,10 @@
         <v>0</v>
       </c>
       <c r="N144">
-        <v>0.02857142857142857</v>
+        <v>0.05714285714285713</v>
       </c>
       <c r="O144">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P144" t="s">
         <v>389</v>
@@ -10105,13 +10105,13 @@
         <v>345</v>
       </c>
       <c r="E145">
-        <v>0</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="F145">
         <v>0</v>
       </c>
       <c r="G145">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="H145">
         <v>0</v>
@@ -10132,22 +10132,22 @@
         <v>0</v>
       </c>
       <c r="N145">
-        <v>0</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="O145">
         <v>5</v>
       </c>
       <c r="P145" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="Q145" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="R145" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="S145" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="146" spans="1:19">
@@ -10253,19 +10253,19 @@
         <v>0</v>
       </c>
       <c r="O147">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P147" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="Q147" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="R147" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="S147" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="148" spans="1:19">
@@ -10318,7 +10318,7 @@
         <v>388</v>
       </c>
       <c r="Q148" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="R148" t="s">
         <v>400</v>
@@ -10371,19 +10371,19 @@
         <v>0</v>
       </c>
       <c r="O149">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P149" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q149" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="R149" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="S149" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="150" spans="1:19">
@@ -10430,16 +10430,16 @@
         <v>0</v>
       </c>
       <c r="O150">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P150" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="Q150" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="R150" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="S150" t="s">
         <v>403</v>
@@ -10492,16 +10492,16 @@
         <v>2</v>
       </c>
       <c r="P151" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="Q151" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="R151" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="S151" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="152" spans="1:19">
@@ -10548,13 +10548,13 @@
         <v>0</v>
       </c>
       <c r="O152">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P152" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="Q152" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="R152" t="s">
         <v>397</v>
@@ -10607,16 +10607,16 @@
         <v>0</v>
       </c>
       <c r="O153">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P153" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="Q153" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="R153" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="S153" t="s">
         <v>403</v>
@@ -10669,13 +10669,13 @@
         <v>1</v>
       </c>
       <c r="P154" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q154" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="R154" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="S154" t="s">
         <v>403</v>
@@ -10725,16 +10725,16 @@
         <v>0</v>
       </c>
       <c r="O155">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P155" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="Q155" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="R155" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="S155" t="s">
         <v>403</v>
@@ -10784,10 +10784,10 @@
         <v>0</v>
       </c>
       <c r="O156">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P156" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="Q156" t="s">
         <v>392</v>
@@ -11315,19 +11315,19 @@
         <v>0</v>
       </c>
       <c r="O165">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P165" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="Q165" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="R165" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="S165" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="166" spans="1:19">
@@ -11610,16 +11610,16 @@
         <v>0</v>
       </c>
       <c r="O170">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P170" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="Q170" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="R170" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="S170" t="s">
         <v>403</v>
@@ -11672,13 +11672,13 @@
         <v>4</v>
       </c>
       <c r="P171" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="Q171" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="R171" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="S171" t="s">
         <v>403</v>
@@ -11964,19 +11964,19 @@
         <v>0</v>
       </c>
       <c r="O176">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P176" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="Q176" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="R176" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="S176" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="177" spans="1:19">
@@ -12023,19 +12023,19 @@
         <v>0</v>
       </c>
       <c r="O177">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P177" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="Q177" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="R177" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="S177" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="178" spans="1:19">
@@ -12082,19 +12082,19 @@
         <v>0</v>
       </c>
       <c r="O178">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P178" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q178" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="R178" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="S178" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="179" spans="1:19">
@@ -12141,19 +12141,19 @@
         <v>0</v>
       </c>
       <c r="O179">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P179" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q179" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="R179" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="S179" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="180" spans="1:19">
@@ -12200,19 +12200,19 @@
         <v>0</v>
       </c>
       <c r="O180">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P180" t="s">
         <v>387</v>
       </c>
       <c r="Q180" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="R180" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="S180" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="181" spans="1:19">
@@ -12259,19 +12259,19 @@
         <v>0</v>
       </c>
       <c r="O181">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P181" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="Q181" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="R181" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="S181" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="182" spans="1:19">
@@ -12318,19 +12318,19 @@
         <v>0</v>
       </c>
       <c r="O182">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P182" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="Q182" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="R182" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="S182" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
   </sheetData>

--- a/2021/district_councils.xlsx
+++ b/2021/district_councils.xlsx
@@ -166,12 +166,12 @@
     <t>Thanet District Council</t>
   </si>
   <si>
+    <t>Babergh District Council</t>
+  </si>
+  <si>
     <t>Mid Suffolk District Council</t>
   </si>
   <si>
-    <t>Babergh District Council</t>
-  </si>
-  <si>
     <t>Mid Devon District Council</t>
   </si>
   <si>
@@ -205,6 +205,9 @@
     <t>Sevenoaks District Council</t>
   </si>
   <si>
+    <t>Adur District Council</t>
+  </si>
+  <si>
     <t>Basingstoke and Deane Borough Council</t>
   </si>
   <si>
@@ -217,18 +220,15 @@
     <t>St Albans City and District Council</t>
   </si>
   <si>
+    <t>Worthing Borough Council</t>
+  </si>
+  <si>
     <t>Warwick District Council</t>
   </si>
   <si>
     <t>Colchester Borough Council</t>
   </si>
   <si>
-    <t>Worthing Borough Council</t>
-  </si>
-  <si>
-    <t>Adur District Council</t>
-  </si>
-  <si>
     <t>Ipswich Borough Council</t>
   </si>
   <si>
@@ -442,12 +442,12 @@
     <t>Chelmsford City Council</t>
   </si>
   <si>
+    <t>Test Valley Borough Council</t>
+  </si>
+  <si>
     <t>Hambleton District Council</t>
   </si>
   <si>
-    <t>Test Valley Borough Council</t>
-  </si>
-  <si>
     <t>Rother District Council</t>
   </si>
   <si>
@@ -511,12 +511,12 @@
     <t>Rochford District Council</t>
   </si>
   <si>
+    <t>Vale of White Horse District Council</t>
+  </si>
+  <si>
     <t>Tamworth Borough Council</t>
   </si>
   <si>
-    <t>Vale of White Horse District Council</t>
-  </si>
-  <si>
     <t>Dartford Borough Council</t>
   </si>
   <si>
@@ -709,12 +709,12 @@
     <t>THA</t>
   </si>
   <si>
+    <t>BAB</t>
+  </si>
+  <si>
     <t>MSU</t>
   </si>
   <si>
-    <t>BAB</t>
-  </si>
-  <si>
     <t>MDE</t>
   </si>
   <si>
@@ -748,6 +748,9 @@
     <t>SEV</t>
   </si>
   <si>
+    <t>ADU</t>
+  </si>
+  <si>
     <t>BAN</t>
   </si>
   <si>
@@ -760,18 +763,15 @@
     <t>SAL</t>
   </si>
   <si>
+    <t>WOT</t>
+  </si>
+  <si>
     <t>WAW</t>
   </si>
   <si>
     <t>COL</t>
   </si>
   <si>
-    <t>WOT</t>
-  </si>
-  <si>
-    <t>ADU</t>
-  </si>
-  <si>
     <t>IPS</t>
   </si>
   <si>
@@ -985,12 +985,12 @@
     <t>CHL</t>
   </si>
   <si>
+    <t>TES</t>
+  </si>
+  <si>
     <t>HAE</t>
   </si>
   <si>
-    <t>TES</t>
-  </si>
-  <si>
     <t>ROH</t>
   </si>
   <si>
@@ -1054,10 +1054,10 @@
     <t>ROC</t>
   </si>
   <si>
+    <t>VAL</t>
+  </si>
+  <si>
     <t>TAW</t>
-  </si>
-  <si>
-    <t>VAL</t>
   </si>
   <si>
     <t>DAR</t>
@@ -3409,16 +3409,16 @@
         <v>0.5779761904761905</v>
       </c>
       <c r="O31">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P31" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="Q31" t="s">
         <v>394</v>
       </c>
       <c r="R31" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="S31" t="s">
         <v>402</v>
@@ -3468,16 +3468,16 @@
         <v>0.5779761904761905</v>
       </c>
       <c r="O32">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P32" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="Q32" t="s">
         <v>394</v>
       </c>
       <c r="R32" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="S32" t="s">
         <v>402</v>
@@ -4149,43 +4149,43 @@
         <v>0.6190476190476191</v>
       </c>
       <c r="F44">
-        <v>0.4444444444444444</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G44">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H44">
         <v>0.5555555555555556</v>
       </c>
       <c r="I44">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="J44">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K44">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="L44">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="M44">
         <v>0.5</v>
       </c>
       <c r="N44">
-        <v>0.5414285714285715</v>
+        <v>0.5415476190476191</v>
       </c>
       <c r="O44">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P44" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q44" t="s">
         <v>392</v>
       </c>
       <c r="R44" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="S44" t="s">
         <v>403</v>
@@ -4205,22 +4205,22 @@
         <v>245</v>
       </c>
       <c r="E45">
-        <v>0.6666666666666666</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="F45">
-        <v>0.2777777777777778</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="G45">
-        <v>0.7142857142857143</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H45">
-        <v>0.6666666666666666</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="J45">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="K45">
         <v>0</v>
@@ -4229,19 +4229,19 @@
         <v>0.4</v>
       </c>
       <c r="M45">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="N45">
-        <v>0.5388095238095237</v>
+        <v>0.5414285714285715</v>
       </c>
       <c r="O45">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P45" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="Q45" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="R45" t="s">
         <v>397</v>
@@ -4264,34 +4264,34 @@
         <v>246</v>
       </c>
       <c r="E46">
-        <v>0.6190476190476191</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F46">
-        <v>0.5</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="G46">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H46">
-        <v>0.5555555555555556</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I46">
         <v>1</v>
       </c>
       <c r="J46">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K46">
         <v>0</v>
       </c>
       <c r="L46">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="M46">
         <v>0.25</v>
       </c>
       <c r="N46">
-        <v>0.5372619047619047</v>
+        <v>0.5388095238095237</v>
       </c>
       <c r="O46">
         <v>2</v>
@@ -4306,7 +4306,7 @@
         <v>397</v>
       </c>
       <c r="S46" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="47" spans="1:19">
@@ -4323,19 +4323,19 @@
         <v>247</v>
       </c>
       <c r="E47">
-        <v>0.5714285714285714</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="F47">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G47">
-        <v>0.4285714285714285</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H47">
-        <v>0.7777777777777778</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="I47">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="J47">
         <v>0.5</v>
@@ -4344,28 +4344,28 @@
         <v>0</v>
       </c>
       <c r="L47">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="M47">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="N47">
-        <v>0.5291666666666667</v>
+        <v>0.5372619047619047</v>
       </c>
       <c r="O47">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P47" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="Q47" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="R47" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="S47" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="48" spans="1:19">
@@ -4382,19 +4382,19 @@
         <v>248</v>
       </c>
       <c r="E48">
-        <v>0.9047619047619048</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="F48">
-        <v>0.5555555555555556</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G48">
         <v>0.4285714285714285</v>
       </c>
       <c r="H48">
-        <v>0.6666666666666666</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="I48">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="J48">
         <v>0.5</v>
@@ -4403,28 +4403,28 @@
         <v>0</v>
       </c>
       <c r="L48">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="M48">
         <v>0.75</v>
       </c>
       <c r="N48">
-        <v>0.5258333333333334</v>
+        <v>0.5291666666666667</v>
       </c>
       <c r="O48">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P48" t="s">
         <v>383</v>
       </c>
       <c r="Q48" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="R48" t="s">
         <v>400</v>
       </c>
       <c r="S48" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="49" spans="1:19">
@@ -4441,49 +4441,49 @@
         <v>249</v>
       </c>
       <c r="E49">
-        <v>0.4761904761904762</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="F49">
-        <v>0.2777777777777778</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G49">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H49">
-        <v>0.6666666666666666</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="I49">
         <v>0.6</v>
       </c>
       <c r="J49">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K49">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="L49">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="M49">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="N49">
-        <v>0.5166666666666666</v>
+        <v>0.529047619047619</v>
       </c>
       <c r="O49">
         <v>3</v>
       </c>
       <c r="P49" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="Q49" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="R49" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="S49" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="50" spans="1:19">
@@ -4500,49 +4500,49 @@
         <v>250</v>
       </c>
       <c r="E50">
-        <v>0.6190476190476191</v>
+        <v>0.9047619047619048</v>
       </c>
       <c r="F50">
         <v>0.5555555555555556</v>
       </c>
       <c r="G50">
-        <v>0.2857142857142857</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="H50">
-        <v>0.5555555555555556</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I50">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="J50">
+        <v>0.5</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
         <v>0.75</v>
       </c>
-      <c r="K50">
-        <v>0.4</v>
-      </c>
-      <c r="L50">
-        <v>0.6</v>
-      </c>
-      <c r="M50">
-        <v>0.25</v>
-      </c>
       <c r="N50">
-        <v>0.5123809523809524</v>
+        <v>0.5258333333333334</v>
       </c>
       <c r="O50">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P50" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="Q50" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="R50" t="s">
         <v>400</v>
       </c>
       <c r="S50" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="51" spans="1:19">
@@ -4559,49 +4559,49 @@
         <v>251</v>
       </c>
       <c r="E51">
-        <v>0.6190476190476191</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="F51">
-        <v>0.5555555555555556</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="G51">
-        <v>0.2857142857142857</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H51">
-        <v>0.5555555555555556</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I51">
         <v>0.6</v>
       </c>
       <c r="J51">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
         <v>0.4</v>
       </c>
-      <c r="L51">
-        <v>0.6</v>
-      </c>
       <c r="M51">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="N51">
-        <v>0.5123809523809524</v>
+        <v>0.5166666666666666</v>
       </c>
       <c r="O51">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P51" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Q51" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="R51" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="S51" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="52" spans="1:19">
@@ -8807,31 +8807,31 @@
         <v>323</v>
       </c>
       <c r="E123">
-        <v>0.1904761904761905</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F123">
-        <v>0.1666666666666667</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="G123">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H123">
-        <v>0.3333333333333333</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="I123">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="J123">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="K123">
         <v>0</v>
       </c>
       <c r="L123">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="M123">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="N123">
         <v>0.2203571428571429</v>
@@ -8840,13 +8840,13 @@
         <v>4</v>
       </c>
       <c r="P123" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="Q123" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="R123" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="S123" t="s">
         <v>403</v>
@@ -8866,31 +8866,31 @@
         <v>324</v>
       </c>
       <c r="E124">
+        <v>0.1904761904761905</v>
+      </c>
+      <c r="F124">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="G124">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="H124">
         <v>0.3333333333333333</v>
       </c>
-      <c r="F124">
-        <v>0.05555555555555555</v>
-      </c>
-      <c r="G124">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="H124">
-        <v>0.4444444444444444</v>
-      </c>
       <c r="I124">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="J124">
+        <v>0</v>
+      </c>
+      <c r="K124">
+        <v>0</v>
+      </c>
+      <c r="L124">
+        <v>0.2</v>
+      </c>
+      <c r="M124">
         <v>0.25</v>
-      </c>
-      <c r="K124">
-        <v>0</v>
-      </c>
-      <c r="L124">
-        <v>0</v>
-      </c>
-      <c r="M124">
-        <v>0</v>
       </c>
       <c r="N124">
         <v>0.2203571428571429</v>
@@ -8899,13 +8899,13 @@
         <v>4</v>
       </c>
       <c r="P124" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="Q124" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="R124" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="S124" t="s">
         <v>403</v>
@@ -10194,19 +10194,19 @@
         <v>0</v>
       </c>
       <c r="O146">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P146" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="Q146" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="R146" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="S146" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="147" spans="1:19">
@@ -10253,19 +10253,19 @@
         <v>0</v>
       </c>
       <c r="O147">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P147" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="Q147" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="R147" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="S147" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="148" spans="1:19">
